--- a/2020年1-5月金源消耗表 （财务运营共享版）.xlsx
+++ b/2020年1-5月金源消耗表 （财务运营共享版）.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.任务包\1.消耗表\2020.05\金源\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E111390-F73B-4993-A587-B1FA3512D100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="792"/>
   </bookViews>
   <sheets>
     <sheet name="客户表" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AL$292</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">媒体表!$A$1:$U$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1174,13 +1173,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1435,7 +1434,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1458,6 +1457,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1882,15 +1884,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
-    <cellStyle name="百分比 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="百分比 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="百分比 2 3" xfId="6"/>
+    <cellStyle name="百分比 3" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2" xfId="7"/>
     <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="千位分隔 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="千位分隔 2" xfId="5"/>
+    <cellStyle name="千位分隔 2 2 2" xfId="8"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2050,7 +2053,9 @@
           <cell r="I2" t="str">
             <v/>
           </cell>
-          <cell r="J2"/>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
           <cell r="K2" t="str">
             <v>预付款</v>
           </cell>
@@ -2128,7 +2133,9 @@
           <cell r="I3" t="str">
             <v/>
           </cell>
-          <cell r="J3"/>
+          <cell r="J3">
+            <v>0</v>
+          </cell>
           <cell r="K3" t="str">
             <v>预付款</v>
           </cell>
@@ -2206,7 +2213,9 @@
           <cell r="I4" t="str">
             <v/>
           </cell>
-          <cell r="J4"/>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
           <cell r="K4" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -2284,7 +2293,9 @@
           <cell r="I5" t="str">
             <v/>
           </cell>
-          <cell r="J5"/>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
           <cell r="K5" t="str">
             <v>预存款,账期付款,预付款</v>
           </cell>
@@ -2362,7 +2373,9 @@
           <cell r="I6" t="str">
             <v/>
           </cell>
-          <cell r="J6"/>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
           <cell r="K6" t="str">
             <v>预付款</v>
           </cell>
@@ -2440,7 +2453,9 @@
           <cell r="I7" t="str">
             <v/>
           </cell>
-          <cell r="J7"/>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
           <cell r="K7" t="str">
             <v>账期付款</v>
           </cell>
@@ -2518,7 +2533,9 @@
           <cell r="I8" t="str">
             <v/>
           </cell>
-          <cell r="J8"/>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
           <cell r="K8" t="str">
             <v>账期付款</v>
           </cell>
@@ -2596,7 +2613,9 @@
           <cell r="I9" t="str">
             <v/>
           </cell>
-          <cell r="J9"/>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
           <cell r="K9" t="str">
             <v>账期付款</v>
           </cell>
@@ -2674,7 +2693,9 @@
           <cell r="I10" t="str">
             <v/>
           </cell>
-          <cell r="J10"/>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
           <cell r="K10" t="str">
             <v>预付款</v>
           </cell>
@@ -2752,7 +2773,9 @@
           <cell r="I11" t="str">
             <v>游戏主管</v>
           </cell>
-          <cell r="J11"/>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
           <cell r="K11" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -2830,7 +2853,9 @@
           <cell r="I12" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J12"/>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
           <cell r="K12" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -2908,7 +2933,9 @@
           <cell r="I13" t="str">
             <v/>
           </cell>
-          <cell r="J13"/>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
           <cell r="K13" t="str">
             <v>预付款</v>
           </cell>
@@ -2986,7 +3013,9 @@
           <cell r="I14" t="str">
             <v/>
           </cell>
-          <cell r="J14"/>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
           <cell r="K14" t="str">
             <v>账期付款</v>
           </cell>
@@ -3064,7 +3093,9 @@
           <cell r="I15" t="str">
             <v/>
           </cell>
-          <cell r="J15"/>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
           <cell r="K15" t="str">
             <v>账期付款</v>
           </cell>
@@ -3142,7 +3173,9 @@
           <cell r="I16" t="str">
             <v/>
           </cell>
-          <cell r="J16"/>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
           <cell r="K16" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -3220,7 +3253,9 @@
           <cell r="I17" t="str">
             <v/>
           </cell>
-          <cell r="J17"/>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
           <cell r="K17" t="str">
             <v>预存款</v>
           </cell>
@@ -3298,7 +3333,9 @@
           <cell r="I18" t="str">
             <v>渠道</v>
           </cell>
-          <cell r="J18"/>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
           <cell r="K18" t="str">
             <v>预存款</v>
           </cell>
@@ -3376,7 +3413,9 @@
           <cell r="I19" t="str">
             <v/>
           </cell>
-          <cell r="J19"/>
+          <cell r="J19">
+            <v>0</v>
+          </cell>
           <cell r="K19" t="str">
             <v>预付款</v>
           </cell>
@@ -3454,7 +3493,9 @@
           <cell r="I20" t="str">
             <v/>
           </cell>
-          <cell r="J20"/>
+          <cell r="J20">
+            <v>0</v>
+          </cell>
           <cell r="K20" t="str">
             <v>预付款</v>
           </cell>
@@ -3532,7 +3573,9 @@
           <cell r="I21" t="str">
             <v/>
           </cell>
-          <cell r="J21"/>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
           <cell r="K21" t="str">
             <v>预付款</v>
           </cell>
@@ -3610,7 +3653,9 @@
           <cell r="I22" t="str">
             <v>销售</v>
           </cell>
-          <cell r="J22"/>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
           <cell r="K22" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -3688,7 +3733,9 @@
           <cell r="I23" t="str">
             <v/>
           </cell>
-          <cell r="J23"/>
+          <cell r="J23">
+            <v>0</v>
+          </cell>
           <cell r="K23" t="str">
             <v>预付款</v>
           </cell>
@@ -3766,7 +3813,9 @@
           <cell r="I24" t="str">
             <v/>
           </cell>
-          <cell r="J24"/>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
           <cell r="K24" t="str">
             <v>账期付款</v>
           </cell>
@@ -3844,7 +3893,9 @@
           <cell r="I25" t="str">
             <v/>
           </cell>
-          <cell r="J25"/>
+          <cell r="J25">
+            <v>0</v>
+          </cell>
           <cell r="K25" t="str">
             <v>账期付款</v>
           </cell>
@@ -3922,7 +3973,9 @@
           <cell r="I26" t="str">
             <v/>
           </cell>
-          <cell r="J26"/>
+          <cell r="J26">
+            <v>0</v>
+          </cell>
           <cell r="K26" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -4000,7 +4053,9 @@
           <cell r="I27" t="str">
             <v/>
           </cell>
-          <cell r="J27"/>
+          <cell r="J27">
+            <v>0</v>
+          </cell>
           <cell r="K27" t="str">
             <v>预付款</v>
           </cell>
@@ -4078,7 +4133,9 @@
           <cell r="I28" t="str">
             <v/>
           </cell>
-          <cell r="J28"/>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
           <cell r="K28" t="str">
             <v>账期付款</v>
           </cell>
@@ -4156,7 +4213,9 @@
           <cell r="I29" t="str">
             <v/>
           </cell>
-          <cell r="J29"/>
+          <cell r="J29">
+            <v>0</v>
+          </cell>
           <cell r="K29" t="str">
             <v>账期付款</v>
           </cell>
@@ -4234,7 +4293,9 @@
           <cell r="I30" t="str">
             <v/>
           </cell>
-          <cell r="J30"/>
+          <cell r="J30">
+            <v>0</v>
+          </cell>
           <cell r="K30" t="str">
             <v>账期付款</v>
           </cell>
@@ -4312,7 +4373,9 @@
           <cell r="I31" t="str">
             <v/>
           </cell>
-          <cell r="J31"/>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
           <cell r="K31" t="str">
             <v>账期付款</v>
           </cell>
@@ -4390,7 +4453,9 @@
           <cell r="I32" t="str">
             <v/>
           </cell>
-          <cell r="J32"/>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
           <cell r="K32" t="str">
             <v>账期付款</v>
           </cell>
@@ -4468,7 +4533,9 @@
           <cell r="I33" t="str">
             <v/>
           </cell>
-          <cell r="J33"/>
+          <cell r="J33">
+            <v>0</v>
+          </cell>
           <cell r="K33" t="str">
             <v>账期付款</v>
           </cell>
@@ -4546,7 +4613,9 @@
           <cell r="I34" t="str">
             <v/>
           </cell>
-          <cell r="J34"/>
+          <cell r="J34">
+            <v>0</v>
+          </cell>
           <cell r="K34" t="str">
             <v>账期付款</v>
           </cell>
@@ -4624,7 +4693,9 @@
           <cell r="I35" t="str">
             <v/>
           </cell>
-          <cell r="J35"/>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
           <cell r="K35" t="str">
             <v>预付款</v>
           </cell>
@@ -4702,7 +4773,9 @@
           <cell r="I36" t="str">
             <v/>
           </cell>
-          <cell r="J36"/>
+          <cell r="J36">
+            <v>0</v>
+          </cell>
           <cell r="K36" t="str">
             <v>预存款</v>
           </cell>
@@ -4780,7 +4853,9 @@
           <cell r="I37" t="str">
             <v/>
           </cell>
-          <cell r="J37"/>
+          <cell r="J37">
+            <v>0</v>
+          </cell>
           <cell r="K37" t="str">
             <v>预付款</v>
           </cell>
@@ -4858,7 +4933,9 @@
           <cell r="I38" t="str">
             <v/>
           </cell>
-          <cell r="J38"/>
+          <cell r="J38">
+            <v>0</v>
+          </cell>
           <cell r="K38" t="str">
             <v>预付款</v>
           </cell>
@@ -4936,7 +5013,9 @@
           <cell r="I39" t="str">
             <v/>
           </cell>
-          <cell r="J39"/>
+          <cell r="J39">
+            <v>0</v>
+          </cell>
           <cell r="K39" t="str">
             <v>预付款</v>
           </cell>
@@ -5014,7 +5093,9 @@
           <cell r="I40" t="str">
             <v/>
           </cell>
-          <cell r="J40"/>
+          <cell r="J40">
+            <v>0</v>
+          </cell>
           <cell r="K40" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -5092,7 +5173,9 @@
           <cell r="I41" t="str">
             <v/>
           </cell>
-          <cell r="J41"/>
+          <cell r="J41">
+            <v>0</v>
+          </cell>
           <cell r="K41" t="str">
             <v>预付款</v>
           </cell>
@@ -5170,7 +5253,9 @@
           <cell r="I42" t="str">
             <v/>
           </cell>
-          <cell r="J42"/>
+          <cell r="J42">
+            <v>0</v>
+          </cell>
           <cell r="K42" t="str">
             <v>预付款</v>
           </cell>
@@ -5248,7 +5333,9 @@
           <cell r="I43" t="str">
             <v/>
           </cell>
-          <cell r="J43"/>
+          <cell r="J43">
+            <v>0</v>
+          </cell>
           <cell r="K43" t="str">
             <v>预付款</v>
           </cell>
@@ -5326,7 +5413,9 @@
           <cell r="I44" t="str">
             <v/>
           </cell>
-          <cell r="J44"/>
+          <cell r="J44">
+            <v>0</v>
+          </cell>
           <cell r="K44" t="str">
             <v>预付款</v>
           </cell>
@@ -5404,7 +5493,9 @@
           <cell r="I45" t="str">
             <v/>
           </cell>
-          <cell r="J45"/>
+          <cell r="J45">
+            <v>0</v>
+          </cell>
           <cell r="K45" t="str">
             <v>预付款</v>
           </cell>
@@ -5482,7 +5573,9 @@
           <cell r="I46" t="str">
             <v/>
           </cell>
-          <cell r="J46"/>
+          <cell r="J46">
+            <v>0</v>
+          </cell>
           <cell r="K46" t="str">
             <v>预付款</v>
           </cell>
@@ -5560,7 +5653,9 @@
           <cell r="I47" t="str">
             <v/>
           </cell>
-          <cell r="J47"/>
+          <cell r="J47">
+            <v>0</v>
+          </cell>
           <cell r="K47" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -5638,7 +5733,9 @@
           <cell r="I48" t="str">
             <v/>
           </cell>
-          <cell r="J48"/>
+          <cell r="J48">
+            <v>0</v>
+          </cell>
           <cell r="K48" t="str">
             <v>预付款</v>
           </cell>
@@ -5716,7 +5813,9 @@
           <cell r="I49" t="str">
             <v/>
           </cell>
-          <cell r="J49"/>
+          <cell r="J49">
+            <v>0</v>
+          </cell>
           <cell r="K49" t="str">
             <v>预付款</v>
           </cell>
@@ -5794,7 +5893,9 @@
           <cell r="I50" t="str">
             <v/>
           </cell>
-          <cell r="J50"/>
+          <cell r="J50">
+            <v>0</v>
+          </cell>
           <cell r="K50" t="str">
             <v>预付款</v>
           </cell>
@@ -5872,7 +5973,9 @@
           <cell r="I51" t="str">
             <v/>
           </cell>
-          <cell r="J51"/>
+          <cell r="J51">
+            <v>0</v>
+          </cell>
           <cell r="K51" t="str">
             <v>预付款</v>
           </cell>
@@ -5950,7 +6053,9 @@
           <cell r="I52" t="str">
             <v/>
           </cell>
-          <cell r="J52"/>
+          <cell r="J52">
+            <v>0</v>
+          </cell>
           <cell r="K52" t="str">
             <v>预付款</v>
           </cell>
@@ -6028,7 +6133,9 @@
           <cell r="I53" t="str">
             <v/>
           </cell>
-          <cell r="J53"/>
+          <cell r="J53">
+            <v>0</v>
+          </cell>
           <cell r="K53" t="str">
             <v>预付款</v>
           </cell>
@@ -6106,7 +6213,9 @@
           <cell r="I54" t="str">
             <v/>
           </cell>
-          <cell r="J54"/>
+          <cell r="J54">
+            <v>0</v>
+          </cell>
           <cell r="K54" t="str">
             <v>账期付款</v>
           </cell>
@@ -6184,7 +6293,9 @@
           <cell r="I55" t="str">
             <v/>
           </cell>
-          <cell r="J55"/>
+          <cell r="J55">
+            <v>0</v>
+          </cell>
           <cell r="K55" t="str">
             <v>账期付款</v>
           </cell>
@@ -6262,7 +6373,9 @@
           <cell r="I56" t="str">
             <v/>
           </cell>
-          <cell r="J56"/>
+          <cell r="J56">
+            <v>0</v>
+          </cell>
           <cell r="K56" t="str">
             <v>账期付款</v>
           </cell>
@@ -6340,7 +6453,9 @@
           <cell r="I57" t="str">
             <v/>
           </cell>
-          <cell r="J57"/>
+          <cell r="J57">
+            <v>0</v>
+          </cell>
           <cell r="K57" t="str">
             <v>预付款</v>
           </cell>
@@ -6418,7 +6533,9 @@
           <cell r="I58" t="str">
             <v/>
           </cell>
-          <cell r="J58"/>
+          <cell r="J58">
+            <v>0</v>
+          </cell>
           <cell r="K58" t="str">
             <v>账期付款</v>
           </cell>
@@ -6496,7 +6613,9 @@
           <cell r="I59" t="str">
             <v/>
           </cell>
-          <cell r="J59"/>
+          <cell r="J59">
+            <v>0</v>
+          </cell>
           <cell r="K59" t="str">
             <v>预付款</v>
           </cell>
@@ -6574,7 +6693,9 @@
           <cell r="I60" t="str">
             <v/>
           </cell>
-          <cell r="J60"/>
+          <cell r="J60">
+            <v>0</v>
+          </cell>
           <cell r="K60" t="str">
             <v>预付款</v>
           </cell>
@@ -6652,7 +6773,9 @@
           <cell r="I61" t="str">
             <v/>
           </cell>
-          <cell r="J61"/>
+          <cell r="J61">
+            <v>0</v>
+          </cell>
           <cell r="K61" t="str">
             <v>预付款</v>
           </cell>
@@ -6730,7 +6853,9 @@
           <cell r="I62" t="str">
             <v/>
           </cell>
-          <cell r="J62"/>
+          <cell r="J62">
+            <v>0</v>
+          </cell>
           <cell r="K62" t="str">
             <v>预付款</v>
           </cell>
@@ -6808,7 +6933,9 @@
           <cell r="I63" t="str">
             <v/>
           </cell>
-          <cell r="J63"/>
+          <cell r="J63">
+            <v>0</v>
+          </cell>
           <cell r="K63" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -6886,7 +7013,9 @@
           <cell r="I64" t="str">
             <v/>
           </cell>
-          <cell r="J64"/>
+          <cell r="J64">
+            <v>0</v>
+          </cell>
           <cell r="K64" t="str">
             <v>预付款</v>
           </cell>
@@ -6964,7 +7093,9 @@
           <cell r="I65" t="str">
             <v/>
           </cell>
-          <cell r="J65"/>
+          <cell r="J65">
+            <v>0</v>
+          </cell>
           <cell r="K65" t="str">
             <v>预付款</v>
           </cell>
@@ -7042,7 +7173,9 @@
           <cell r="I66" t="str">
             <v/>
           </cell>
-          <cell r="J66"/>
+          <cell r="J66">
+            <v>0</v>
+          </cell>
           <cell r="K66" t="str">
             <v>预付款</v>
           </cell>
@@ -7120,7 +7253,9 @@
           <cell r="I67" t="str">
             <v/>
           </cell>
-          <cell r="J67"/>
+          <cell r="J67">
+            <v>0</v>
+          </cell>
           <cell r="K67" t="str">
             <v>预付款</v>
           </cell>
@@ -7198,7 +7333,9 @@
           <cell r="I68" t="str">
             <v>商务经纪人</v>
           </cell>
-          <cell r="J68"/>
+          <cell r="J68">
+            <v>0</v>
+          </cell>
           <cell r="K68" t="str">
             <v>预付款</v>
           </cell>
@@ -7276,7 +7413,9 @@
           <cell r="I69" t="str">
             <v/>
           </cell>
-          <cell r="J69"/>
+          <cell r="J69">
+            <v>0</v>
+          </cell>
           <cell r="K69" t="str">
             <v>账期付款</v>
           </cell>
@@ -7354,7 +7493,9 @@
           <cell r="I70" t="str">
             <v/>
           </cell>
-          <cell r="J70"/>
+          <cell r="J70">
+            <v>0</v>
+          </cell>
           <cell r="K70" t="str">
             <v>账期付款</v>
           </cell>
@@ -7432,7 +7573,9 @@
           <cell r="I71" t="str">
             <v/>
           </cell>
-          <cell r="J71"/>
+          <cell r="J71">
+            <v>0</v>
+          </cell>
           <cell r="K71" t="str">
             <v>预付款</v>
           </cell>
@@ -7510,7 +7653,9 @@
           <cell r="I72" t="str">
             <v/>
           </cell>
-          <cell r="J72"/>
+          <cell r="J72">
+            <v>0</v>
+          </cell>
           <cell r="K72" t="str">
             <v>预付款</v>
           </cell>
@@ -7588,7 +7733,9 @@
           <cell r="I73" t="str">
             <v/>
           </cell>
-          <cell r="J73"/>
+          <cell r="J73">
+            <v>0</v>
+          </cell>
           <cell r="K73" t="str">
             <v>预付款</v>
           </cell>
@@ -7666,7 +7813,9 @@
           <cell r="I74" t="str">
             <v/>
           </cell>
-          <cell r="J74"/>
+          <cell r="J74">
+            <v>0</v>
+          </cell>
           <cell r="K74" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -7744,7 +7893,9 @@
           <cell r="I75" t="str">
             <v/>
           </cell>
-          <cell r="J75"/>
+          <cell r="J75">
+            <v>0</v>
+          </cell>
           <cell r="K75" t="str">
             <v>账期付款</v>
           </cell>
@@ -7822,7 +7973,9 @@
           <cell r="I76" t="str">
             <v/>
           </cell>
-          <cell r="J76"/>
+          <cell r="J76">
+            <v>0</v>
+          </cell>
           <cell r="K76" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -7900,7 +8053,9 @@
           <cell r="I77" t="str">
             <v/>
           </cell>
-          <cell r="J77"/>
+          <cell r="J77">
+            <v>0</v>
+          </cell>
           <cell r="K77" t="str">
             <v>账期付款</v>
           </cell>
@@ -7978,7 +8133,9 @@
           <cell r="I78" t="str">
             <v/>
           </cell>
-          <cell r="J78"/>
+          <cell r="J78">
+            <v>0</v>
+          </cell>
           <cell r="K78" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -8056,7 +8213,9 @@
           <cell r="I79" t="str">
             <v/>
           </cell>
-          <cell r="J79"/>
+          <cell r="J79">
+            <v>0</v>
+          </cell>
           <cell r="K79" t="str">
             <v>预付款</v>
           </cell>
@@ -8134,7 +8293,9 @@
           <cell r="I80" t="str">
             <v/>
           </cell>
-          <cell r="J80"/>
+          <cell r="J80">
+            <v>0</v>
+          </cell>
           <cell r="K80" t="str">
             <v>预付款</v>
           </cell>
@@ -8212,7 +8373,9 @@
           <cell r="I81" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J81"/>
+          <cell r="J81">
+            <v>0</v>
+          </cell>
           <cell r="K81" t="str">
             <v>账期付款</v>
           </cell>
@@ -8290,7 +8453,9 @@
           <cell r="I82" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J82"/>
+          <cell r="J82">
+            <v>0</v>
+          </cell>
           <cell r="K82" t="str">
             <v>账期付款</v>
           </cell>
@@ -8368,7 +8533,9 @@
           <cell r="I83" t="str">
             <v/>
           </cell>
-          <cell r="J83"/>
+          <cell r="J83">
+            <v>0</v>
+          </cell>
           <cell r="K83" t="str">
             <v>预付款</v>
           </cell>
@@ -8446,7 +8613,9 @@
           <cell r="I84" t="str">
             <v>效果渠道经理</v>
           </cell>
-          <cell r="J84"/>
+          <cell r="J84">
+            <v>0</v>
+          </cell>
           <cell r="K84" t="str">
             <v>预存款,预付款</v>
           </cell>
@@ -8524,7 +8693,9 @@
           <cell r="I85" t="str">
             <v/>
           </cell>
-          <cell r="J85"/>
+          <cell r="J85">
+            <v>0</v>
+          </cell>
           <cell r="K85" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -8602,7 +8773,9 @@
           <cell r="I86" t="str">
             <v/>
           </cell>
-          <cell r="J86"/>
+          <cell r="J86">
+            <v>0</v>
+          </cell>
           <cell r="K86" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -8680,7 +8853,9 @@
           <cell r="I87" t="str">
             <v/>
           </cell>
-          <cell r="J87"/>
+          <cell r="J87">
+            <v>0</v>
+          </cell>
           <cell r="K87" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -8758,7 +8933,9 @@
           <cell r="I88" t="str">
             <v/>
           </cell>
-          <cell r="J88"/>
+          <cell r="J88">
+            <v>0</v>
+          </cell>
           <cell r="K88" t="str">
             <v>预存款,预付款</v>
           </cell>
@@ -8836,7 +9013,9 @@
           <cell r="I89" t="str">
             <v/>
           </cell>
-          <cell r="J89"/>
+          <cell r="J89">
+            <v>0</v>
+          </cell>
           <cell r="K89" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -8914,7 +9093,9 @@
           <cell r="I90" t="str">
             <v/>
           </cell>
-          <cell r="J90"/>
+          <cell r="J90">
+            <v>0</v>
+          </cell>
           <cell r="K90" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -8992,7 +9173,9 @@
           <cell r="I91" t="str">
             <v/>
           </cell>
-          <cell r="J91"/>
+          <cell r="J91">
+            <v>0</v>
+          </cell>
           <cell r="K91" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -9070,7 +9253,9 @@
           <cell r="I92" t="str">
             <v/>
           </cell>
-          <cell r="J92"/>
+          <cell r="J92">
+            <v>0</v>
+          </cell>
           <cell r="K92" t="str">
             <v>预付款</v>
           </cell>
@@ -9148,7 +9333,9 @@
           <cell r="I93" t="str">
             <v/>
           </cell>
-          <cell r="J93"/>
+          <cell r="J93">
+            <v>0</v>
+          </cell>
           <cell r="K93" t="str">
             <v>账期付款</v>
           </cell>
@@ -9226,7 +9413,9 @@
           <cell r="I94" t="str">
             <v/>
           </cell>
-          <cell r="J94"/>
+          <cell r="J94">
+            <v>0</v>
+          </cell>
           <cell r="K94" t="str">
             <v>预存款</v>
           </cell>
@@ -9304,7 +9493,9 @@
           <cell r="I95" t="str">
             <v/>
           </cell>
-          <cell r="J95"/>
+          <cell r="J95">
+            <v>0</v>
+          </cell>
           <cell r="K95" t="str">
             <v>预付款</v>
           </cell>
@@ -9382,7 +9573,9 @@
           <cell r="I96" t="str">
             <v/>
           </cell>
-          <cell r="J96"/>
+          <cell r="J96">
+            <v>0</v>
+          </cell>
           <cell r="K96" t="str">
             <v>预付款</v>
           </cell>
@@ -9460,7 +9653,9 @@
           <cell r="I97" t="str">
             <v/>
           </cell>
-          <cell r="J97"/>
+          <cell r="J97">
+            <v>0</v>
+          </cell>
           <cell r="K97" t="str">
             <v>预存款</v>
           </cell>
@@ -9538,7 +9733,9 @@
           <cell r="I98" t="str">
             <v/>
           </cell>
-          <cell r="J98"/>
+          <cell r="J98">
+            <v>0</v>
+          </cell>
           <cell r="K98" t="str">
             <v>预存款</v>
           </cell>
@@ -9616,7 +9813,9 @@
           <cell r="I99" t="str">
             <v>商务合作经理</v>
           </cell>
-          <cell r="J99"/>
+          <cell r="J99">
+            <v>0</v>
+          </cell>
           <cell r="K99" t="str">
             <v>账期付款</v>
           </cell>
@@ -9694,7 +9893,9 @@
           <cell r="I100" t="str">
             <v>商务合作经理</v>
           </cell>
-          <cell r="J100"/>
+          <cell r="J100">
+            <v>0</v>
+          </cell>
           <cell r="K100" t="str">
             <v>账期付款</v>
           </cell>
@@ -9772,7 +9973,9 @@
           <cell r="I101" t="str">
             <v/>
           </cell>
-          <cell r="J101"/>
+          <cell r="J101">
+            <v>0</v>
+          </cell>
           <cell r="K101" t="str">
             <v>预付款</v>
           </cell>
@@ -9850,7 +10053,9 @@
           <cell r="I102" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J102"/>
+          <cell r="J102">
+            <v>0</v>
+          </cell>
           <cell r="K102" t="str">
             <v>预存款</v>
           </cell>
@@ -9928,7 +10133,9 @@
           <cell r="I103" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J103"/>
+          <cell r="J103">
+            <v>0</v>
+          </cell>
           <cell r="K103" t="str">
             <v>预存款</v>
           </cell>
@@ -10006,7 +10213,9 @@
           <cell r="I104" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J104"/>
+          <cell r="J104">
+            <v>0</v>
+          </cell>
           <cell r="K104" t="str">
             <v>预存款</v>
           </cell>
@@ -10084,7 +10293,9 @@
           <cell r="I105" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J105"/>
+          <cell r="J105">
+            <v>0</v>
+          </cell>
           <cell r="K105" t="str">
             <v>账期付款</v>
           </cell>
@@ -10162,7 +10373,9 @@
           <cell r="I106" t="str">
             <v>CEO</v>
           </cell>
-          <cell r="J106"/>
+          <cell r="J106">
+            <v>0</v>
+          </cell>
           <cell r="K106" t="str">
             <v>账期付款</v>
           </cell>
@@ -10240,7 +10453,9 @@
           <cell r="I107" t="str">
             <v>渠道总监</v>
           </cell>
-          <cell r="J107"/>
+          <cell r="J107">
+            <v>0</v>
+          </cell>
           <cell r="K107" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10318,7 +10533,9 @@
           <cell r="I108" t="str">
             <v>渠道总监</v>
           </cell>
-          <cell r="J108"/>
+          <cell r="J108">
+            <v>0</v>
+          </cell>
           <cell r="K108" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10396,7 +10613,9 @@
           <cell r="I109" t="str">
             <v/>
           </cell>
-          <cell r="J109"/>
+          <cell r="J109">
+            <v>0</v>
+          </cell>
           <cell r="K109" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10474,7 +10693,9 @@
           <cell r="I110" t="str">
             <v>销售</v>
           </cell>
-          <cell r="J110"/>
+          <cell r="J110">
+            <v>0</v>
+          </cell>
           <cell r="K110" t="str">
             <v>账期付款</v>
           </cell>
@@ -10552,7 +10773,9 @@
           <cell r="I111" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J111"/>
+          <cell r="J111">
+            <v>0</v>
+          </cell>
           <cell r="K111" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -10630,7 +10853,9 @@
           <cell r="I112" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J112"/>
+          <cell r="J112">
+            <v>0</v>
+          </cell>
           <cell r="K112" t="str">
             <v>账期付款</v>
           </cell>
@@ -10708,7 +10933,9 @@
           <cell r="I113" t="str">
             <v>全国客户总监</v>
           </cell>
-          <cell r="J113"/>
+          <cell r="J113">
+            <v>0</v>
+          </cell>
           <cell r="K113" t="str">
             <v>预付款</v>
           </cell>
@@ -10786,7 +11013,9 @@
           <cell r="I114" t="str">
             <v>渠道</v>
           </cell>
-          <cell r="J114"/>
+          <cell r="J114">
+            <v>0</v>
+          </cell>
           <cell r="K114" t="str">
             <v>预付款</v>
           </cell>
@@ -10864,7 +11093,9 @@
           <cell r="I115" t="str">
             <v/>
           </cell>
-          <cell r="J115"/>
+          <cell r="J115">
+            <v>0</v>
+          </cell>
           <cell r="K115" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -10942,7 +11173,9 @@
           <cell r="I116" t="str">
             <v/>
           </cell>
-          <cell r="J116"/>
+          <cell r="J116">
+            <v>0</v>
+          </cell>
           <cell r="K116" t="str">
             <v>预存款</v>
           </cell>
@@ -11020,7 +11253,9 @@
           <cell r="I117" t="str">
             <v/>
           </cell>
-          <cell r="J117"/>
+          <cell r="J117">
+            <v>0</v>
+          </cell>
           <cell r="K117" t="str">
             <v>预付款</v>
           </cell>
@@ -11098,7 +11333,9 @@
           <cell r="I118" t="str">
             <v/>
           </cell>
-          <cell r="J118"/>
+          <cell r="J118">
+            <v>0</v>
+          </cell>
           <cell r="K118" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11176,7 +11413,9 @@
           <cell r="I119" t="str">
             <v/>
           </cell>
-          <cell r="J119"/>
+          <cell r="J119">
+            <v>0</v>
+          </cell>
           <cell r="K119" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11254,7 +11493,9 @@
           <cell r="I120" t="str">
             <v/>
           </cell>
-          <cell r="J120"/>
+          <cell r="J120">
+            <v>0</v>
+          </cell>
           <cell r="K120" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11332,7 +11573,9 @@
           <cell r="I121" t="str">
             <v/>
           </cell>
-          <cell r="J121"/>
+          <cell r="J121">
+            <v>0</v>
+          </cell>
           <cell r="K121" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11410,7 +11653,9 @@
           <cell r="I122" t="str">
             <v/>
           </cell>
-          <cell r="J122"/>
+          <cell r="J122">
+            <v>0</v>
+          </cell>
           <cell r="K122" t="str">
             <v>预存款</v>
           </cell>
@@ -11488,7 +11733,9 @@
           <cell r="I123" t="str">
             <v/>
           </cell>
-          <cell r="J123"/>
+          <cell r="J123">
+            <v>0</v>
+          </cell>
           <cell r="K123" t="str">
             <v>预存款</v>
           </cell>
@@ -11566,7 +11813,9 @@
           <cell r="I124" t="str">
             <v/>
           </cell>
-          <cell r="J124"/>
+          <cell r="J124">
+            <v>0</v>
+          </cell>
           <cell r="K124" t="str">
             <v>预存款</v>
           </cell>
@@ -11644,7 +11893,9 @@
           <cell r="I125" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J125"/>
+          <cell r="J125">
+            <v>0</v>
+          </cell>
           <cell r="K125" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11722,7 +11973,9 @@
           <cell r="I126" t="str">
             <v/>
           </cell>
-          <cell r="J126"/>
+          <cell r="J126">
+            <v>0</v>
+          </cell>
           <cell r="K126" t="str">
             <v>预存款</v>
           </cell>
@@ -11800,7 +12053,9 @@
           <cell r="I127" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J127"/>
+          <cell r="J127">
+            <v>0</v>
+          </cell>
           <cell r="K127" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11878,7 +12133,9 @@
           <cell r="I128" t="str">
             <v/>
           </cell>
-          <cell r="J128"/>
+          <cell r="J128">
+            <v>0</v>
+          </cell>
           <cell r="K128" t="str">
             <v>预存款</v>
           </cell>
@@ -11956,7 +12213,9 @@
           <cell r="I129" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J129"/>
+          <cell r="J129">
+            <v>0</v>
+          </cell>
           <cell r="K129" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12034,7 +12293,9 @@
           <cell r="I130" t="str">
             <v/>
           </cell>
-          <cell r="J130"/>
+          <cell r="J130">
+            <v>0</v>
+          </cell>
           <cell r="K130" t="str">
             <v>预存款</v>
           </cell>
@@ -12112,7 +12373,9 @@
           <cell r="I131" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J131"/>
+          <cell r="J131">
+            <v>0</v>
+          </cell>
           <cell r="K131" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12190,7 +12453,9 @@
           <cell r="I132" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J132"/>
+          <cell r="J132">
+            <v>0</v>
+          </cell>
           <cell r="K132" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12268,7 +12533,9 @@
           <cell r="I133" t="str">
             <v/>
           </cell>
-          <cell r="J133"/>
+          <cell r="J133">
+            <v>0</v>
+          </cell>
           <cell r="K133" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -12346,7 +12613,9 @@
           <cell r="I134" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J134"/>
+          <cell r="J134">
+            <v>0</v>
+          </cell>
           <cell r="K134" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -12424,7 +12693,9 @@
           <cell r="I135" t="str">
             <v/>
           </cell>
-          <cell r="J135"/>
+          <cell r="J135">
+            <v>0</v>
+          </cell>
           <cell r="K135" t="str">
             <v>预存款</v>
           </cell>
@@ -12502,7 +12773,9 @@
           <cell r="I136" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J136"/>
+          <cell r="J136">
+            <v>0</v>
+          </cell>
           <cell r="K136" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12580,7 +12853,9 @@
           <cell r="I137" t="str">
             <v/>
           </cell>
-          <cell r="J137"/>
+          <cell r="J137">
+            <v>0</v>
+          </cell>
           <cell r="K137" t="str">
             <v>预存款</v>
           </cell>
@@ -12658,7 +12933,9 @@
           <cell r="I138" t="str">
             <v/>
           </cell>
-          <cell r="J138"/>
+          <cell r="J138">
+            <v>0</v>
+          </cell>
           <cell r="K138" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -12736,7 +13013,9 @@
           <cell r="I139" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J139"/>
+          <cell r="J139">
+            <v>0</v>
+          </cell>
           <cell r="K139" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12814,7 +13093,9 @@
           <cell r="I140" t="str">
             <v/>
           </cell>
-          <cell r="J140"/>
+          <cell r="J140">
+            <v>0</v>
+          </cell>
           <cell r="K140" t="str">
             <v>预存款</v>
           </cell>
@@ -12892,7 +13173,9 @@
           <cell r="I141" t="str">
             <v/>
           </cell>
-          <cell r="J141"/>
+          <cell r="J141">
+            <v>0</v>
+          </cell>
           <cell r="K141" t="str">
             <v>预存款</v>
           </cell>
@@ -12970,7 +13253,9 @@
           <cell r="I142" t="str">
             <v/>
           </cell>
-          <cell r="J142"/>
+          <cell r="J142">
+            <v>0</v>
+          </cell>
           <cell r="K142" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -13048,7 +13333,9 @@
           <cell r="I143" t="str">
             <v/>
           </cell>
-          <cell r="J143"/>
+          <cell r="J143">
+            <v>0</v>
+          </cell>
           <cell r="K143" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -13126,7 +13413,9 @@
           <cell r="I144" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J144"/>
+          <cell r="J144">
+            <v>0</v>
+          </cell>
           <cell r="K144" t="str">
             <v>账期付款</v>
           </cell>
@@ -13204,7 +13493,9 @@
           <cell r="I145" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J145"/>
+          <cell r="J145">
+            <v>0</v>
+          </cell>
           <cell r="K145" t="str">
             <v>账期付款</v>
           </cell>
@@ -13282,7 +13573,9 @@
           <cell r="I146" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J146"/>
+          <cell r="J146">
+            <v>0</v>
+          </cell>
           <cell r="K146" t="str">
             <v>预付款</v>
           </cell>
@@ -13360,7 +13653,9 @@
           <cell r="I147" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J147"/>
+          <cell r="J147">
+            <v>0</v>
+          </cell>
           <cell r="K147" t="str">
             <v>预付款</v>
           </cell>
@@ -13438,7 +13733,9 @@
           <cell r="I148" t="str">
             <v/>
           </cell>
-          <cell r="J148"/>
+          <cell r="J148">
+            <v>0</v>
+          </cell>
           <cell r="K148" t="str">
             <v>预存款</v>
           </cell>
@@ -13516,7 +13813,9 @@
           <cell r="I149" t="str">
             <v/>
           </cell>
-          <cell r="J149"/>
+          <cell r="J149">
+            <v>0</v>
+          </cell>
           <cell r="K149" t="str">
             <v>预存款</v>
           </cell>
@@ -13594,7 +13893,9 @@
           <cell r="I150" t="str">
             <v/>
           </cell>
-          <cell r="J150"/>
+          <cell r="J150">
+            <v>0</v>
+          </cell>
           <cell r="K150" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -13672,7 +13973,9 @@
           <cell r="I151" t="str">
             <v/>
           </cell>
-          <cell r="J151"/>
+          <cell r="J151">
+            <v>0</v>
+          </cell>
           <cell r="K151" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -13750,7 +14053,9 @@
           <cell r="I152" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J152"/>
+          <cell r="J152">
+            <v>0</v>
+          </cell>
           <cell r="K152" t="str">
             <v>账期付款</v>
           </cell>
@@ -13828,7 +14133,9 @@
           <cell r="I153" t="str">
             <v>经理</v>
           </cell>
-          <cell r="J153"/>
+          <cell r="J153">
+            <v>0</v>
+          </cell>
           <cell r="K153" t="str">
             <v>账期付款</v>
           </cell>
@@ -13906,7 +14213,9 @@
           <cell r="I154" t="str">
             <v/>
           </cell>
-          <cell r="J154"/>
+          <cell r="J154">
+            <v>0</v>
+          </cell>
           <cell r="K154" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -13984,7 +14293,9 @@
           <cell r="I155" t="str">
             <v/>
           </cell>
-          <cell r="J155"/>
+          <cell r="J155">
+            <v>0</v>
+          </cell>
           <cell r="K155" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -14062,7 +14373,9 @@
           <cell r="I156" t="str">
             <v/>
           </cell>
-          <cell r="J156"/>
+          <cell r="J156">
+            <v>0</v>
+          </cell>
           <cell r="K156" t="str">
             <v>账期付款</v>
           </cell>
@@ -14140,7 +14453,9 @@
           <cell r="I157" t="str">
             <v/>
           </cell>
-          <cell r="J157"/>
+          <cell r="J157">
+            <v>0</v>
+          </cell>
           <cell r="K157" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -14218,7 +14533,9 @@
           <cell r="I158" t="str">
             <v/>
           </cell>
-          <cell r="J158"/>
+          <cell r="J158">
+            <v>0</v>
+          </cell>
           <cell r="K158" t="str">
             <v>账期付款,预付款,预存款</v>
           </cell>
@@ -14296,7 +14613,9 @@
           <cell r="I159" t="str">
             <v/>
           </cell>
-          <cell r="J159"/>
+          <cell r="J159">
+            <v>0</v>
+          </cell>
           <cell r="K159" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -14374,7 +14693,9 @@
           <cell r="I160" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J160"/>
+          <cell r="J160">
+            <v>0</v>
+          </cell>
           <cell r="K160" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -14452,7 +14773,9 @@
           <cell r="I161" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J161"/>
+          <cell r="J161">
+            <v>0</v>
+          </cell>
           <cell r="K161" t="str">
             <v>账期付款</v>
           </cell>
@@ -14530,7 +14853,9 @@
           <cell r="I162" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J162"/>
+          <cell r="J162">
+            <v>0</v>
+          </cell>
           <cell r="K162" t="str">
             <v>账期付款</v>
           </cell>
@@ -14608,7 +14933,9 @@
           <cell r="I163" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J163"/>
+          <cell r="J163">
+            <v>0</v>
+          </cell>
           <cell r="K163" t="str">
             <v>预付款</v>
           </cell>
@@ -14686,7 +15013,9 @@
           <cell r="I164" t="str">
             <v/>
           </cell>
-          <cell r="J164"/>
+          <cell r="J164">
+            <v>0</v>
+          </cell>
           <cell r="K164" t="str">
             <v>账期付款</v>
           </cell>
@@ -14764,7 +15093,9 @@
           <cell r="I165" t="str">
             <v/>
           </cell>
-          <cell r="J165"/>
+          <cell r="J165">
+            <v>0</v>
+          </cell>
           <cell r="K165" t="str">
             <v>预存款</v>
           </cell>
@@ -14842,7 +15173,9 @@
           <cell r="I166" t="str">
             <v/>
           </cell>
-          <cell r="J166"/>
+          <cell r="J166">
+            <v>0</v>
+          </cell>
           <cell r="K166" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -14920,7 +15253,9 @@
           <cell r="I167" t="str">
             <v/>
           </cell>
-          <cell r="J167"/>
+          <cell r="J167">
+            <v>0</v>
+          </cell>
           <cell r="K167" t="str">
             <v>预付款</v>
           </cell>
@@ -14998,7 +15333,9 @@
           <cell r="I168" t="str">
             <v/>
           </cell>
-          <cell r="J168"/>
+          <cell r="J168">
+            <v>0</v>
+          </cell>
           <cell r="K168" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -15076,7 +15413,9 @@
           <cell r="I169" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J169"/>
+          <cell r="J169">
+            <v>0</v>
+          </cell>
           <cell r="K169" t="str">
             <v>账期付款</v>
           </cell>
@@ -15154,7 +15493,9 @@
           <cell r="I170" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J170"/>
+          <cell r="J170">
+            <v>0</v>
+          </cell>
           <cell r="K170" t="str">
             <v>账期付款</v>
           </cell>
@@ -15232,7 +15573,9 @@
           <cell r="I171" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J171"/>
+          <cell r="J171">
+            <v>0</v>
+          </cell>
           <cell r="K171" t="str">
             <v>账期付款</v>
           </cell>
@@ -15310,7 +15653,9 @@
           <cell r="I172" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J172"/>
+          <cell r="J172">
+            <v>0</v>
+          </cell>
           <cell r="K172" t="str">
             <v>账期付款</v>
           </cell>
@@ -15388,7 +15733,9 @@
           <cell r="I173" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J173"/>
+          <cell r="J173">
+            <v>0</v>
+          </cell>
           <cell r="K173" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -15466,7 +15813,9 @@
           <cell r="I174" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J174"/>
+          <cell r="J174">
+            <v>0</v>
+          </cell>
           <cell r="K174" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -15544,7 +15893,9 @@
           <cell r="I175" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J175"/>
+          <cell r="J175">
+            <v>0</v>
+          </cell>
           <cell r="K175" t="str">
             <v>预付款</v>
           </cell>
@@ -15622,7 +15973,9 @@
           <cell r="I176" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J176"/>
+          <cell r="J176">
+            <v>0</v>
+          </cell>
           <cell r="K176" t="str">
             <v>预付款</v>
           </cell>
@@ -15700,7 +16053,9 @@
           <cell r="I177" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J177"/>
+          <cell r="J177">
+            <v>0</v>
+          </cell>
           <cell r="K177" t="str">
             <v>预付款</v>
           </cell>
@@ -15778,7 +16133,9 @@
           <cell r="I178" t="str">
             <v/>
           </cell>
-          <cell r="J178"/>
+          <cell r="J178">
+            <v>0</v>
+          </cell>
           <cell r="K178" t="str">
             <v>预付款</v>
           </cell>
@@ -15856,7 +16213,9 @@
           <cell r="I179" t="str">
             <v/>
           </cell>
-          <cell r="J179"/>
+          <cell r="J179">
+            <v>0</v>
+          </cell>
           <cell r="K179" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -15934,7 +16293,9 @@
           <cell r="I180" t="str">
             <v>项目经理</v>
           </cell>
-          <cell r="J180"/>
+          <cell r="J180">
+            <v>0</v>
+          </cell>
           <cell r="K180" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -16012,7 +16373,9 @@
           <cell r="I181" t="str">
             <v/>
           </cell>
-          <cell r="J181"/>
+          <cell r="J181">
+            <v>0</v>
+          </cell>
           <cell r="K181" t="str">
             <v>账期付款</v>
           </cell>
@@ -16090,7 +16453,9 @@
           <cell r="I182" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J182"/>
+          <cell r="J182">
+            <v>0</v>
+          </cell>
           <cell r="K182" t="str">
             <v>预付款</v>
           </cell>
@@ -16168,7 +16533,9 @@
           <cell r="I183" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J183"/>
+          <cell r="J183">
+            <v>0</v>
+          </cell>
           <cell r="K183" t="str">
             <v>预付款</v>
           </cell>
@@ -16246,7 +16613,9 @@
           <cell r="I184" t="str">
             <v/>
           </cell>
-          <cell r="J184"/>
+          <cell r="J184">
+            <v>0</v>
+          </cell>
           <cell r="K184" t="str">
             <v>账期付款</v>
           </cell>
@@ -16324,7 +16693,9 @@
           <cell r="I185" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J185"/>
+          <cell r="J185">
+            <v>0</v>
+          </cell>
           <cell r="K185" t="str">
             <v>预付款</v>
           </cell>
@@ -16402,7 +16773,9 @@
           <cell r="I186" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J186"/>
+          <cell r="J186">
+            <v>0</v>
+          </cell>
           <cell r="K186" t="str">
             <v>预付款</v>
           </cell>
@@ -16480,7 +16853,9 @@
           <cell r="I187" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J187"/>
+          <cell r="J187">
+            <v>0</v>
+          </cell>
           <cell r="K187" t="str">
             <v>预付款</v>
           </cell>
@@ -16558,7 +16933,9 @@
           <cell r="I188" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J188"/>
+          <cell r="J188">
+            <v>0</v>
+          </cell>
           <cell r="K188" t="str">
             <v>预付款</v>
           </cell>
@@ -16636,7 +17013,9 @@
           <cell r="I189" t="str">
             <v>客户经理</v>
           </cell>
-          <cell r="J189"/>
+          <cell r="J189">
+            <v>0</v>
+          </cell>
           <cell r="K189" t="str">
             <v>预付款</v>
           </cell>
@@ -16714,7 +17093,9 @@
           <cell r="I190" t="str">
             <v/>
           </cell>
-          <cell r="J190"/>
+          <cell r="J190">
+            <v>0</v>
+          </cell>
           <cell r="K190" t="str">
             <v>账期付款</v>
           </cell>
@@ -16792,7 +17173,9 @@
           <cell r="I191" t="str">
             <v/>
           </cell>
-          <cell r="J191"/>
+          <cell r="J191">
+            <v>0</v>
+          </cell>
           <cell r="K191" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -16870,7 +17253,9 @@
           <cell r="I192" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J192"/>
+          <cell r="J192">
+            <v>0</v>
+          </cell>
           <cell r="K192" t="str">
             <v>预付款</v>
           </cell>
@@ -16948,7 +17333,9 @@
           <cell r="I193" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J193"/>
+          <cell r="J193">
+            <v>0</v>
+          </cell>
           <cell r="K193" t="str">
             <v>预付款</v>
           </cell>
@@ -17026,7 +17413,9 @@
           <cell r="I194" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J194"/>
+          <cell r="J194">
+            <v>0</v>
+          </cell>
           <cell r="K194" t="str">
             <v>账期付款</v>
           </cell>
@@ -17104,7 +17493,9 @@
           <cell r="I195" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J195"/>
+          <cell r="J195">
+            <v>0</v>
+          </cell>
           <cell r="K195" t="str">
             <v>账期付款</v>
           </cell>
@@ -17182,7 +17573,9 @@
           <cell r="I196" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J196"/>
+          <cell r="J196">
+            <v>0</v>
+          </cell>
           <cell r="K196" t="str">
             <v>账期付款</v>
           </cell>
@@ -17260,7 +17653,9 @@
           <cell r="I197" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J197"/>
+          <cell r="J197">
+            <v>0</v>
+          </cell>
           <cell r="K197" t="str">
             <v>预付款</v>
           </cell>
@@ -17338,7 +17733,9 @@
           <cell r="I198" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J198"/>
+          <cell r="J198">
+            <v>0</v>
+          </cell>
           <cell r="K198" t="str">
             <v>预付款</v>
           </cell>
@@ -17416,7 +17813,9 @@
           <cell r="I199" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J199"/>
+          <cell r="J199">
+            <v>0</v>
+          </cell>
           <cell r="K199" t="str">
             <v>预付款</v>
           </cell>
@@ -17494,7 +17893,9 @@
           <cell r="I200" t="str">
             <v/>
           </cell>
-          <cell r="J200"/>
+          <cell r="J200">
+            <v>0</v>
+          </cell>
           <cell r="K200" t="str">
             <v>预付款</v>
           </cell>
@@ -17572,7 +17973,9 @@
           <cell r="I201" t="str">
             <v>高级媒介经理</v>
           </cell>
-          <cell r="J201"/>
+          <cell r="J201">
+            <v>0</v>
+          </cell>
           <cell r="K201" t="str">
             <v>预付款</v>
           </cell>
@@ -17650,7 +18053,9 @@
           <cell r="I202" t="str">
             <v/>
           </cell>
-          <cell r="J202"/>
+          <cell r="J202">
+            <v>0</v>
+          </cell>
           <cell r="K202" t="str">
             <v>预付款</v>
           </cell>
@@ -17728,7 +18133,9 @@
           <cell r="I203" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J203"/>
+          <cell r="J203">
+            <v>0</v>
+          </cell>
           <cell r="K203" t="str">
             <v>预付款</v>
           </cell>
@@ -17806,7 +18213,9 @@
           <cell r="I204" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J204"/>
+          <cell r="J204">
+            <v>0</v>
+          </cell>
           <cell r="K204" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -17884,7 +18293,9 @@
           <cell r="I205" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J205"/>
+          <cell r="J205">
+            <v>0</v>
+          </cell>
           <cell r="K205" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -17962,7 +18373,9 @@
           <cell r="I206" t="str">
             <v>销售经理</v>
           </cell>
-          <cell r="J206"/>
+          <cell r="J206">
+            <v>0</v>
+          </cell>
           <cell r="K206" t="str">
             <v>预付款</v>
           </cell>
@@ -18040,7 +18453,9 @@
           <cell r="I207" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J207"/>
+          <cell r="J207">
+            <v>0</v>
+          </cell>
           <cell r="K207" t="str">
             <v>预付款</v>
           </cell>
@@ -18118,7 +18533,9 @@
           <cell r="I208" t="str">
             <v/>
           </cell>
-          <cell r="J208"/>
+          <cell r="J208">
+            <v>0</v>
+          </cell>
           <cell r="K208" t="str">
             <v>账期付款</v>
           </cell>
@@ -18196,7 +18613,9 @@
           <cell r="I209" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J209"/>
+          <cell r="J209">
+            <v>0</v>
+          </cell>
           <cell r="K209" t="str">
             <v>账期付款</v>
           </cell>
@@ -18274,7 +18693,9 @@
           <cell r="I210" t="str">
             <v>渠道销售总监</v>
           </cell>
-          <cell r="J210"/>
+          <cell r="J210">
+            <v>0</v>
+          </cell>
           <cell r="K210" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -18352,7 +18773,9 @@
           <cell r="I211" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J211"/>
+          <cell r="J211">
+            <v>0</v>
+          </cell>
           <cell r="K211" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -18430,7 +18853,9 @@
           <cell r="I212" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J212"/>
+          <cell r="J212">
+            <v>0</v>
+          </cell>
           <cell r="K212" t="str">
             <v>预付款</v>
           </cell>
@@ -18508,7 +18933,9 @@
           <cell r="I213" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J213"/>
+          <cell r="J213">
+            <v>0</v>
+          </cell>
           <cell r="K213" t="str">
             <v>预付款</v>
           </cell>
@@ -18586,7 +19013,9 @@
           <cell r="I214" t="str">
             <v/>
           </cell>
-          <cell r="J214"/>
+          <cell r="J214">
+            <v>0</v>
+          </cell>
           <cell r="K214" t="str">
             <v>预付款</v>
           </cell>
@@ -18664,7 +19093,9 @@
           <cell r="I215" t="str">
             <v/>
           </cell>
-          <cell r="J215"/>
+          <cell r="J215">
+            <v>0</v>
+          </cell>
           <cell r="K215" t="str">
             <v>预付款</v>
           </cell>
@@ -18742,7 +19173,9 @@
           <cell r="I216" t="str">
             <v/>
           </cell>
-          <cell r="J216"/>
+          <cell r="J216">
+            <v>0</v>
+          </cell>
           <cell r="K216" t="str">
             <v>预存款</v>
           </cell>
@@ -18820,7 +19253,9 @@
           <cell r="I217" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J217"/>
+          <cell r="J217">
+            <v>0</v>
+          </cell>
           <cell r="K217" t="str">
             <v>预付款</v>
           </cell>
@@ -18898,7 +19333,9 @@
           <cell r="I218" t="str">
             <v/>
           </cell>
-          <cell r="J218"/>
+          <cell r="J218">
+            <v>0</v>
+          </cell>
           <cell r="K218" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -18976,7 +19413,9 @@
           <cell r="I219" t="str">
             <v/>
           </cell>
-          <cell r="J219"/>
+          <cell r="J219">
+            <v>0</v>
+          </cell>
           <cell r="K219" t="str">
             <v>预付款</v>
           </cell>
@@ -19054,7 +19493,9 @@
           <cell r="I220" t="str">
             <v/>
           </cell>
-          <cell r="J220"/>
+          <cell r="J220">
+            <v>0</v>
+          </cell>
           <cell r="K220" t="str">
             <v>账期付款</v>
           </cell>
@@ -19132,7 +19573,9 @@
           <cell r="I221" t="str">
             <v/>
           </cell>
-          <cell r="J221"/>
+          <cell r="J221">
+            <v>0</v>
+          </cell>
           <cell r="K221" t="str">
             <v>预付款</v>
           </cell>
@@ -19210,7 +19653,9 @@
           <cell r="I222" t="str">
             <v/>
           </cell>
-          <cell r="J222"/>
+          <cell r="J222">
+            <v>0</v>
+          </cell>
           <cell r="K222" t="str">
             <v>预付款</v>
           </cell>
@@ -19288,7 +19733,9 @@
           <cell r="I223" t="str">
             <v/>
           </cell>
-          <cell r="J223"/>
+          <cell r="J223">
+            <v>0</v>
+          </cell>
           <cell r="K223" t="str">
             <v>预存款</v>
           </cell>
@@ -19366,7 +19813,9 @@
           <cell r="I224" t="str">
             <v/>
           </cell>
-          <cell r="J224"/>
+          <cell r="J224">
+            <v>0</v>
+          </cell>
           <cell r="K224" t="str">
             <v>预存款</v>
           </cell>
@@ -19444,7 +19893,9 @@
           <cell r="I225" t="str">
             <v/>
           </cell>
-          <cell r="J225"/>
+          <cell r="J225">
+            <v>0</v>
+          </cell>
           <cell r="K225" t="str">
             <v>预存款</v>
           </cell>
@@ -19522,7 +19973,9 @@
           <cell r="I226" t="str">
             <v/>
           </cell>
-          <cell r="J226"/>
+          <cell r="J226">
+            <v>0</v>
+          </cell>
           <cell r="K226" t="str">
             <v>预存款</v>
           </cell>
@@ -19600,7 +20053,9 @@
           <cell r="I227" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J227"/>
+          <cell r="J227">
+            <v>0</v>
+          </cell>
           <cell r="K227" t="str">
             <v>预付款</v>
           </cell>
@@ -19678,7 +20133,9 @@
           <cell r="I228" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J228"/>
+          <cell r="J228">
+            <v>0</v>
+          </cell>
           <cell r="K228" t="str">
             <v>预存款</v>
           </cell>
@@ -19756,7 +20213,9 @@
           <cell r="I229" t="str">
             <v/>
           </cell>
-          <cell r="J229"/>
+          <cell r="J229">
+            <v>0</v>
+          </cell>
           <cell r="K229" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -19834,7 +20293,9 @@
           <cell r="I230" t="str">
             <v/>
           </cell>
-          <cell r="J230"/>
+          <cell r="J230">
+            <v>0</v>
+          </cell>
           <cell r="K230" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -19912,7 +20373,9 @@
           <cell r="I231" t="str">
             <v/>
           </cell>
-          <cell r="J231"/>
+          <cell r="J231">
+            <v>0</v>
+          </cell>
           <cell r="K231" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -19990,7 +20453,9 @@
           <cell r="I232" t="str">
             <v/>
           </cell>
-          <cell r="J232"/>
+          <cell r="J232">
+            <v>0</v>
+          </cell>
           <cell r="K232" t="str">
             <v>预付款</v>
           </cell>
@@ -20068,7 +20533,9 @@
           <cell r="I233" t="str">
             <v/>
           </cell>
-          <cell r="J233"/>
+          <cell r="J233">
+            <v>0</v>
+          </cell>
           <cell r="K233" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -20146,7 +20613,9 @@
           <cell r="I234" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J234"/>
+          <cell r="J234">
+            <v>0</v>
+          </cell>
           <cell r="K234" t="str">
             <v>预付款</v>
           </cell>
@@ -20224,7 +20693,9 @@
           <cell r="I235" t="str">
             <v>销售合伙人</v>
           </cell>
-          <cell r="J235"/>
+          <cell r="J235">
+            <v>0</v>
+          </cell>
           <cell r="K235" t="str">
             <v>预付款</v>
           </cell>
@@ -20302,7 +20773,9 @@
           <cell r="I236" t="str">
             <v>高级渠道经理</v>
           </cell>
-          <cell r="J236"/>
+          <cell r="J236">
+            <v>0</v>
+          </cell>
           <cell r="K236" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -20380,7 +20853,9 @@
           <cell r="I237" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J237"/>
+          <cell r="J237">
+            <v>0</v>
+          </cell>
           <cell r="K237" t="str">
             <v>预付款</v>
           </cell>
@@ -20458,7 +20933,9 @@
           <cell r="I238" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J238"/>
+          <cell r="J238">
+            <v>0</v>
+          </cell>
           <cell r="K238" t="str">
             <v>预付款</v>
           </cell>
@@ -20536,7 +21013,9 @@
           <cell r="I239" t="str">
             <v/>
           </cell>
-          <cell r="J239"/>
+          <cell r="J239">
+            <v>0</v>
+          </cell>
           <cell r="K239" t="str">
             <v>账期付款</v>
           </cell>
@@ -20614,7 +21093,9 @@
           <cell r="I240" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J240"/>
+          <cell r="J240">
+            <v>0</v>
+          </cell>
           <cell r="K240" t="str">
             <v>预付款</v>
           </cell>
@@ -20692,7 +21173,9 @@
           <cell r="I241" t="str">
             <v/>
           </cell>
-          <cell r="J241"/>
+          <cell r="J241">
+            <v>0</v>
+          </cell>
           <cell r="K241" t="str">
             <v>预存款</v>
           </cell>
@@ -20770,7 +21253,9 @@
           <cell r="I242" t="str">
             <v/>
           </cell>
-          <cell r="J242"/>
+          <cell r="J242">
+            <v>0</v>
+          </cell>
           <cell r="K242" t="str">
             <v>预存款</v>
           </cell>
@@ -20848,7 +21333,9 @@
           <cell r="I243" t="str">
             <v/>
           </cell>
-          <cell r="J243"/>
+          <cell r="J243">
+            <v>0</v>
+          </cell>
           <cell r="K243" t="str">
             <v>预付款</v>
           </cell>
@@ -20926,7 +21413,9 @@
           <cell r="I244" t="str">
             <v/>
           </cell>
-          <cell r="J244"/>
+          <cell r="J244">
+            <v>0</v>
+          </cell>
           <cell r="K244" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -21004,7 +21493,9 @@
           <cell r="I245" t="str">
             <v/>
           </cell>
-          <cell r="J245"/>
+          <cell r="J245">
+            <v>0</v>
+          </cell>
           <cell r="K245" t="str">
             <v>预存款</v>
           </cell>
@@ -21082,7 +21573,9 @@
           <cell r="I246" t="str">
             <v/>
           </cell>
-          <cell r="J246"/>
+          <cell r="J246">
+            <v>0</v>
+          </cell>
           <cell r="K246" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -21160,7 +21653,9 @@
           <cell r="I247" t="str">
             <v/>
           </cell>
-          <cell r="J247"/>
+          <cell r="J247">
+            <v>0</v>
+          </cell>
           <cell r="K247" t="str">
             <v>账期付款</v>
           </cell>
@@ -21238,7 +21733,9 @@
           <cell r="I248" t="str">
             <v/>
           </cell>
-          <cell r="J248"/>
+          <cell r="J248">
+            <v>0</v>
+          </cell>
           <cell r="K248" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -21316,7 +21813,9 @@
           <cell r="I249" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J249"/>
+          <cell r="J249">
+            <v>0</v>
+          </cell>
           <cell r="K249" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -21394,7 +21893,9 @@
           <cell r="I250" t="str">
             <v/>
           </cell>
-          <cell r="J250"/>
+          <cell r="J250">
+            <v>0</v>
+          </cell>
           <cell r="K250" t="str">
             <v>账期付款</v>
           </cell>
@@ -21472,7 +21973,9 @@
           <cell r="I251" t="str">
             <v/>
           </cell>
-          <cell r="J251"/>
+          <cell r="J251">
+            <v>0</v>
+          </cell>
           <cell r="K251" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -21550,7 +22053,9 @@
           <cell r="I252" t="str">
             <v/>
           </cell>
-          <cell r="J252"/>
+          <cell r="J252">
+            <v>0</v>
+          </cell>
           <cell r="K252" t="str">
             <v>账期付款</v>
           </cell>
@@ -21628,7 +22133,9 @@
           <cell r="I253" t="str">
             <v/>
           </cell>
-          <cell r="J253"/>
+          <cell r="J253">
+            <v>0</v>
+          </cell>
           <cell r="K253" t="str">
             <v>预付款</v>
           </cell>
@@ -21706,7 +22213,9 @@
           <cell r="I254" t="str">
             <v/>
           </cell>
-          <cell r="J254"/>
+          <cell r="J254">
+            <v>0</v>
+          </cell>
           <cell r="K254" t="str">
             <v>账期付款</v>
           </cell>
@@ -21784,7 +22293,9 @@
           <cell r="I255" t="str">
             <v/>
           </cell>
-          <cell r="J255"/>
+          <cell r="J255">
+            <v>0</v>
+          </cell>
           <cell r="K255" t="str">
             <v>预付款</v>
           </cell>
@@ -21862,7 +22373,9 @@
           <cell r="I256" t="str">
             <v/>
           </cell>
-          <cell r="J256"/>
+          <cell r="J256">
+            <v>0</v>
+          </cell>
           <cell r="K256" t="str">
             <v>预付款</v>
           </cell>
@@ -21940,7 +22453,9 @@
           <cell r="I257" t="str">
             <v/>
           </cell>
-          <cell r="J257"/>
+          <cell r="J257">
+            <v>0</v>
+          </cell>
           <cell r="K257" t="str">
             <v>预付款</v>
           </cell>
@@ -22018,7 +22533,9 @@
           <cell r="I258" t="str">
             <v>市场部主管</v>
           </cell>
-          <cell r="J258"/>
+          <cell r="J258">
+            <v>0</v>
+          </cell>
           <cell r="K258" t="str">
             <v>预付款</v>
           </cell>
@@ -22096,7 +22613,9 @@
           <cell r="I259" t="str">
             <v/>
           </cell>
-          <cell r="J259"/>
+          <cell r="J259">
+            <v>0</v>
+          </cell>
           <cell r="K259" t="str">
             <v>预付款</v>
           </cell>
@@ -22174,7 +22693,9 @@
           <cell r="I260" t="str">
             <v/>
           </cell>
-          <cell r="J260"/>
+          <cell r="J260">
+            <v>0</v>
+          </cell>
           <cell r="K260" t="str">
             <v>账期付款</v>
           </cell>
@@ -22252,7 +22773,9 @@
           <cell r="I261" t="str">
             <v/>
           </cell>
-          <cell r="J261"/>
+          <cell r="J261">
+            <v>0</v>
+          </cell>
           <cell r="K261" t="str">
             <v>账期付款</v>
           </cell>
@@ -22330,7 +22853,9 @@
           <cell r="I262" t="str">
             <v/>
           </cell>
-          <cell r="J262"/>
+          <cell r="J262">
+            <v>0</v>
+          </cell>
           <cell r="K262" t="str">
             <v>账期付款</v>
           </cell>
@@ -22408,7 +22933,9 @@
           <cell r="I263" t="str">
             <v/>
           </cell>
-          <cell r="J263"/>
+          <cell r="J263">
+            <v>0</v>
+          </cell>
           <cell r="K263" t="str">
             <v>账期付款</v>
           </cell>
@@ -22486,7 +23013,9 @@
           <cell r="I264" t="str">
             <v/>
           </cell>
-          <cell r="J264"/>
+          <cell r="J264">
+            <v>0</v>
+          </cell>
           <cell r="K264" t="str">
             <v>账期付款</v>
           </cell>
@@ -22564,7 +23093,9 @@
           <cell r="I265" t="str">
             <v>媒介经理</v>
           </cell>
-          <cell r="J265"/>
+          <cell r="J265">
+            <v>0</v>
+          </cell>
           <cell r="K265" t="str">
             <v>预付款</v>
           </cell>
@@ -22642,7 +23173,9 @@
           <cell r="I266" t="str">
             <v/>
           </cell>
-          <cell r="J266"/>
+          <cell r="J266">
+            <v>0</v>
+          </cell>
           <cell r="K266" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -22720,7 +23253,9 @@
           <cell r="I267" t="str">
             <v/>
           </cell>
-          <cell r="J267"/>
+          <cell r="J267">
+            <v>0</v>
+          </cell>
           <cell r="K267" t="str">
             <v>账期付款</v>
           </cell>
@@ -22798,7 +23333,9 @@
           <cell r="I268" t="str">
             <v/>
           </cell>
-          <cell r="J268"/>
+          <cell r="J268">
+            <v>0</v>
+          </cell>
           <cell r="K268" t="str">
             <v>预付款</v>
           </cell>
@@ -22876,7 +23413,9 @@
           <cell r="I269" t="str">
             <v/>
           </cell>
-          <cell r="J269"/>
+          <cell r="J269">
+            <v>0</v>
+          </cell>
           <cell r="K269" t="str">
             <v>预付款</v>
           </cell>
@@ -22954,7 +23493,9 @@
           <cell r="I270" t="str">
             <v>商务媒介</v>
           </cell>
-          <cell r="J270"/>
+          <cell r="J270">
+            <v>0</v>
+          </cell>
           <cell r="K270" t="str">
             <v>预付款</v>
           </cell>
@@ -23032,7 +23573,9 @@
           <cell r="I271" t="str">
             <v>移动事业部|渠道副总监</v>
           </cell>
-          <cell r="J271"/>
+          <cell r="J271">
+            <v>0</v>
+          </cell>
           <cell r="K271" t="str">
             <v>预付款</v>
           </cell>
@@ -23110,7 +23653,9 @@
           <cell r="I272" t="str">
             <v>媒介主管</v>
           </cell>
-          <cell r="J272"/>
+          <cell r="J272">
+            <v>0</v>
+          </cell>
           <cell r="K272" t="str">
             <v>预存款</v>
           </cell>
@@ -23188,7 +23733,9 @@
           <cell r="I273" t="str">
             <v/>
           </cell>
-          <cell r="J273"/>
+          <cell r="J273">
+            <v>0</v>
+          </cell>
           <cell r="K273" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -23266,7 +23813,9 @@
           <cell r="I274" t="str">
             <v/>
           </cell>
-          <cell r="J274"/>
+          <cell r="J274">
+            <v>0</v>
+          </cell>
           <cell r="K274" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -23344,7 +23893,9 @@
           <cell r="I275" t="str">
             <v/>
           </cell>
-          <cell r="J275"/>
+          <cell r="J275">
+            <v>0</v>
+          </cell>
           <cell r="K275" t="str">
             <v>预付款</v>
           </cell>
@@ -23422,7 +23973,9 @@
           <cell r="I276" t="str">
             <v/>
           </cell>
-          <cell r="J276"/>
+          <cell r="J276">
+            <v>0</v>
+          </cell>
           <cell r="K276" t="str">
             <v>预付款</v>
           </cell>
@@ -23500,7 +24053,9 @@
           <cell r="I277" t="str">
             <v/>
           </cell>
-          <cell r="J277"/>
+          <cell r="J277">
+            <v>0</v>
+          </cell>
           <cell r="K277" t="str">
             <v>账期付款</v>
           </cell>
@@ -23578,7 +24133,9 @@
           <cell r="I278" t="str">
             <v/>
           </cell>
-          <cell r="J278"/>
+          <cell r="J278">
+            <v>0</v>
+          </cell>
           <cell r="K278" t="str">
             <v>账期付款</v>
           </cell>
@@ -23656,7 +24213,9 @@
           <cell r="I279" t="str">
             <v>全国渠道经理</v>
           </cell>
-          <cell r="J279"/>
+          <cell r="J279">
+            <v>0</v>
+          </cell>
           <cell r="K279" t="str">
             <v>预付款</v>
           </cell>
@@ -23734,7 +24293,9 @@
           <cell r="I280" t="str">
             <v/>
           </cell>
-          <cell r="J280"/>
+          <cell r="J280">
+            <v>0</v>
+          </cell>
           <cell r="K280" t="str">
             <v>账期付款</v>
           </cell>
@@ -23812,7 +24373,9 @@
           <cell r="I281" t="str">
             <v>媒介主管</v>
           </cell>
-          <cell r="J281"/>
+          <cell r="J281">
+            <v>0</v>
+          </cell>
           <cell r="K281" t="str">
             <v>预付款</v>
           </cell>
@@ -23890,7 +24453,9 @@
           <cell r="I282" t="str">
             <v/>
           </cell>
-          <cell r="J282"/>
+          <cell r="J282">
+            <v>0</v>
+          </cell>
           <cell r="K282" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -23968,7 +24533,9 @@
           <cell r="I283" t="str">
             <v/>
           </cell>
-          <cell r="J283"/>
+          <cell r="J283">
+            <v>0</v>
+          </cell>
           <cell r="K283" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -24046,7 +24613,9 @@
           <cell r="I284" t="str">
             <v>高级渠道经理</v>
           </cell>
-          <cell r="J284"/>
+          <cell r="J284">
+            <v>0</v>
+          </cell>
           <cell r="K284" t="str">
             <v>账期付款,预存款,预付款</v>
           </cell>
@@ -24124,7 +24693,9 @@
           <cell r="I285" t="str">
             <v/>
           </cell>
-          <cell r="J285"/>
+          <cell r="J285">
+            <v>0</v>
+          </cell>
           <cell r="K285" t="str">
             <v>预付款</v>
           </cell>
@@ -24202,7 +24773,9 @@
           <cell r="I286" t="str">
             <v/>
           </cell>
-          <cell r="J286"/>
+          <cell r="J286">
+            <v>0</v>
+          </cell>
           <cell r="K286" t="str">
             <v>预付款</v>
           </cell>
@@ -24280,7 +24853,9 @@
           <cell r="I287" t="str">
             <v/>
           </cell>
-          <cell r="J287"/>
+          <cell r="J287">
+            <v>0</v>
+          </cell>
           <cell r="K287" t="str">
             <v>预付款</v>
           </cell>
@@ -24358,7 +24933,9 @@
           <cell r="I288" t="str">
             <v/>
           </cell>
-          <cell r="J288"/>
+          <cell r="J288">
+            <v>0</v>
+          </cell>
           <cell r="K288" t="str">
             <v>预付款</v>
           </cell>
@@ -24436,7 +25013,9 @@
           <cell r="I289" t="str">
             <v/>
           </cell>
-          <cell r="J289"/>
+          <cell r="J289">
+            <v>0</v>
+          </cell>
           <cell r="K289" t="str">
             <v>账期付款</v>
           </cell>
@@ -24514,7 +25093,9 @@
           <cell r="I290" t="str">
             <v/>
           </cell>
-          <cell r="J290"/>
+          <cell r="J290">
+            <v>0</v>
+          </cell>
           <cell r="K290" t="str">
             <v>预付款</v>
           </cell>
@@ -24592,7 +25173,9 @@
           <cell r="I291" t="str">
             <v/>
           </cell>
-          <cell r="J291"/>
+          <cell r="J291">
+            <v>0</v>
+          </cell>
           <cell r="K291" t="str">
             <v>预存款</v>
           </cell>
@@ -24670,7 +25253,9 @@
           <cell r="I292" t="str">
             <v/>
           </cell>
-          <cell r="J292"/>
+          <cell r="J292">
+            <v>0</v>
+          </cell>
           <cell r="K292" t="str">
             <v>预付款</v>
           </cell>
@@ -24748,7 +25333,9 @@
           <cell r="I293" t="str">
             <v/>
           </cell>
-          <cell r="J293"/>
+          <cell r="J293">
+            <v>0</v>
+          </cell>
           <cell r="K293" t="str">
             <v>预付款</v>
           </cell>
@@ -24826,7 +25413,9 @@
           <cell r="I294" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J294"/>
+          <cell r="J294">
+            <v>0</v>
+          </cell>
           <cell r="K294" t="str">
             <v>预付款</v>
           </cell>
@@ -24904,7 +25493,9 @@
           <cell r="I295" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J295"/>
+          <cell r="J295">
+            <v>0</v>
+          </cell>
           <cell r="K295" t="str">
             <v>预付款</v>
           </cell>
@@ -24982,7 +25573,9 @@
           <cell r="I296" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J296"/>
+          <cell r="J296">
+            <v>0</v>
+          </cell>
           <cell r="K296" t="str">
             <v>预付款</v>
           </cell>
@@ -25060,7 +25653,9 @@
           <cell r="I297" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J297"/>
+          <cell r="J297">
+            <v>0</v>
+          </cell>
           <cell r="K297" t="str">
             <v>预付款</v>
           </cell>
@@ -25138,7 +25733,9 @@
           <cell r="I298" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J298"/>
+          <cell r="J298">
+            <v>0</v>
+          </cell>
           <cell r="K298" t="str">
             <v>预付款</v>
           </cell>
@@ -25216,7 +25813,9 @@
           <cell r="I299" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J299"/>
+          <cell r="J299">
+            <v>0</v>
+          </cell>
           <cell r="K299" t="str">
             <v>预付款</v>
           </cell>
@@ -25294,7 +25893,9 @@
           <cell r="I300" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J300"/>
+          <cell r="J300">
+            <v>0</v>
+          </cell>
           <cell r="K300" t="str">
             <v>预付款</v>
           </cell>
@@ -25372,7 +25973,9 @@
           <cell r="I301" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J301"/>
+          <cell r="J301">
+            <v>0</v>
+          </cell>
           <cell r="K301" t="str">
             <v>预付款</v>
           </cell>
@@ -25450,7 +26053,9 @@
           <cell r="I302" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J302"/>
+          <cell r="J302">
+            <v>0</v>
+          </cell>
           <cell r="K302" t="str">
             <v>预付款</v>
           </cell>
@@ -25528,7 +26133,9 @@
           <cell r="I303" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J303"/>
+          <cell r="J303">
+            <v>0</v>
+          </cell>
           <cell r="K303" t="str">
             <v>预付款</v>
           </cell>
@@ -25606,7 +26213,9 @@
           <cell r="I304" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J304"/>
+          <cell r="J304">
+            <v>0</v>
+          </cell>
           <cell r="K304" t="str">
             <v>账期付款</v>
           </cell>
@@ -25684,7 +26293,9 @@
           <cell r="I305" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J305"/>
+          <cell r="J305">
+            <v>0</v>
+          </cell>
           <cell r="K305" t="str">
             <v>账期付款</v>
           </cell>
@@ -25762,7 +26373,9 @@
           <cell r="I306" t="str">
             <v/>
           </cell>
-          <cell r="J306"/>
+          <cell r="J306">
+            <v>0</v>
+          </cell>
           <cell r="K306" t="str">
             <v>预付款</v>
           </cell>
@@ -25840,7 +26453,9 @@
           <cell r="I307" t="str">
             <v/>
           </cell>
-          <cell r="J307"/>
+          <cell r="J307">
+            <v>0</v>
+          </cell>
           <cell r="K307" t="str">
             <v>预付款</v>
           </cell>
@@ -25918,7 +26533,9 @@
           <cell r="I308" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J308"/>
+          <cell r="J308">
+            <v>0</v>
+          </cell>
           <cell r="K308" t="str">
             <v>账期付款</v>
           </cell>
@@ -25996,7 +26613,9 @@
           <cell r="I309" t="str">
             <v>商务经理</v>
           </cell>
-          <cell r="J309"/>
+          <cell r="J309">
+            <v>0</v>
+          </cell>
           <cell r="K309" t="str">
             <v>预存款</v>
           </cell>
@@ -26074,7 +26693,9 @@
           <cell r="I310" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J310"/>
+          <cell r="J310">
+            <v>0</v>
+          </cell>
           <cell r="K310" t="str">
             <v>预付款</v>
           </cell>
@@ -26152,7 +26773,9 @@
           <cell r="I311" t="str">
             <v>inside</v>
           </cell>
-          <cell r="J311"/>
+          <cell r="J311">
+            <v>0</v>
+          </cell>
           <cell r="K311" t="str">
             <v>账期付款</v>
           </cell>
@@ -26230,7 +26853,9 @@
           <cell r="I312" t="str">
             <v>市场部主管</v>
           </cell>
-          <cell r="J312"/>
+          <cell r="J312">
+            <v>0</v>
+          </cell>
           <cell r="K312" t="str">
             <v>预付款</v>
           </cell>
@@ -26575,50 +27200,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:AL292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F302" sqref="F302"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.109375" customWidth="1"/>
+    <col min="11" max="11" width="25.875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1"/>
+    <col min="13" max="13" width="6.875" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="6.88671875" customWidth="1"/>
+    <col min="17" max="17" width="6.875" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.375" customWidth="1"/>
+    <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.75" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="28.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -26734,7 +27359,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="14.25" hidden="1">
       <c r="A2" s="56">
         <v>43831</v>
       </c>
@@ -26820,7 +27445,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="14.25" hidden="1">
       <c r="A3" s="56">
         <v>43831</v>
       </c>
@@ -26903,7 +27528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="14.25" hidden="1">
       <c r="A4" s="56">
         <v>43831</v>
       </c>
@@ -26991,7 +27616,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="14.25" hidden="1">
       <c r="A5" s="56">
         <v>43831</v>
       </c>
@@ -27075,7 +27700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="14.25" hidden="1">
       <c r="A6" s="56">
         <v>43831</v>
       </c>
@@ -27159,7 +27784,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="14.25" hidden="1">
       <c r="A7" s="56">
         <v>43831</v>
       </c>
@@ -27243,7 +27868,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="14.25" hidden="1">
       <c r="A8" s="56">
         <v>43831</v>
       </c>
@@ -27327,7 +27952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="14.25" hidden="1">
       <c r="A9" s="56">
         <v>43831</v>
       </c>
@@ -27415,7 +28040,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="14.25" hidden="1">
       <c r="A10" s="56">
         <v>43831</v>
       </c>
@@ -27497,7 +28122,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="14.25" hidden="1">
       <c r="A11" s="56">
         <v>43831</v>
       </c>
@@ -27581,7 +28206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="14.25" hidden="1">
       <c r="A12" s="56">
         <v>43831</v>
       </c>
@@ -27664,7 +28289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="14.25" hidden="1">
       <c r="A13" s="56">
         <v>43831</v>
       </c>
@@ -27748,7 +28373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="14.25" hidden="1">
       <c r="A14" s="56">
         <v>43831</v>
       </c>
@@ -27832,7 +28457,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="14.25" hidden="1">
       <c r="A15" s="56">
         <v>43831</v>
       </c>
@@ -27916,7 +28541,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="14.25" hidden="1">
       <c r="A16" s="56">
         <v>43831</v>
       </c>
@@ -28000,7 +28625,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="14.25" hidden="1">
       <c r="A17" s="56">
         <v>43831</v>
       </c>
@@ -28084,7 +28709,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="14.25" hidden="1">
       <c r="A18" s="56">
         <v>43831</v>
       </c>
@@ -28168,7 +28793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="14.25" hidden="1">
       <c r="A19" s="56">
         <v>43831</v>
       </c>
@@ -28252,7 +28877,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="14.25" hidden="1">
       <c r="A20" s="56">
         <v>43831</v>
       </c>
@@ -28336,7 +28961,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="14.25" hidden="1">
       <c r="A21" s="56">
         <v>43831</v>
       </c>
@@ -28420,7 +29045,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="14.25" hidden="1">
       <c r="A22" s="56">
         <v>43831</v>
       </c>
@@ -28504,7 +29129,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="14.25" hidden="1">
       <c r="A23" s="56">
         <v>43831</v>
       </c>
@@ -28588,7 +29213,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="14.25" hidden="1">
       <c r="A24" s="56">
         <v>43831</v>
       </c>
@@ -28672,7 +29297,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="14.25" hidden="1">
       <c r="A25" s="56">
         <v>43831</v>
       </c>
@@ -28756,7 +29381,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="14.25" hidden="1">
       <c r="A26" s="56">
         <v>43831</v>
       </c>
@@ -28840,7 +29465,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="14.25" hidden="1">
       <c r="A27" s="56">
         <v>43831</v>
       </c>
@@ -28924,7 +29549,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="14.25" hidden="1">
       <c r="A28" s="56">
         <v>43831</v>
       </c>
@@ -29008,7 +29633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="14.25" hidden="1">
       <c r="A29" s="56">
         <v>43831</v>
       </c>
@@ -29092,7 +29717,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="14.25" hidden="1">
       <c r="A30" s="56">
         <v>43831</v>
       </c>
@@ -29176,7 +29801,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="14.25" hidden="1">
       <c r="A31" s="56">
         <v>43831</v>
       </c>
@@ -29260,7 +29885,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="14.25" hidden="1">
       <c r="A32" s="56">
         <v>43831</v>
       </c>
@@ -29344,7 +29969,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="14.25" hidden="1">
       <c r="A33" s="56">
         <v>43831</v>
       </c>
@@ -29428,7 +30053,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="14.25" hidden="1">
       <c r="A34" s="56">
         <v>43831</v>
       </c>
@@ -29512,7 +30137,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="14.25" hidden="1">
       <c r="A35" s="56">
         <v>43831</v>
       </c>
@@ -29596,7 +30221,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="14.25" hidden="1">
       <c r="A36" s="56">
         <v>43831</v>
       </c>
@@ -29680,7 +30305,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="14.25" hidden="1">
       <c r="A37" s="56">
         <v>43831</v>
       </c>
@@ -29764,7 +30389,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="14.25" hidden="1">
       <c r="A38" s="56">
         <v>43831</v>
       </c>
@@ -29848,7 +30473,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="14.25" hidden="1">
       <c r="A39" s="56">
         <v>43831</v>
       </c>
@@ -29932,7 +30557,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="14.25" hidden="1">
       <c r="A40" s="56">
         <v>43831</v>
       </c>
@@ -30016,7 +30641,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="14.25" hidden="1">
       <c r="A41" s="56">
         <v>43831</v>
       </c>
@@ -30100,7 +30725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="14.25" hidden="1">
       <c r="A42" s="56">
         <v>43831</v>
       </c>
@@ -30184,7 +30809,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="14.25" hidden="1">
       <c r="A43" s="56">
         <v>43831</v>
       </c>
@@ -30268,7 +30893,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="14.25" hidden="1">
       <c r="A44" s="56">
         <v>43831</v>
       </c>
@@ -30352,7 +30977,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="14.25" hidden="1">
       <c r="A45" s="56">
         <v>43831</v>
       </c>
@@ -30436,7 +31061,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="14.25" hidden="1">
       <c r="A46" s="56">
         <v>43831</v>
       </c>
@@ -30520,7 +31145,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="14.25" hidden="1">
       <c r="A47" s="56">
         <v>43831</v>
       </c>
@@ -30604,7 +31229,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="14.25" hidden="1">
       <c r="A48" s="56">
         <v>43831</v>
       </c>
@@ -30688,7 +31313,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="14.25" hidden="1">
       <c r="A49" s="56">
         <v>43831</v>
       </c>
@@ -30772,7 +31397,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="14.25" hidden="1">
       <c r="A50" s="56">
         <v>43831</v>
       </c>
@@ -30856,7 +31481,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="14.25" hidden="1">
       <c r="A51" s="56">
         <v>43831</v>
       </c>
@@ -30940,7 +31565,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="14.25" hidden="1">
       <c r="A52" s="56">
         <v>43831</v>
       </c>
@@ -31024,7 +31649,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="14.25" hidden="1">
       <c r="A53" s="56">
         <v>43831</v>
       </c>
@@ -31108,7 +31733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="14.25" hidden="1">
       <c r="A54" s="56">
         <v>43831</v>
       </c>
@@ -31192,7 +31817,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="14.25" hidden="1">
       <c r="A55" s="56">
         <v>43831</v>
       </c>
@@ -31276,7 +31901,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="14.25" hidden="1">
       <c r="A56" s="56">
         <v>43831</v>
       </c>
@@ -31360,7 +31985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="14.25" hidden="1">
       <c r="A57" s="56">
         <v>43831</v>
       </c>
@@ -31447,7 +32072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="14.25" hidden="1">
       <c r="A58" s="56">
         <v>43831</v>
       </c>
@@ -31532,7 +32157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="14.25" hidden="1">
       <c r="A59" s="56">
         <v>43831</v>
       </c>
@@ -31616,7 +32241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="14.25" hidden="1">
       <c r="A60" s="56">
         <v>43831</v>
       </c>
@@ -31703,7 +32328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="14.25" hidden="1">
       <c r="A61" s="56">
         <v>43831</v>
       </c>
@@ -31787,7 +32412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="14.25" hidden="1">
       <c r="A62" s="56">
         <v>43831</v>
       </c>
@@ -31871,7 +32496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="14.25" hidden="1">
       <c r="A63" s="56">
         <v>43831</v>
       </c>
@@ -31955,7 +32580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="14.25" hidden="1">
       <c r="A64" s="56">
         <v>43831</v>
       </c>
@@ -32033,7 +32658,7 @@
       </c>
       <c r="AE64" s="6"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="14.25" hidden="1">
       <c r="A65" s="56">
         <v>43831</v>
       </c>
@@ -32113,7 +32738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="14.25" hidden="1">
       <c r="A66" s="56">
         <v>43831</v>
       </c>
@@ -32193,7 +32818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="14.25" hidden="1">
       <c r="A67" s="56">
         <v>43831</v>
       </c>
@@ -32275,7 +32900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="14.25" hidden="1">
       <c r="A68" s="56">
         <v>43831</v>
       </c>
@@ -32357,7 +32982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="14.25" hidden="1">
       <c r="A69" s="56">
         <v>43831</v>
       </c>
@@ -32439,7 +33064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="14.25" hidden="1">
       <c r="A70" s="56">
         <v>43831</v>
       </c>
@@ -32521,7 +33146,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="14.25" hidden="1">
       <c r="A71" s="56">
         <v>43862</v>
       </c>
@@ -32607,7 +33232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="14.25" hidden="1">
       <c r="A72" s="56">
         <v>43862</v>
       </c>
@@ -32690,7 +33315,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="14.25" hidden="1">
       <c r="A73" s="56">
         <v>43862</v>
       </c>
@@ -32776,7 +33401,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="14.25" hidden="1">
       <c r="A74" s="56">
         <v>43862</v>
       </c>
@@ -32864,7 +33489,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="14.25" hidden="1">
       <c r="A75" s="56">
         <v>43862</v>
       </c>
@@ -32948,7 +33573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="14.25" hidden="1">
       <c r="A76" s="56">
         <v>43862</v>
       </c>
@@ -33032,7 +33657,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="14.25" hidden="1">
       <c r="A77" s="56">
         <v>43862</v>
       </c>
@@ -33116,7 +33741,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="14.25" hidden="1">
       <c r="A78" s="56">
         <v>43862</v>
       </c>
@@ -33200,7 +33825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="14.25" hidden="1">
       <c r="A79" s="56">
         <v>43862</v>
       </c>
@@ -33284,7 +33909,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="14.25" hidden="1">
       <c r="A80" s="56">
         <v>43862</v>
       </c>
@@ -33368,7 +33993,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" ht="14.25" hidden="1">
       <c r="A81" s="56">
         <v>43862</v>
       </c>
@@ -33452,7 +34077,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" ht="14.25" hidden="1">
       <c r="A82" s="56">
         <v>43862</v>
       </c>
@@ -33538,7 +34163,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" ht="14.25" hidden="1">
       <c r="A83" s="56">
         <v>43862</v>
       </c>
@@ -33622,7 +34247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" ht="14.25" hidden="1">
       <c r="A84" s="56">
         <v>43862</v>
       </c>
@@ -33706,7 +34331,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" ht="14.25" hidden="1">
       <c r="A85" s="56">
         <v>43862</v>
       </c>
@@ -33790,7 +34415,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" ht="14.25" hidden="1">
       <c r="A86" s="56">
         <v>43862</v>
       </c>
@@ -33874,7 +34499,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" ht="14.25" hidden="1">
       <c r="A87" s="56">
         <v>43862</v>
       </c>
@@ -33958,7 +34583,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" ht="14.25" hidden="1">
       <c r="A88" s="56">
         <v>43862</v>
       </c>
@@ -34042,7 +34667,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" ht="14.25" hidden="1">
       <c r="A89" s="56">
         <v>43862</v>
       </c>
@@ -34126,7 +34751,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" ht="14.25" hidden="1">
       <c r="A90" s="56">
         <v>43862</v>
       </c>
@@ -34210,7 +34835,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" ht="14.25" hidden="1">
       <c r="A91" s="56">
         <v>43862</v>
       </c>
@@ -34294,7 +34919,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" ht="14.25" hidden="1">
       <c r="A92" s="56">
         <v>43862</v>
       </c>
@@ -34378,7 +35003,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" ht="14.25" hidden="1">
       <c r="A93" s="56">
         <v>43862</v>
       </c>
@@ -34462,7 +35087,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" ht="14.25" hidden="1">
       <c r="A94" s="56">
         <v>43862</v>
       </c>
@@ -34546,7 +35171,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" ht="14.25" hidden="1">
       <c r="A95" s="56">
         <v>43862</v>
       </c>
@@ -34630,7 +35255,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" ht="14.25" hidden="1">
       <c r="A96" s="56">
         <v>43862</v>
       </c>
@@ -34714,7 +35339,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" ht="14.25" hidden="1">
       <c r="A97" s="56">
         <v>43862</v>
       </c>
@@ -34798,7 +35423,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" ht="14.25" hidden="1">
       <c r="A98" s="56">
         <v>43862</v>
       </c>
@@ -34882,7 +35507,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" ht="14.25" hidden="1">
       <c r="A99" s="56">
         <v>43862</v>
       </c>
@@ -34966,7 +35591,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" ht="14.25" hidden="1">
       <c r="A100" s="56">
         <v>43862</v>
       </c>
@@ -35050,7 +35675,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" ht="14.25" hidden="1">
       <c r="A101" s="56">
         <v>43862</v>
       </c>
@@ -35134,7 +35759,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" ht="14.25" hidden="1">
       <c r="A102" s="56">
         <v>43862</v>
       </c>
@@ -35218,7 +35843,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" ht="14.25" hidden="1">
       <c r="A103" s="56">
         <v>43862</v>
       </c>
@@ -35302,7 +35927,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" ht="14.25" hidden="1">
       <c r="A104" s="56">
         <v>43862</v>
       </c>
@@ -35386,7 +36011,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" ht="14.25" hidden="1">
       <c r="A105" s="56">
         <v>43862</v>
       </c>
@@ -35470,7 +36095,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" ht="14.25" hidden="1">
       <c r="A106" s="56">
         <v>43862</v>
       </c>
@@ -35554,7 +36179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" ht="14.25" hidden="1">
       <c r="A107" s="56">
         <v>43862</v>
       </c>
@@ -35638,7 +36263,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" ht="14.25" hidden="1">
       <c r="A108" s="56">
         <v>43862</v>
       </c>
@@ -35722,7 +36347,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" ht="14.25" hidden="1">
       <c r="A109" s="56">
         <v>43862</v>
       </c>
@@ -35806,7 +36431,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" ht="14.25" hidden="1">
       <c r="A110" s="56">
         <v>43862</v>
       </c>
@@ -35890,7 +36515,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" ht="14.25" hidden="1">
       <c r="A111" s="56">
         <v>43862</v>
       </c>
@@ -35974,7 +36599,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" ht="14.25" hidden="1">
       <c r="A112" s="56">
         <v>43862</v>
       </c>
@@ -36058,7 +36683,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="14.25" hidden="1">
       <c r="A113" s="56">
         <v>43862</v>
       </c>
@@ -36142,7 +36767,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="14.25" hidden="1">
       <c r="A114" s="56">
         <v>43862</v>
       </c>
@@ -36226,7 +36851,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" ht="14.25" hidden="1">
       <c r="A115" s="56">
         <v>43862</v>
       </c>
@@ -36310,7 +36935,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" ht="14.25" hidden="1">
       <c r="A116" s="56">
         <v>43862</v>
       </c>
@@ -36394,7 +37019,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" ht="14.25" hidden="1">
       <c r="A117" s="56">
         <v>43862</v>
       </c>
@@ -36478,7 +37103,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" ht="14.25" hidden="1">
       <c r="A118" s="56">
         <v>43862</v>
       </c>
@@ -36562,7 +37187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" ht="14.25" hidden="1">
       <c r="A119" s="56">
         <v>43862</v>
       </c>
@@ -36646,7 +37271,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" ht="14.25" hidden="1">
       <c r="A120" s="56">
         <v>43862</v>
       </c>
@@ -36730,7 +37355,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" ht="14.25" hidden="1">
       <c r="A121" s="56">
         <v>43862</v>
       </c>
@@ -36814,7 +37439,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" ht="14.25" hidden="1">
       <c r="A122" s="56">
         <v>43862</v>
       </c>
@@ -36903,7 +37528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" ht="14.25" hidden="1">
       <c r="A123" s="56">
         <v>43862</v>
       </c>
@@ -36989,7 +37614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" ht="14.25" hidden="1">
       <c r="A124" s="56">
         <v>43862</v>
       </c>
@@ -37075,7 +37700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" ht="14.25" hidden="1">
       <c r="A125" s="56">
         <v>43862</v>
       </c>
@@ -37159,7 +37784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" ht="14.25" hidden="1">
       <c r="A126" s="56">
         <v>43862</v>
       </c>
@@ -37245,7 +37870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" ht="14.25" hidden="1">
       <c r="A127" s="56">
         <v>43862</v>
       </c>
@@ -37331,7 +37956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" ht="14.25" hidden="1">
       <c r="A128" s="56">
         <v>43862</v>
       </c>
@@ -37417,7 +38042,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" ht="14.25" hidden="1">
       <c r="A129" s="65">
         <v>43891</v>
       </c>
@@ -37503,7 +38128,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" ht="14.25" hidden="1">
       <c r="A130" s="65">
         <v>43891</v>
       </c>
@@ -37593,7 +38218,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" ht="14.25" hidden="1">
       <c r="A131" s="65">
         <v>43891</v>
       </c>
@@ -37679,7 +38304,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" ht="14.25" hidden="1">
       <c r="A132" s="65">
         <v>43891</v>
       </c>
@@ -37762,7 +38387,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" ht="14.25" hidden="1">
       <c r="A133" s="65">
         <v>43891</v>
       </c>
@@ -37846,7 +38471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" ht="14.25" hidden="1">
       <c r="A134" s="65">
         <v>43891</v>
       </c>
@@ -37930,7 +38555,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" ht="14.25" hidden="1">
       <c r="A135" s="65">
         <v>43891</v>
       </c>
@@ -38014,7 +38639,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" ht="14.25" hidden="1">
       <c r="A136" s="65">
         <v>43891</v>
       </c>
@@ -38098,7 +38723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" ht="14.25" hidden="1">
       <c r="A137" s="65">
         <v>43891</v>
       </c>
@@ -38182,7 +38807,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" ht="14.25" hidden="1">
       <c r="A138" s="65">
         <v>43891</v>
       </c>
@@ -38266,7 +38891,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" ht="14.25" hidden="1">
       <c r="A139" s="65">
         <v>43891</v>
       </c>
@@ -38350,7 +38975,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" ht="14.25" hidden="1">
       <c r="A140" s="65">
         <v>43891</v>
       </c>
@@ -38434,7 +39059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" ht="14.25" hidden="1">
       <c r="A141" s="65">
         <v>43891</v>
       </c>
@@ -38518,7 +39143,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" ht="14.25" hidden="1">
       <c r="A142" s="65">
         <v>43891</v>
       </c>
@@ -38602,7 +39227,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" ht="14.25" hidden="1">
       <c r="A143" s="65">
         <v>43891</v>
       </c>
@@ -38686,7 +39311,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" ht="14.25" hidden="1">
       <c r="A144" s="65">
         <v>43891</v>
       </c>
@@ -38770,7 +39395,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" ht="14.25" hidden="1">
       <c r="A145" s="65">
         <v>43891</v>
       </c>
@@ -38854,7 +39479,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" ht="14.25" hidden="1">
       <c r="A146" s="65">
         <v>43891</v>
       </c>
@@ -38938,7 +39563,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" ht="14.25" hidden="1">
       <c r="A147" s="65">
         <v>43891</v>
       </c>
@@ -39022,7 +39647,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" ht="14.25" hidden="1">
       <c r="A148" s="65">
         <v>43891</v>
       </c>
@@ -39106,7 +39731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" ht="14.25" hidden="1">
       <c r="A149" s="65">
         <v>43891</v>
       </c>
@@ -39190,7 +39815,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" ht="14.25" hidden="1">
       <c r="A150" s="65">
         <v>43891</v>
       </c>
@@ -39274,7 +39899,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" ht="14.25" hidden="1">
       <c r="A151" s="65">
         <v>43891</v>
       </c>
@@ -39358,7 +39983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" ht="14.25" hidden="1">
       <c r="A152" s="65">
         <v>43891</v>
       </c>
@@ -39442,7 +40067,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" ht="14.25" hidden="1">
       <c r="A153" s="65">
         <v>43891</v>
       </c>
@@ -39526,7 +40151,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" ht="14.25" hidden="1">
       <c r="A154" s="65">
         <v>43891</v>
       </c>
@@ -39610,7 +40235,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" ht="14.25" hidden="1">
       <c r="A155" s="65">
         <v>43891</v>
       </c>
@@ -39694,7 +40319,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" ht="14.25" hidden="1">
       <c r="A156" s="65">
         <v>43891</v>
       </c>
@@ -39778,7 +40403,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" ht="14.25" hidden="1">
       <c r="A157" s="65">
         <v>43891</v>
       </c>
@@ -39862,7 +40487,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" ht="14.25" hidden="1">
       <c r="A158" s="65">
         <v>43891</v>
       </c>
@@ -39946,7 +40571,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" ht="14.25" hidden="1">
       <c r="A159" s="65">
         <v>43891</v>
       </c>
@@ -40030,7 +40655,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" ht="14.25" hidden="1">
       <c r="A160" s="65">
         <v>43891</v>
       </c>
@@ -40114,7 +40739,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" ht="14.25" hidden="1">
       <c r="A161" s="65">
         <v>43891</v>
       </c>
@@ -40198,7 +40823,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" ht="14.25" hidden="1">
       <c r="A162" s="65">
         <v>43891</v>
       </c>
@@ -40282,7 +40907,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" ht="14.25" hidden="1">
       <c r="A163" s="65">
         <v>43891</v>
       </c>
@@ -40366,7 +40991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" ht="14.25" hidden="1">
       <c r="A164" s="65">
         <v>43891</v>
       </c>
@@ -40450,7 +41075,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" ht="14.25" hidden="1">
       <c r="A165" s="65">
         <v>43891</v>
       </c>
@@ -40534,7 +41159,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" ht="14.25" hidden="1">
       <c r="A166" s="65">
         <v>43891</v>
       </c>
@@ -40618,7 +41243,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" ht="14.25" hidden="1">
       <c r="A167" s="65">
         <v>43891</v>
       </c>
@@ -40702,7 +41327,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" ht="14.25" hidden="1">
       <c r="A168" s="65">
         <v>43891</v>
       </c>
@@ -40786,7 +41411,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" ht="14.25" hidden="1">
       <c r="A169" s="65">
         <v>43891</v>
       </c>
@@ -40870,7 +41495,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" ht="14.25" hidden="1">
       <c r="A170" s="65">
         <v>43891</v>
       </c>
@@ -40954,7 +41579,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" ht="14.25" hidden="1">
       <c r="A171" s="65">
         <v>43891</v>
       </c>
@@ -41038,7 +41663,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" ht="14.25" hidden="1">
       <c r="A172" s="65">
         <v>43891</v>
       </c>
@@ -41122,7 +41747,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" ht="14.25" hidden="1">
       <c r="A173" s="65">
         <v>43891</v>
       </c>
@@ -41206,7 +41831,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" ht="14.25" hidden="1">
       <c r="A174" s="65">
         <v>43891</v>
       </c>
@@ -41290,7 +41915,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" ht="14.25" hidden="1">
       <c r="A175" s="65">
         <v>43891</v>
       </c>
@@ -41374,7 +41999,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" ht="14.25" hidden="1">
       <c r="A176" s="65">
         <v>43891</v>
       </c>
@@ -41458,7 +42083,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" ht="14.25" hidden="1">
       <c r="A177" s="65">
         <v>43891</v>
       </c>
@@ -41543,7 +42168,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" ht="14.25" hidden="1">
       <c r="A178" s="65">
         <v>43891</v>
       </c>
@@ -41629,7 +42254,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" ht="14.25" hidden="1">
       <c r="A179" s="65">
         <v>43891</v>
       </c>
@@ -41715,7 +42340,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" ht="14.25" hidden="1">
       <c r="A180" s="66">
         <v>43891</v>
       </c>
@@ -41806,7 +42431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:38" ht="14.25" hidden="1">
       <c r="A181" s="84">
         <v>43922</v>
       </c>
@@ -41909,7 +42534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:38" ht="14.25" hidden="1">
       <c r="A182" s="84">
         <v>43922</v>
       </c>
@@ -42016,7 +42641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:38" ht="14.25" hidden="1">
       <c r="A183" s="84">
         <v>43922</v>
       </c>
@@ -42119,7 +42744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:38" ht="14.25" hidden="1">
       <c r="A184" s="84">
         <v>43922</v>
       </c>
@@ -42222,7 +42847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:38" ht="14.25" hidden="1">
       <c r="A185" s="84">
         <v>43922</v>
       </c>
@@ -42325,7 +42950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:38" ht="14.25" hidden="1">
       <c r="A186" s="84">
         <v>43922</v>
       </c>
@@ -42428,7 +43053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:38" ht="14.25" hidden="1">
       <c r="A187" s="84">
         <v>43922</v>
       </c>
@@ -42531,7 +43156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:38" ht="14.25" hidden="1">
       <c r="A188" s="84">
         <v>43922</v>
       </c>
@@ -42634,7 +43259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:38" ht="14.25" hidden="1">
       <c r="A189" s="84">
         <v>43922</v>
       </c>
@@ -42737,7 +43362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:38" ht="14.25" hidden="1">
       <c r="A190" s="84">
         <v>43922</v>
       </c>
@@ -42840,7 +43465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:38" ht="14.25" hidden="1">
       <c r="A191" s="84">
         <v>43922</v>
       </c>
@@ -42943,7 +43568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:38" ht="14.25" hidden="1">
       <c r="A192" s="84">
         <v>43922</v>
       </c>
@@ -43046,7 +43671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:37" ht="14.25" hidden="1">
       <c r="A193" s="84">
         <v>43922</v>
       </c>
@@ -43149,7 +43774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:37" ht="14.25" hidden="1">
       <c r="A194" s="84">
         <v>43922</v>
       </c>
@@ -43252,7 +43877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:37" ht="14.25" hidden="1">
       <c r="A195" s="84">
         <v>43922</v>
       </c>
@@ -43355,7 +43980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:37" ht="14.25" hidden="1">
       <c r="A196" s="84">
         <v>43922</v>
       </c>
@@ -43458,7 +44083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:37" ht="14.25" hidden="1">
       <c r="A197" s="84">
         <v>43922</v>
       </c>
@@ -43561,7 +44186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:37" ht="14.25" hidden="1">
       <c r="A198" s="84">
         <v>43922</v>
       </c>
@@ -43664,7 +44289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:37" ht="14.25" hidden="1">
       <c r="A199" s="84">
         <v>43922</v>
       </c>
@@ -43767,7 +44392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:37" ht="14.25" hidden="1">
       <c r="A200" s="84">
         <v>43922</v>
       </c>
@@ -43870,7 +44495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:37" ht="14.25" hidden="1">
       <c r="A201" s="84">
         <v>43922</v>
       </c>
@@ -43973,7 +44598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:37" ht="14.25" hidden="1">
       <c r="A202" s="84">
         <v>43922</v>
       </c>
@@ -44076,7 +44701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:37" ht="14.25" hidden="1">
       <c r="A203" s="84">
         <v>43922</v>
       </c>
@@ -44179,7 +44804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:37" ht="14.25" hidden="1">
       <c r="A204" s="84">
         <v>43922</v>
       </c>
@@ -44282,7 +44907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:37" ht="14.25" hidden="1">
       <c r="A205" s="84">
         <v>43922</v>
       </c>
@@ -44385,7 +45010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:37" ht="14.25" hidden="1">
       <c r="A206" s="84">
         <v>43922</v>
       </c>
@@ -44488,7 +45113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:37" ht="14.25" hidden="1">
       <c r="A207" s="84">
         <v>43922</v>
       </c>
@@ -44591,7 +45216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:37" ht="14.25" hidden="1">
       <c r="A208" s="84">
         <v>43922</v>
       </c>
@@ -44694,7 +45319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:38" ht="14.25" hidden="1">
       <c r="A209" s="84">
         <v>43922</v>
       </c>
@@ -44797,7 +45422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:38" ht="14.25" hidden="1">
       <c r="A210" s="84">
         <v>43922</v>
       </c>
@@ -44900,7 +45525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:38" ht="14.25" hidden="1">
       <c r="A211" s="84">
         <v>43922</v>
       </c>
@@ -45003,7 +45628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:38" ht="14.25" hidden="1">
       <c r="A212" s="84">
         <v>43922</v>
       </c>
@@ -45106,7 +45731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:38" ht="14.25" hidden="1">
       <c r="A213" s="84">
         <v>43922</v>
       </c>
@@ -45209,7 +45834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:38" ht="14.25" hidden="1">
       <c r="A214" s="84">
         <v>43922</v>
       </c>
@@ -45312,7 +45937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:38" ht="14.25" hidden="1">
       <c r="A215" s="84">
         <v>43922</v>
       </c>
@@ -45415,7 +46040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:38" ht="14.25" hidden="1">
       <c r="A216" s="84">
         <v>43922</v>
       </c>
@@ -45518,7 +46143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:38" ht="14.25" hidden="1">
       <c r="A217" s="84">
         <v>43922</v>
       </c>
@@ -45621,7 +46246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:38" ht="14.25" hidden="1">
       <c r="A218" s="84">
         <v>43922</v>
       </c>
@@ -45724,7 +46349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:38" ht="14.25" hidden="1">
       <c r="A219" s="84">
         <v>43922</v>
       </c>
@@ -45833,7 +46458,7 @@
         <v>6.9121338909098995E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:38" ht="14.25" hidden="1">
       <c r="A220" s="84">
         <v>43922</v>
       </c>
@@ -45936,7 +46561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:38" ht="14.25" hidden="1">
       <c r="A221" s="84">
         <v>43922</v>
       </c>
@@ -46039,7 +46664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:38" ht="14.25" hidden="1">
       <c r="A222" s="84">
         <v>43922</v>
       </c>
@@ -46135,7 +46760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:38" ht="14.25" hidden="1">
       <c r="A223" s="84">
         <v>43922</v>
       </c>
@@ -46242,7 +46867,7 @@
         <v>-187767.14516129033</v>
       </c>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:38" ht="14.25">
       <c r="A224" s="84">
         <v>43922</v>
       </c>
@@ -46348,7 +46973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:38" ht="14.25" hidden="1">
       <c r="A225" s="84">
         <v>43922</v>
       </c>
@@ -46466,7 +47091,7 @@
         <v>7.4469172931276262</v>
       </c>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:38" ht="14.25" hidden="1">
       <c r="A226" s="84">
         <v>43922</v>
       </c>
@@ -46581,7 +47206,7 @@
         <v>-820774.25384615385</v>
       </c>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:38" ht="14.25" hidden="1">
       <c r="A227" s="84">
         <v>43922</v>
       </c>
@@ -46692,7 +47317,7 @@
         <v>68.772846715641208</v>
       </c>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:38" ht="14.25" hidden="1">
       <c r="A228" s="84">
         <v>43922</v>
       </c>
@@ -46795,7 +47420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:38" ht="14.25" hidden="1">
       <c r="A229" s="84">
         <v>43922</v>
       </c>
@@ -46898,7 +47523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:38" ht="14.25" hidden="1">
       <c r="A230" s="84">
         <v>43922</v>
       </c>
@@ -47005,7 +47630,7 @@
         <v>-15.862394366197179</v>
       </c>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:38" ht="14.25" hidden="1">
       <c r="A231" s="84">
         <v>43922</v>
       </c>
@@ -47112,7 +47737,7 @@
         <v>-0.1397183098591549</v>
       </c>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:38" ht="14.25" hidden="1">
       <c r="A232" s="84">
         <v>43922</v>
       </c>
@@ -47204,7 +47829,7 @@
       <c r="AJ232" s="94"/>
       <c r="AK232" s="94"/>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:38" ht="14.25" hidden="1">
       <c r="A233" s="84">
         <v>43922</v>
       </c>
@@ -47299,7 +47924,7 @@
       <c r="AJ233" s="94"/>
       <c r="AK233" s="94"/>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:38" ht="14.25" hidden="1">
       <c r="A234" s="84">
         <v>43922</v>
       </c>
@@ -47390,7 +48015,7 @@
       <c r="AJ234" s="94"/>
       <c r="AK234" s="94"/>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:38" ht="14.25" hidden="1">
       <c r="A235" s="84">
         <v>43922</v>
       </c>
@@ -47478,7 +48103,7 @@
       <c r="AJ235" s="94"/>
       <c r="AK235" s="94"/>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:38" ht="14.25" hidden="1">
       <c r="A236" s="84">
         <v>43922</v>
       </c>
@@ -47569,7 +48194,7 @@
       <c r="AJ236" s="104"/>
       <c r="AK236" s="104"/>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:38" ht="14.25" hidden="1">
       <c r="A237" s="84">
         <v>43922</v>
       </c>
@@ -47658,7 +48283,7 @@
       <c r="AJ237" s="94"/>
       <c r="AK237" s="94"/>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:38" ht="14.25" hidden="1">
       <c r="A238" s="116" t="s">
         <v>309</v>
       </c>
@@ -47770,7 +48395,7 @@
         <v>-1393439.1774193547</v>
       </c>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:38" ht="14.25">
       <c r="A239" s="116" t="s">
         <v>309</v>
       </c>
@@ -47881,7 +48506,7 @@
         <v>-784860.25379999995</v>
       </c>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:38" ht="14.25" hidden="1">
       <c r="A240" s="116" t="s">
         <v>309</v>
       </c>
@@ -47950,14 +48575,14 @@
       </c>
       <c r="X240" s="22">
         <f t="shared" si="35"/>
-        <v>2199214.7200000002</v>
+        <v>717999.99679999985</v>
       </c>
       <c r="Y240" s="121">
         <f t="shared" si="41"/>
         <v>-828738.83680000016</v>
       </c>
       <c r="Z240" s="121">
-        <v>717999.99679999985</v>
+        <v>2199214.7200000002</v>
       </c>
       <c r="AA240" s="122">
         <v>0.05</v>
@@ -47970,7 +48595,7 @@
       </c>
       <c r="AF240" s="120">
         <f>Z240</f>
-        <v>717999.99679999985</v>
+        <v>2199214.7200000002</v>
       </c>
       <c r="AG240" s="121">
         <v>659764.41599999974</v>
@@ -47995,7 +48620,7 @@
         <v>-986623.30141538475</v>
       </c>
     </row>
-    <row r="241" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:37" ht="14.25" hidden="1">
       <c r="A241" s="116" t="s">
         <v>309</v>
       </c>
@@ -48099,7 +48724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:37" ht="14.25" hidden="1">
       <c r="A242" s="116" t="s">
         <v>309</v>
       </c>
@@ -48203,7 +48828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:37" ht="14.25" hidden="1">
       <c r="A243" s="116" t="s">
         <v>309</v>
       </c>
@@ -48307,7 +48932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:37" ht="14.25" hidden="1">
       <c r="A244" s="116" t="s">
         <v>309</v>
       </c>
@@ -48411,7 +49036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:37" ht="14.25" hidden="1">
       <c r="A245" s="116" t="s">
         <v>309</v>
       </c>
@@ -48515,7 +49140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:37" ht="14.25" hidden="1">
       <c r="A246" s="116" t="s">
         <v>309</v>
       </c>
@@ -48619,7 +49244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:37" ht="14.25" hidden="1">
       <c r="A247" s="116" t="s">
         <v>309</v>
       </c>
@@ -48723,7 +49348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:37" ht="14.25" hidden="1">
       <c r="A248" s="116" t="s">
         <v>309</v>
       </c>
@@ -48827,7 +49452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:37" ht="14.25" hidden="1">
       <c r="A249" s="116" t="s">
         <v>309</v>
       </c>
@@ -48931,7 +49556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:37" ht="14.25" hidden="1">
       <c r="A250" s="116" t="s">
         <v>309</v>
       </c>
@@ -49035,7 +49660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:37" ht="14.25" hidden="1">
       <c r="A251" s="116" t="s">
         <v>309</v>
       </c>
@@ -49139,7 +49764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:37" ht="14.25" hidden="1">
       <c r="A252" s="116" t="s">
         <v>309</v>
       </c>
@@ -49243,7 +49868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:37" ht="14.25" hidden="1">
       <c r="A253" s="116" t="s">
         <v>309</v>
       </c>
@@ -49347,7 +49972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:37" ht="14.25" hidden="1">
       <c r="A254" s="116" t="s">
         <v>309</v>
       </c>
@@ -49451,7 +50076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:37" ht="14.25" hidden="1">
       <c r="A255" s="116" t="s">
         <v>309</v>
       </c>
@@ -49555,7 +50180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:37" ht="14.25" hidden="1">
       <c r="A256" s="116" t="s">
         <v>309</v>
       </c>
@@ -49659,7 +50284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:38" ht="14.25" hidden="1">
       <c r="A257" s="116" t="s">
         <v>309</v>
       </c>
@@ -49763,7 +50388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:38" ht="14.25" hidden="1">
       <c r="A258" s="116" t="s">
         <v>309</v>
       </c>
@@ -49867,7 +50492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:38" ht="14.25" hidden="1">
       <c r="A259" s="116" t="s">
         <v>309</v>
       </c>
@@ -49971,7 +50596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:38" ht="14.25" hidden="1">
       <c r="A260" s="116" t="s">
         <v>309</v>
       </c>
@@ -50075,7 +50700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:38" ht="14.25" hidden="1">
       <c r="A261" s="116" t="s">
         <v>309</v>
       </c>
@@ -50179,7 +50804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:38" ht="14.25" hidden="1">
       <c r="A262" s="116" t="s">
         <v>309</v>
       </c>
@@ -50287,7 +50912,7 @@
         <v>0.15837499999906868</v>
       </c>
     </row>
-    <row r="263" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:38" ht="14.25" hidden="1">
       <c r="A263" s="116" t="s">
         <v>309</v>
       </c>
@@ -50391,7 +51016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:38" ht="14.25" hidden="1">
       <c r="A264" s="116" t="s">
         <v>309</v>
       </c>
@@ -50495,7 +51120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:38" ht="14.25" hidden="1">
       <c r="A265" s="116" t="s">
         <v>309</v>
       </c>
@@ -50599,7 +51224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:38" ht="14.25" hidden="1">
       <c r="A266" s="116" t="s">
         <v>309</v>
       </c>
@@ -50703,7 +51328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:38" ht="14.25" hidden="1">
       <c r="A267" s="116" t="s">
         <v>309</v>
       </c>
@@ -50807,7 +51432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:38" ht="14.25" hidden="1">
       <c r="A268" s="116" t="s">
         <v>309</v>
       </c>
@@ -50911,7 +51536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:38" ht="14.25" hidden="1">
       <c r="A269" s="116" t="s">
         <v>309</v>
       </c>
@@ -51015,7 +51640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:38" ht="14.25" hidden="1">
       <c r="A270" s="116" t="s">
         <v>309</v>
       </c>
@@ -51119,7 +51744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:38" ht="14.25" hidden="1">
       <c r="A271" s="116" t="s">
         <v>309</v>
       </c>
@@ -51223,7 +51848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:38" ht="14.25" hidden="1">
       <c r="A272" s="116" t="s">
         <v>309</v>
       </c>
@@ -51327,7 +51952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:38" ht="14.25" hidden="1">
       <c r="A273" s="116" t="s">
         <v>309</v>
       </c>
@@ -51431,7 +52056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:38" ht="14.25" hidden="1">
       <c r="A274" s="116" t="s">
         <v>309</v>
       </c>
@@ -51535,7 +52160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:38" ht="14.25" hidden="1">
       <c r="A275" s="116" t="s">
         <v>309</v>
       </c>
@@ -51639,7 +52264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:38" ht="14.25" hidden="1">
       <c r="A276" s="116" t="s">
         <v>309</v>
       </c>
@@ -51743,7 +52368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:38" ht="14.25" hidden="1">
       <c r="A277" s="116" t="s">
         <v>309</v>
       </c>
@@ -51847,7 +52472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:38" ht="14.25" hidden="1">
       <c r="A278" s="116" t="s">
         <v>309</v>
       </c>
@@ -51951,7 +52576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:38" ht="14.25" hidden="1">
       <c r="A279" s="116" t="s">
         <v>309</v>
       </c>
@@ -52059,7 +52684,7 @@
         <v>-1.4058577407013217E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:38" ht="14.25" hidden="1">
       <c r="A280" s="116" t="s">
         <v>309</v>
       </c>
@@ -52163,7 +52788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:38" ht="14.25" hidden="1">
       <c r="A281" s="116" t="s">
         <v>309</v>
       </c>
@@ -52267,7 +52892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:38" ht="14.25" hidden="1">
       <c r="A282" s="116" t="s">
         <v>309</v>
       </c>
@@ -52377,7 +53002,7 @@
         <v>0.27879699248296674</v>
       </c>
     </row>
-    <row r="283" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:38" ht="14.25" hidden="1">
       <c r="A283" s="116" t="s">
         <v>309</v>
       </c>
@@ -52481,7 +53106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:38" ht="14.25" hidden="1">
       <c r="A284" s="116" t="s">
         <v>309</v>
       </c>
@@ -52585,7 +53210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:38" ht="14.25" hidden="1">
       <c r="A285" s="116" t="s">
         <v>309</v>
       </c>
@@ -52693,7 +53318,7 @@
         <v>-8.8584507042253513</v>
       </c>
     </row>
-    <row r="286" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:38" ht="14.25" hidden="1">
       <c r="A286" s="116" t="s">
         <v>309</v>
       </c>
@@ -52797,7 +53422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:38" ht="14.25" hidden="1">
       <c r="A287" s="116" t="s">
         <v>309</v>
       </c>
@@ -52907,7 +53532,7 @@
         <v>45.029999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:38" ht="14.25" hidden="1">
       <c r="A288" s="116" t="s">
         <v>309</v>
       </c>
@@ -53006,7 +53631,7 @@
       <c r="AJ288" s="136"/>
       <c r="AK288" s="136"/>
     </row>
-    <row r="289" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:37" ht="14.25" hidden="1">
       <c r="A289" s="116" t="s">
         <v>309</v>
       </c>
@@ -53103,7 +53728,7 @@
       <c r="AJ289" s="136"/>
       <c r="AK289" s="136"/>
     </row>
-    <row r="290" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:37" ht="14.25" hidden="1">
       <c r="A290" s="116" t="s">
         <v>309</v>
       </c>
@@ -53199,7 +53824,7 @@
       <c r="AJ290" s="136"/>
       <c r="AK290" s="136"/>
     </row>
-    <row r="291" spans="1:37" ht="15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:37" ht="15.75" hidden="1">
       <c r="A291" s="116" t="s">
         <v>309</v>
       </c>
@@ -53300,7 +53925,7 @@
       <c r="AJ291" s="145"/>
       <c r="AK291" s="145"/>
     </row>
-    <row r="292" spans="1:37" ht="15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:37" ht="15.75" hidden="1">
       <c r="A292" s="116" t="s">
         <v>309</v>
       </c>
@@ -53394,6 +54019,13 @@
       <c r="AK292" s="147"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AL292">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="上海百孚思文化传媒有限公司"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="Q126">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
@@ -53413,8 +54045,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:U39"/>
@@ -53422,34 +54054,34 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="78" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.75" style="78" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="83" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="78" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="78" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="78" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="107" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.375" style="78" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="78" customWidth="1"/>
     <col min="14" max="14" width="8" style="78" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" style="107" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.21875" style="107" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.77734375" style="78" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5546875" style="78" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="78" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.25" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.75" style="78" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" style="78" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" style="78" customWidth="1"/>
     <col min="21" max="21" width="8" style="78" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1">
       <c r="A1" s="149" t="s">
         <v>8</v>
       </c>
@@ -53514,7 +54146,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="108" t="s">
         <v>35</v>
       </c>
@@ -53579,7 +54211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="69" t="s">
         <v>35</v>
       </c>
@@ -53642,7 +54274,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="69" t="s">
         <v>35</v>
       </c>
@@ -53704,7 +54336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="69" t="s">
         <v>35</v>
       </c>
@@ -53769,7 +54401,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="69" t="s">
         <v>158</v>
       </c>
@@ -53834,7 +54466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1">
       <c r="A7" s="69" t="s">
         <v>161</v>
       </c>
@@ -53899,7 +54531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1">
       <c r="A8" s="69" t="s">
         <v>164</v>
       </c>
@@ -53964,7 +54596,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1">
       <c r="A9" s="69" t="s">
         <v>168</v>
       </c>
@@ -54029,7 +54661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1">
       <c r="A10" s="69" t="s">
         <v>168</v>
       </c>
@@ -54094,7 +54726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1">
       <c r="A11" s="69" t="s">
         <v>177</v>
       </c>
@@ -54151,7 +54783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1">
       <c r="A12" s="69" t="s">
         <v>181</v>
       </c>
@@ -54210,7 +54842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1">
       <c r="A13" s="69" t="s">
         <v>188</v>
       </c>
@@ -54269,7 +54901,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1">
       <c r="A14" s="69" t="s">
         <v>193</v>
       </c>
@@ -54328,7 +54960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="67" t="s">
         <v>35</v>
       </c>
@@ -54395,7 +55027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="67" t="s">
         <v>35</v>
       </c>
@@ -54458,7 +55090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" hidden="1">
       <c r="A17" s="67" t="s">
         <v>161</v>
       </c>
@@ -54523,7 +55155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="67" t="s">
         <v>35</v>
       </c>
@@ -54588,7 +55220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" hidden="1">
       <c r="A19" s="69" t="s">
         <v>168</v>
       </c>
@@ -54653,7 +55285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" hidden="1">
       <c r="A20" s="69" t="s">
         <v>168</v>
       </c>
@@ -54718,7 +55350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1">
       <c r="A21" s="67" t="s">
         <v>193</v>
       </c>
@@ -54781,7 +55413,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="67" t="s">
         <v>252</v>
       </c>
@@ -54846,7 +55478,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="67" t="s">
         <v>208</v>
       </c>
@@ -54915,7 +55547,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1">
       <c r="A24" s="67" t="s">
         <v>211</v>
       </c>
@@ -54980,7 +55612,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" hidden="1">
       <c r="A25" s="67" t="s">
         <v>262</v>
       </c>
@@ -55037,7 +55669,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" s="67" t="s">
         <v>252</v>
       </c>
@@ -55101,7 +55733,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" s="67" t="s">
         <v>275</v>
       </c>
@@ -55165,7 +55797,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="67" t="s">
         <v>252</v>
       </c>
@@ -55232,7 +55864,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1">
       <c r="A29" s="67" t="s">
         <v>279</v>
       </c>
@@ -55297,7 +55929,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1">
       <c r="A30" s="67" t="s">
         <v>281</v>
       </c>
@@ -55354,7 +55986,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" s="67" t="s">
         <v>214</v>
       </c>
@@ -55374,8 +56006,8 @@
         <v>43</v>
       </c>
       <c r="G31" s="155">
-        <f>2252396.65-1370475.8832+5022.9</f>
-        <v>886943.66679999989</v>
+        <f>2252396.65-1370475.8832+5022.9+1481214.72</f>
+        <v>2368158.3868</v>
       </c>
       <c r="H31" s="110">
         <f>2252396.65</f>
@@ -55404,22 +56036,22 @@
       <c r="P31" s="110"/>
       <c r="Q31" s="70">
         <f t="shared" si="4"/>
-        <v>1410710.0272444929</v>
+        <v>13337.649886002135</v>
       </c>
       <c r="R31" s="70">
         <f t="shared" si="1"/>
-        <v>1410710.0272444929</v>
+        <v>13337.649886002135</v>
       </c>
       <c r="S31" s="115">
         <f t="shared" si="2"/>
-        <v>0.62154674912057506</v>
+        <v>5.8764542446371115E-3</v>
       </c>
       <c r="T31" s="154"/>
       <c r="U31" s="67" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="67" t="s">
         <v>214</v>
       </c>
@@ -55484,7 +56116,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" hidden="1">
       <c r="A33" s="67" t="s">
         <v>312</v>
       </c>
@@ -55544,7 +56176,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34" s="67" t="s">
         <v>214</v>
       </c>
@@ -55611,7 +56243,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" hidden="1">
       <c r="A35" s="67" t="s">
         <v>246</v>
       </c>
@@ -55676,10 +56308,18 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21">
       <c r="G39" s="148"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U35">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="百度时代网络技术（北京）有限公司"/>
+        <filter val="北京百度网讯科技有限公司-2020"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2020年1-5月金源消耗表 （财务运营共享版）.xlsx
+++ b/2020年1-5月金源消耗表 （财务运营共享版）.xlsx
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AL$292</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AL$297</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">媒体表!$A$1:$U$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="332">
   <si>
     <t>周期</t>
   </si>
@@ -1169,6 +1169,41 @@
     <t>返货</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>北京多彩互动广告有限公司-广州锦游科技有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州锦游科技有限公司</t>
+  </si>
+  <si>
+    <t>北京多彩互动广告有限公司-广州炫动信息科技有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州炫动信息科技有限公司</t>
+  </si>
+  <si>
+    <t>北京多彩互动广告有限公司—广州引力网络科技有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州引力网络科技有限公司</t>
+  </si>
+  <si>
+    <t>北京多彩互动广告有限公司-海南联港网络科技有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南联港网络科技有限公司</t>
+  </si>
+  <si>
+    <t>北京多彩互动广告有限公司-杭州游卡网络技术有限公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州游卡网络技术有限公司</t>
+  </si>
 </sst>
 </file>
 
@@ -1434,7 +1469,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1457,6 +1492,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1884,7 +1922,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="百分比 2 3" xfId="6"/>
     <cellStyle name="百分比 3" xfId="4"/>
@@ -1894,6 +1932,7 @@
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="千位分隔 2" xfId="5"/>
     <cellStyle name="千位分隔 2 2 2" xfId="8"/>
+    <cellStyle name="千位分隔 3" xfId="9"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -27204,18 +27243,18 @@
   <sheetPr filterMode="1">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:AL292"/>
+  <dimension ref="A1:AL297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="S304" sqref="S304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
@@ -29343,8 +29382,8 @@
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="24">
-        <v>32528.018732394001</v>
+      <c r="R25" s="20">
+        <v>354.84000000002561</v>
       </c>
       <c r="S25" s="20"/>
       <c r="T25" s="20">
@@ -29352,7 +29391,7 @@
       </c>
       <c r="U25" s="20">
         <f t="shared" si="8"/>
-        <v>32528.018732394001</v>
+        <v>354.84000000002561</v>
       </c>
       <c r="V25" s="22">
         <f t="shared" si="5"/>
@@ -29427,8 +29466,8 @@
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="24">
-        <v>44404.901830985997</v>
+      <c r="R26" s="20">
+        <v>0</v>
       </c>
       <c r="S26" s="20"/>
       <c r="T26" s="20">
@@ -29436,7 +29475,7 @@
       </c>
       <c r="U26" s="20">
         <f t="shared" si="8"/>
-        <v>44404.901830985997</v>
+        <v>0</v>
       </c>
       <c r="V26" s="22">
         <f t="shared" si="5"/>
@@ -29511,7 +29550,7 @@
       </c>
       <c r="P27" s="13"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="24">
+      <c r="R27" s="20">
         <v>227.30774647876399</v>
       </c>
       <c r="S27" s="20"/>
@@ -29595,7 +29634,7 @@
       </c>
       <c r="P28" s="13"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="24">
+      <c r="R28" s="20">
         <v>152.264929577999</v>
       </c>
       <c r="S28" s="20"/>
@@ -29679,8 +29718,8 @@
       </c>
       <c r="P29" s="13"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="24">
-        <v>870846.699999996</v>
+      <c r="R29" s="20">
+        <v>-30329.470000000056</v>
       </c>
       <c r="S29" s="20"/>
       <c r="T29" s="20">
@@ -29688,7 +29727,7 @@
       </c>
       <c r="U29" s="20">
         <f t="shared" si="8"/>
-        <v>870846.699999996</v>
+        <v>-30329.470000000056</v>
       </c>
       <c r="V29" s="22">
         <f t="shared" si="5"/>
@@ -29763,7 +29802,7 @@
       </c>
       <c r="P30" s="13"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="24">
+      <c r="R30" s="20">
         <v>425.555211267598</v>
       </c>
       <c r="S30" s="20"/>
@@ -29847,7 +29886,7 @@
       </c>
       <c r="P31" s="13"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="24">
+      <c r="R31" s="20">
         <v>1402.38690140774</v>
       </c>
       <c r="S31" s="20"/>
@@ -29931,7 +29970,7 @@
       </c>
       <c r="P32" s="13"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="24">
+      <c r="R32" s="20">
         <v>12961.68</v>
       </c>
       <c r="S32" s="20"/>
@@ -30015,7 +30054,7 @@
       </c>
       <c r="P33" s="13"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="24">
+      <c r="R33" s="20">
         <v>143.460985915328</v>
       </c>
       <c r="S33" s="20"/>
@@ -30099,7 +30138,7 @@
       </c>
       <c r="P34" s="13"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="24">
+      <c r="R34" s="20">
         <v>2063.5353521120301</v>
       </c>
       <c r="S34" s="20"/>
@@ -30183,7 +30222,7 @@
       </c>
       <c r="P35" s="13"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="24">
+      <c r="R35" s="20">
         <v>114142.344929578</v>
       </c>
       <c r="S35" s="20"/>
@@ -30267,7 +30306,7 @@
       </c>
       <c r="P36" s="13"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="24">
+      <c r="R36" s="20">
         <v>29897.39</v>
       </c>
       <c r="S36" s="20"/>
@@ -30351,7 +30390,7 @@
       </c>
       <c r="P37" s="13"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="24">
+      <c r="R37" s="20">
         <v>20014.111126760599</v>
       </c>
       <c r="S37" s="20"/>
@@ -30435,7 +30474,7 @@
       </c>
       <c r="P38" s="13"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="24">
+      <c r="R38" s="20">
         <v>322.47394365991897</v>
       </c>
       <c r="S38" s="20"/>
@@ -30519,7 +30558,7 @@
       </c>
       <c r="P39" s="13"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="24">
+      <c r="R39" s="20">
         <v>196.54507042269699</v>
       </c>
       <c r="S39" s="20"/>
@@ -30603,7 +30642,7 @@
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="24">
+      <c r="R40" s="20">
         <v>1513.0032394366101</v>
       </c>
       <c r="S40" s="20"/>
@@ -30687,7 +30726,7 @@
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="24">
+      <c r="R41" s="20">
         <v>6504.6216901406997</v>
       </c>
       <c r="S41" s="20"/>
@@ -30771,7 +30810,7 @@
       </c>
       <c r="P42" s="13"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="24">
+      <c r="R42" s="20">
         <v>44820.261970721403</v>
       </c>
       <c r="S42" s="20"/>
@@ -30855,7 +30894,7 @@
       </c>
       <c r="P43" s="13"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="24">
+      <c r="R43" s="20">
         <v>132154.611549297</v>
       </c>
       <c r="S43" s="20"/>
@@ -30939,8 +30978,8 @@
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="24">
-        <v>14160.3070422536</v>
+      <c r="R44" s="20">
+        <v>14157.309295774696</v>
       </c>
       <c r="S44" s="20"/>
       <c r="T44" s="20">
@@ -30948,7 +30987,7 @@
       </c>
       <c r="U44" s="20">
         <f t="shared" si="8"/>
-        <v>14160.3070422536</v>
+        <v>14157.309295774696</v>
       </c>
       <c r="V44" s="22">
         <f t="shared" si="5"/>
@@ -31023,7 +31062,7 @@
       </c>
       <c r="P45" s="13"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="24">
+      <c r="R45" s="20">
         <v>480.55873239384499</v>
       </c>
       <c r="S45" s="20"/>
@@ -31107,8 +31146,8 @@
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="5"/>
-      <c r="R46" s="24">
-        <v>151056.34</v>
+      <c r="R46" s="20">
+        <v>88.72</v>
       </c>
       <c r="S46" s="20"/>
       <c r="T46" s="20">
@@ -31116,7 +31155,7 @@
       </c>
       <c r="U46" s="20">
         <f t="shared" si="8"/>
-        <v>151056.34</v>
+        <v>88.72</v>
       </c>
       <c r="V46" s="22">
         <f t="shared" si="5"/>
@@ -31191,7 +31230,7 @@
       </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="5"/>
-      <c r="R47" s="24">
+      <c r="R47" s="20">
         <v>147.29985915508601</v>
       </c>
       <c r="S47" s="20"/>
@@ -31275,7 +31314,7 @@
       </c>
       <c r="P48" s="13"/>
       <c r="Q48" s="5"/>
-      <c r="R48" s="24">
+      <c r="R48" s="20">
         <v>4215.2245070423196</v>
       </c>
       <c r="S48" s="20"/>
@@ -31359,7 +31398,7 @@
       </c>
       <c r="P49" s="13"/>
       <c r="Q49" s="5"/>
-      <c r="R49" s="24">
+      <c r="R49" s="20">
         <v>127.3395774647</v>
       </c>
       <c r="S49" s="20"/>
@@ -31397,7 +31436,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="14.25" hidden="1">
+    <row r="50" spans="1:31" ht="14.25">
       <c r="A50" s="56">
         <v>43831</v>
       </c>
@@ -31443,8 +31482,8 @@
       </c>
       <c r="P50" s="13"/>
       <c r="Q50" s="5"/>
-      <c r="R50" s="24">
-        <v>109330.970845071</v>
+      <c r="R50" s="20">
+        <v>172.66352112698951</v>
       </c>
       <c r="S50" s="20"/>
       <c r="T50" s="20">
@@ -31452,7 +31491,7 @@
       </c>
       <c r="U50" s="20">
         <f t="shared" si="8"/>
-        <v>109330.970845071</v>
+        <v>172.66352112698951</v>
       </c>
       <c r="V50" s="22">
         <f t="shared" si="5"/>
@@ -31527,7 +31566,7 @@
       </c>
       <c r="P51" s="13"/>
       <c r="Q51" s="5"/>
-      <c r="R51" s="24">
+      <c r="R51" s="20">
         <v>11055.15</v>
       </c>
       <c r="S51" s="20"/>
@@ -31611,7 +31650,7 @@
       </c>
       <c r="P52" s="13"/>
       <c r="Q52" s="5"/>
-      <c r="R52" s="24">
+      <c r="R52" s="20">
         <v>15503.97</v>
       </c>
       <c r="S52" s="20"/>
@@ -31695,7 +31734,7 @@
       </c>
       <c r="P53" s="13"/>
       <c r="Q53" s="5"/>
-      <c r="R53" s="24">
+      <c r="R53" s="20">
         <v>19977.36</v>
       </c>
       <c r="S53" s="20"/>
@@ -31779,7 +31818,7 @@
       </c>
       <c r="P54" s="13"/>
       <c r="Q54" s="5"/>
-      <c r="R54" s="24">
+      <c r="R54" s="20">
         <v>7101.61</v>
       </c>
       <c r="S54" s="20"/>
@@ -31863,7 +31902,7 @@
       </c>
       <c r="P55" s="13"/>
       <c r="Q55" s="5"/>
-      <c r="R55" s="24">
+      <c r="R55" s="20">
         <v>2956.69</v>
       </c>
       <c r="S55" s="20"/>
@@ -32289,7 +32328,7 @@
       <c r="Q60" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="R60" s="26">
+      <c r="R60" s="20">
         <v>0</v>
       </c>
       <c r="S60" s="26">
@@ -32376,7 +32415,7 @@
       <c r="Q61" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="R61" s="26">
+      <c r="R61" s="20">
         <v>0</v>
       </c>
       <c r="S61" s="26">
@@ -32460,7 +32499,7 @@
       <c r="Q62" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="R62" s="26">
+      <c r="R62" s="20">
         <v>0</v>
       </c>
       <c r="S62" s="26">
@@ -32544,7 +32583,7 @@
       <c r="Q63" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="R63" s="26">
+      <c r="R63" s="20">
         <v>0</v>
       </c>
       <c r="S63" s="26">
@@ -32628,7 +32667,7 @@
         <v>6554</v>
       </c>
       <c r="Q64" s="27"/>
-      <c r="R64" s="28"/>
+      <c r="R64" s="20"/>
       <c r="S64" s="28"/>
       <c r="T64" s="29">
         <v>6789.9019607843102</v>
@@ -32706,7 +32745,7 @@
         <v>6554</v>
       </c>
       <c r="Q65" s="27"/>
-      <c r="R65" s="28"/>
+      <c r="R65" s="20"/>
       <c r="S65" s="28"/>
       <c r="T65" s="29">
         <v>-6925.7</v>
@@ -32786,7 +32825,7 @@
         <v>183</v>
       </c>
       <c r="Q66" s="27"/>
-      <c r="R66" s="28"/>
+      <c r="R66" s="20"/>
       <c r="S66" s="28"/>
       <c r="T66" s="29">
         <v>247.43269230769201</v>
@@ -32868,7 +32907,7 @@
         <v>600000829</v>
       </c>
       <c r="Q67" s="33"/>
-      <c r="R67" s="37"/>
+      <c r="R67" s="20"/>
       <c r="S67" s="37"/>
       <c r="T67" s="29">
         <v>700000</v>
@@ -32950,7 +32989,7 @@
         <v>600000829</v>
       </c>
       <c r="Q68" s="33"/>
-      <c r="R68" s="37"/>
+      <c r="R68" s="20"/>
       <c r="S68" s="37"/>
       <c r="T68" s="29">
         <v>3139374.4436599999</v>
@@ -33032,7 +33071,7 @@
         <v>600000916</v>
       </c>
       <c r="Q69" s="33"/>
-      <c r="R69" s="37"/>
+      <c r="R69" s="20"/>
       <c r="S69" s="37"/>
       <c r="T69" s="29">
         <v>1511691.35</v>
@@ -33112,7 +33151,7 @@
       <c r="Q70" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="R70" s="37"/>
+      <c r="R70" s="20"/>
       <c r="S70" s="37"/>
       <c r="T70" s="28">
         <v>147092.698113208</v>
@@ -34798,7 +34837,7 @@
       <c r="P90" s="40"/>
       <c r="Q90" s="39"/>
       <c r="R90" s="20">
-        <v>32528.018732394001</v>
+        <v>354.84000000002561</v>
       </c>
       <c r="S90" s="20"/>
       <c r="T90" s="20">
@@ -34806,7 +34845,7 @@
       </c>
       <c r="U90" s="20">
         <f t="shared" si="10"/>
-        <v>32528.018732394001</v>
+        <v>354.84000000002561</v>
       </c>
       <c r="V90" s="22">
         <f t="shared" si="12"/>
@@ -34882,7 +34921,7 @@
       <c r="P91" s="40"/>
       <c r="Q91" s="39"/>
       <c r="R91" s="20">
-        <v>44404.901830985997</v>
+        <v>0</v>
       </c>
       <c r="S91" s="20"/>
       <c r="T91" s="20">
@@ -34890,7 +34929,7 @@
       </c>
       <c r="U91" s="20">
         <f t="shared" si="10"/>
-        <v>44404.901830985997</v>
+        <v>0</v>
       </c>
       <c r="V91" s="22">
         <f t="shared" si="12"/>
@@ -35134,7 +35173,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="20">
-        <v>870846.699999996</v>
+        <v>-30329.470000000056</v>
       </c>
       <c r="S94" s="20"/>
       <c r="T94" s="20">
@@ -35142,7 +35181,7 @@
       </c>
       <c r="U94" s="20">
         <f t="shared" si="10"/>
-        <v>870846.699999996</v>
+        <v>-30329.470000000056</v>
       </c>
       <c r="V94" s="22">
         <f t="shared" si="12"/>
@@ -36394,7 +36433,7 @@
       <c r="P109" s="40"/>
       <c r="Q109" s="39"/>
       <c r="R109" s="20">
-        <v>14160.3070422536</v>
+        <v>14157.309295774696</v>
       </c>
       <c r="S109" s="20"/>
       <c r="T109" s="20">
@@ -36402,7 +36441,7 @@
       </c>
       <c r="U109" s="20">
         <f t="shared" si="10"/>
-        <v>14160.3070422536</v>
+        <v>14157.309295774696</v>
       </c>
       <c r="V109" s="22">
         <f t="shared" si="14"/>
@@ -36562,7 +36601,7 @@
       <c r="P111" s="40"/>
       <c r="Q111" s="39"/>
       <c r="R111" s="20">
-        <v>151056.34</v>
+        <v>88.72</v>
       </c>
       <c r="S111" s="20"/>
       <c r="T111" s="20">
@@ -36570,7 +36609,7 @@
       </c>
       <c r="U111" s="20">
         <f t="shared" si="10"/>
-        <v>151056.34</v>
+        <v>88.72</v>
       </c>
       <c r="V111" s="22">
         <f t="shared" si="14"/>
@@ -36851,7 +36890,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="14.25" hidden="1">
+    <row r="115" spans="1:31" ht="14.25">
       <c r="A115" s="56">
         <v>43862</v>
       </c>
@@ -36898,7 +36937,7 @@
       <c r="P115" s="40"/>
       <c r="Q115" s="39"/>
       <c r="R115" s="20">
-        <v>109330.970845071</v>
+        <v>172.66352112698951</v>
       </c>
       <c r="S115" s="20"/>
       <c r="T115" s="20">
@@ -36906,7 +36945,7 @@
       </c>
       <c r="U115" s="20">
         <f t="shared" si="10"/>
-        <v>109330.970845071</v>
+        <v>172.66352112698951</v>
       </c>
       <c r="V115" s="22">
         <f t="shared" si="14"/>
@@ -37748,7 +37787,7 @@
       </c>
       <c r="P125" s="47"/>
       <c r="Q125" s="44"/>
-      <c r="R125" s="24">
+      <c r="R125" s="20">
         <v>81000</v>
       </c>
       <c r="S125" s="24">
@@ -37834,7 +37873,7 @@
       <c r="Q126" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="R126" s="24">
+      <c r="R126" s="20">
         <v>0</v>
       </c>
       <c r="S126" s="24">
@@ -37920,7 +37959,7 @@
       <c r="Q127" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="R127" s="24">
+      <c r="R127" s="20">
         <v>283500</v>
       </c>
       <c r="S127" s="24">
@@ -38007,7 +38046,7 @@
       <c r="Q128" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="R128" s="52"/>
+      <c r="R128" s="20"/>
       <c r="S128" s="52"/>
       <c r="T128" s="53">
         <v>135035.88</v>
@@ -38088,7 +38127,7 @@
       </c>
       <c r="P129" s="12"/>
       <c r="Q129" s="41"/>
-      <c r="R129" s="58">
+      <c r="R129" s="20">
         <v>10000</v>
       </c>
       <c r="S129" s="23">
@@ -38176,7 +38215,7 @@
       <c r="Q130" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="R130" s="23">
+      <c r="R130" s="20">
         <v>747605.95999999903</v>
       </c>
       <c r="S130" s="23">
@@ -38264,7 +38303,7 @@
       </c>
       <c r="P131" s="12"/>
       <c r="Q131" s="41"/>
-      <c r="R131" s="23">
+      <c r="R131" s="20">
         <v>0</v>
       </c>
       <c r="S131" s="23">
@@ -38352,7 +38391,7 @@
       <c r="Q132" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="R132" s="58">
+      <c r="R132" s="20">
         <v>45962.21</v>
       </c>
       <c r="S132" s="23"/>
@@ -38433,7 +38472,7 @@
       </c>
       <c r="P133" s="41"/>
       <c r="Q133" s="41"/>
-      <c r="R133" s="58">
+      <c r="R133" s="20">
         <v>7.0399999999990497</v>
       </c>
       <c r="S133" s="23"/>
@@ -38517,7 +38556,7 @@
       </c>
       <c r="P134" s="41"/>
       <c r="Q134" s="41"/>
-      <c r="R134" s="58">
+      <c r="R134" s="20">
         <v>15901.84</v>
       </c>
       <c r="S134" s="23"/>
@@ -38601,7 +38640,7 @@
       </c>
       <c r="P135" s="41"/>
       <c r="Q135" s="41"/>
-      <c r="R135" s="58">
+      <c r="R135" s="20">
         <v>2375.20999999992</v>
       </c>
       <c r="S135" s="23"/>
@@ -38685,7 +38724,7 @@
       </c>
       <c r="P136" s="41"/>
       <c r="Q136" s="41"/>
-      <c r="R136" s="58">
+      <c r="R136" s="20">
         <v>5696.55</v>
       </c>
       <c r="S136" s="23"/>
@@ -38769,7 +38808,7 @@
       </c>
       <c r="P137" s="41"/>
       <c r="Q137" s="41"/>
-      <c r="R137" s="58">
+      <c r="R137" s="20">
         <v>106099.63</v>
       </c>
       <c r="S137" s="23"/>
@@ -38853,7 +38892,7 @@
       </c>
       <c r="P138" s="41"/>
       <c r="Q138" s="41"/>
-      <c r="R138" s="58">
+      <c r="R138" s="20">
         <v>7741.65</v>
       </c>
       <c r="S138" s="23"/>
@@ -38937,7 +38976,7 @@
       </c>
       <c r="P139" s="41"/>
       <c r="Q139" s="41"/>
-      <c r="R139" s="58">
+      <c r="R139" s="20">
         <v>16681.47</v>
       </c>
       <c r="S139" s="23"/>
@@ -39021,7 +39060,7 @@
       </c>
       <c r="P140" s="41"/>
       <c r="Q140" s="41"/>
-      <c r="R140" s="58">
+      <c r="R140" s="20">
         <v>70024.240000000005</v>
       </c>
       <c r="S140" s="23"/>
@@ -39105,7 +39144,7 @@
       </c>
       <c r="P141" s="41"/>
       <c r="Q141" s="41"/>
-      <c r="R141" s="58">
+      <c r="R141" s="20">
         <v>205.52</v>
       </c>
       <c r="S141" s="23"/>
@@ -39189,7 +39228,7 @@
       </c>
       <c r="P142" s="41"/>
       <c r="Q142" s="41"/>
-      <c r="R142" s="58">
+      <c r="R142" s="20">
         <v>1766.24</v>
       </c>
       <c r="S142" s="23"/>
@@ -39273,7 +39312,7 @@
       </c>
       <c r="P143" s="41"/>
       <c r="Q143" s="41"/>
-      <c r="R143" s="58">
+      <c r="R143" s="20">
         <v>12291.56</v>
       </c>
       <c r="S143" s="23"/>
@@ -39357,7 +39396,7 @@
       </c>
       <c r="P144" s="41"/>
       <c r="Q144" s="41"/>
-      <c r="R144" s="58">
+      <c r="R144" s="20">
         <v>131941.95000000001</v>
       </c>
       <c r="S144" s="23"/>
@@ -39441,7 +39480,7 @@
       </c>
       <c r="P145" s="41"/>
       <c r="Q145" s="41"/>
-      <c r="R145" s="58">
+      <c r="R145" s="20">
         <v>8102.9149295775096</v>
       </c>
       <c r="S145" s="23"/>
@@ -39525,7 +39564,7 @@
       </c>
       <c r="P146" s="41"/>
       <c r="Q146" s="41"/>
-      <c r="R146" s="58">
+      <c r="R146" s="20">
         <v>655.37999999978604</v>
       </c>
       <c r="S146" s="23"/>
@@ -39609,8 +39648,8 @@
       </c>
       <c r="P147" s="41"/>
       <c r="Q147" s="41"/>
-      <c r="R147" s="58">
-        <v>32528.018732394001</v>
+      <c r="R147" s="20">
+        <v>354.84000000002561</v>
       </c>
       <c r="S147" s="23"/>
       <c r="T147" s="23">
@@ -39618,7 +39657,7 @@
       </c>
       <c r="U147" s="23">
         <f t="shared" si="16"/>
-        <v>32528.018732394001</v>
+        <v>354.84000000002561</v>
       </c>
       <c r="V147" s="22">
         <f t="shared" si="19"/>
@@ -39693,8 +39732,8 @@
       </c>
       <c r="P148" s="41"/>
       <c r="Q148" s="41"/>
-      <c r="R148" s="58">
-        <v>44404.901830985997</v>
+      <c r="R148" s="20">
+        <v>0</v>
       </c>
       <c r="S148" s="23"/>
       <c r="T148" s="23">
@@ -39702,7 +39741,7 @@
       </c>
       <c r="U148" s="23">
         <f t="shared" si="16"/>
-        <v>44404.901830985997</v>
+        <v>0</v>
       </c>
       <c r="V148" s="22">
         <f t="shared" si="19"/>
@@ -39777,7 +39816,7 @@
       </c>
       <c r="P149" s="41"/>
       <c r="Q149" s="41"/>
-      <c r="R149" s="58">
+      <c r="R149" s="20">
         <v>227.30774647876399</v>
       </c>
       <c r="S149" s="23"/>
@@ -39861,7 +39900,7 @@
       </c>
       <c r="P150" s="41"/>
       <c r="Q150" s="41"/>
-      <c r="R150" s="58">
+      <c r="R150" s="20">
         <v>152.264929577999</v>
       </c>
       <c r="S150" s="23"/>
@@ -39945,8 +39984,8 @@
       </c>
       <c r="P151" s="41"/>
       <c r="Q151" s="41"/>
-      <c r="R151" s="58">
-        <v>870846.699999996</v>
+      <c r="R151" s="20">
+        <v>-30329.470000000056</v>
       </c>
       <c r="S151" s="23"/>
       <c r="T151" s="23">
@@ -39954,7 +39993,7 @@
       </c>
       <c r="U151" s="23">
         <f t="shared" si="16"/>
-        <v>870846.699999996</v>
+        <v>-30329.470000000056</v>
       </c>
       <c r="V151" s="22">
         <f t="shared" si="19"/>
@@ -40029,7 +40068,7 @@
       </c>
       <c r="P152" s="41"/>
       <c r="Q152" s="41"/>
-      <c r="R152" s="58">
+      <c r="R152" s="20">
         <v>425.555211267598</v>
       </c>
       <c r="S152" s="23"/>
@@ -40113,7 +40152,7 @@
       </c>
       <c r="P153" s="41"/>
       <c r="Q153" s="41"/>
-      <c r="R153" s="58">
+      <c r="R153" s="20">
         <v>1402.38690140774</v>
       </c>
       <c r="S153" s="23"/>
@@ -40197,7 +40236,7 @@
       </c>
       <c r="P154" s="41"/>
       <c r="Q154" s="41"/>
-      <c r="R154" s="58">
+      <c r="R154" s="20">
         <v>12961.68</v>
       </c>
       <c r="S154" s="23"/>
@@ -40281,7 +40320,7 @@
       </c>
       <c r="P155" s="41"/>
       <c r="Q155" s="41"/>
-      <c r="R155" s="58">
+      <c r="R155" s="20">
         <v>143.460985915328</v>
       </c>
       <c r="S155" s="23"/>
@@ -40365,7 +40404,7 @@
       </c>
       <c r="P156" s="41"/>
       <c r="Q156" s="41"/>
-      <c r="R156" s="58">
+      <c r="R156" s="20">
         <v>2063.5353521120301</v>
       </c>
       <c r="S156" s="23"/>
@@ -40449,7 +40488,7 @@
       </c>
       <c r="P157" s="41"/>
       <c r="Q157" s="41"/>
-      <c r="R157" s="58">
+      <c r="R157" s="20">
         <v>114142.344929578</v>
       </c>
       <c r="S157" s="23"/>
@@ -40533,7 +40572,7 @@
       </c>
       <c r="P158" s="41"/>
       <c r="Q158" s="41"/>
-      <c r="R158" s="58">
+      <c r="R158" s="20">
         <v>29897.39</v>
       </c>
       <c r="S158" s="23"/>
@@ -40617,7 +40656,7 @@
       </c>
       <c r="P159" s="41"/>
       <c r="Q159" s="41"/>
-      <c r="R159" s="58">
+      <c r="R159" s="20">
         <v>20014.111126760599</v>
       </c>
       <c r="S159" s="23"/>
@@ -40701,7 +40740,7 @@
       </c>
       <c r="P160" s="41"/>
       <c r="Q160" s="41"/>
-      <c r="R160" s="58">
+      <c r="R160" s="20">
         <v>322.47394365991897</v>
       </c>
       <c r="S160" s="23"/>
@@ -40785,7 +40824,7 @@
       </c>
       <c r="P161" s="41"/>
       <c r="Q161" s="41"/>
-      <c r="R161" s="58">
+      <c r="R161" s="20">
         <v>196.54507042269699</v>
       </c>
       <c r="S161" s="23"/>
@@ -40869,7 +40908,7 @@
       </c>
       <c r="P162" s="41"/>
       <c r="Q162" s="41"/>
-      <c r="R162" s="58">
+      <c r="R162" s="20">
         <v>1513.0032394366101</v>
       </c>
       <c r="S162" s="23"/>
@@ -40953,7 +40992,7 @@
       </c>
       <c r="P163" s="41"/>
       <c r="Q163" s="41"/>
-      <c r="R163" s="58">
+      <c r="R163" s="20">
         <v>6504.6216901406997</v>
       </c>
       <c r="S163" s="23"/>
@@ -41037,7 +41076,7 @@
       </c>
       <c r="P164" s="41"/>
       <c r="Q164" s="41"/>
-      <c r="R164" s="58">
+      <c r="R164" s="20">
         <v>44820.261970721403</v>
       </c>
       <c r="S164" s="23"/>
@@ -41121,7 +41160,7 @@
       </c>
       <c r="P165" s="41"/>
       <c r="Q165" s="41"/>
-      <c r="R165" s="58">
+      <c r="R165" s="20">
         <v>132154.611549297</v>
       </c>
       <c r="S165" s="23"/>
@@ -41205,8 +41244,8 @@
       </c>
       <c r="P166" s="41"/>
       <c r="Q166" s="41"/>
-      <c r="R166" s="58">
-        <v>14160.3070422536</v>
+      <c r="R166" s="20">
+        <v>14157.309295774696</v>
       </c>
       <c r="S166" s="23"/>
       <c r="T166" s="23">
@@ -41214,7 +41253,7 @@
       </c>
       <c r="U166" s="23">
         <f t="shared" si="16"/>
-        <v>14160.3070422536</v>
+        <v>14157.309295774696</v>
       </c>
       <c r="V166" s="22">
         <f t="shared" si="19"/>
@@ -41289,7 +41328,7 @@
       </c>
       <c r="P167" s="41"/>
       <c r="Q167" s="41"/>
-      <c r="R167" s="58">
+      <c r="R167" s="20">
         <v>480.55873239384499</v>
       </c>
       <c r="S167" s="23"/>
@@ -41373,8 +41412,8 @@
       </c>
       <c r="P168" s="41"/>
       <c r="Q168" s="41"/>
-      <c r="R168" s="58">
-        <v>151056.34</v>
+      <c r="R168" s="20">
+        <v>88.72</v>
       </c>
       <c r="S168" s="23"/>
       <c r="T168" s="23">
@@ -41382,7 +41421,7 @@
       </c>
       <c r="U168" s="23">
         <f t="shared" si="16"/>
-        <v>151056.34</v>
+        <v>88.72</v>
       </c>
       <c r="V168" s="22">
         <f t="shared" si="19"/>
@@ -41457,7 +41496,7 @@
       </c>
       <c r="P169" s="41"/>
       <c r="Q169" s="41"/>
-      <c r="R169" s="58">
+      <c r="R169" s="20">
         <v>147.29985915508601</v>
       </c>
       <c r="S169" s="23"/>
@@ -41541,7 +41580,7 @@
       </c>
       <c r="P170" s="41"/>
       <c r="Q170" s="41"/>
-      <c r="R170" s="58">
+      <c r="R170" s="20">
         <v>4215.2245070423196</v>
       </c>
       <c r="S170" s="23"/>
@@ -41625,7 +41664,7 @@
       </c>
       <c r="P171" s="41"/>
       <c r="Q171" s="41"/>
-      <c r="R171" s="58">
+      <c r="R171" s="20">
         <v>127.3395774647</v>
       </c>
       <c r="S171" s="23"/>
@@ -41663,7 +41702,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:31" ht="14.25" hidden="1">
+    <row r="172" spans="1:31" ht="14.25">
       <c r="A172" s="65">
         <v>43891</v>
       </c>
@@ -41709,8 +41748,8 @@
       </c>
       <c r="P172" s="41"/>
       <c r="Q172" s="41"/>
-      <c r="R172" s="58">
-        <v>109330.970845071</v>
+      <c r="R172" s="20">
+        <v>172.66352112698951</v>
       </c>
       <c r="S172" s="23"/>
       <c r="T172" s="23">
@@ -41718,7 +41757,7 @@
       </c>
       <c r="U172" s="23">
         <f t="shared" si="16"/>
-        <v>109330.970845071</v>
+        <v>172.66352112698951</v>
       </c>
       <c r="V172" s="22">
         <f t="shared" si="19"/>
@@ -41793,7 +41832,7 @@
       </c>
       <c r="P173" s="41"/>
       <c r="Q173" s="41"/>
-      <c r="R173" s="58">
+      <c r="R173" s="20">
         <v>11055.15</v>
       </c>
       <c r="S173" s="23"/>
@@ -41877,7 +41916,7 @@
       </c>
       <c r="P174" s="41"/>
       <c r="Q174" s="41"/>
-      <c r="R174" s="58">
+      <c r="R174" s="20">
         <v>15503.97</v>
       </c>
       <c r="S174" s="23"/>
@@ -41961,7 +42000,7 @@
       </c>
       <c r="P175" s="41"/>
       <c r="Q175" s="41"/>
-      <c r="R175" s="58">
+      <c r="R175" s="20">
         <v>6379.42</v>
       </c>
       <c r="S175" s="23"/>
@@ -42045,7 +42084,7 @@
       </c>
       <c r="P176" s="41"/>
       <c r="Q176" s="41"/>
-      <c r="R176" s="58">
+      <c r="R176" s="20">
         <v>2956.69</v>
       </c>
       <c r="S176" s="23"/>
@@ -42131,7 +42170,7 @@
       <c r="Q177" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="R177" s="23">
+      <c r="R177" s="20">
         <v>0</v>
       </c>
       <c r="S177" s="23">
@@ -42216,7 +42255,7 @@
       <c r="Q178" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="R178" s="23">
+      <c r="R178" s="20">
         <v>4076.12</v>
       </c>
       <c r="S178" s="23">
@@ -42302,7 +42341,7 @@
       <c r="Q179" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="R179" s="23">
+      <c r="R179" s="20">
         <v>113492.08</v>
       </c>
       <c r="S179" s="23">
@@ -42388,7 +42427,7 @@
       <c r="Q180" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="R180" s="63">
+      <c r="R180" s="20">
         <v>0</v>
       </c>
       <c r="S180" s="63">
@@ -42477,7 +42516,7 @@
       </c>
       <c r="P181" s="89"/>
       <c r="Q181" s="86"/>
-      <c r="R181" s="90">
+      <c r="R181" s="20">
         <v>2956.69</v>
       </c>
       <c r="S181" s="90">
@@ -42580,7 +42619,7 @@
       </c>
       <c r="P182" s="89"/>
       <c r="Q182" s="86"/>
-      <c r="R182" s="58">
+      <c r="R182" s="20">
         <v>70024.240000000005</v>
       </c>
       <c r="S182" s="90">
@@ -42687,7 +42726,7 @@
       </c>
       <c r="P183" s="89"/>
       <c r="Q183" s="86"/>
-      <c r="R183" s="90">
+      <c r="R183" s="20">
         <v>7741.65</v>
       </c>
       <c r="S183" s="90">
@@ -42790,7 +42829,7 @@
       </c>
       <c r="P184" s="89"/>
       <c r="Q184" s="86"/>
-      <c r="R184" s="90">
+      <c r="R184" s="20">
         <v>7.0399999999990497</v>
       </c>
       <c r="S184" s="90">
@@ -42893,7 +42932,7 @@
       </c>
       <c r="P185" s="89"/>
       <c r="Q185" s="86"/>
-      <c r="R185" s="90">
+      <c r="R185" s="20">
         <v>106099.63</v>
       </c>
       <c r="S185" s="90">
@@ -42996,7 +43035,7 @@
       </c>
       <c r="P186" s="89"/>
       <c r="Q186" s="86"/>
-      <c r="R186" s="90">
+      <c r="R186" s="20">
         <v>131941.95000000001</v>
       </c>
       <c r="S186" s="90">
@@ -43099,7 +43138,7 @@
       </c>
       <c r="P187" s="89"/>
       <c r="Q187" s="86"/>
-      <c r="R187" s="90">
+      <c r="R187" s="20">
         <v>15901.84</v>
       </c>
       <c r="S187" s="90">
@@ -43202,7 +43241,7 @@
       </c>
       <c r="P188" s="89"/>
       <c r="Q188" s="86"/>
-      <c r="R188" s="90">
+      <c r="R188" s="20">
         <v>2375.20999999992</v>
       </c>
       <c r="S188" s="90">
@@ -43305,7 +43344,7 @@
       </c>
       <c r="P189" s="89"/>
       <c r="Q189" s="86"/>
-      <c r="R189" s="90">
+      <c r="R189" s="20">
         <v>1766.24</v>
       </c>
       <c r="S189" s="90">
@@ -43408,7 +43447,7 @@
       </c>
       <c r="P190" s="89"/>
       <c r="Q190" s="86"/>
-      <c r="R190" s="90">
+      <c r="R190" s="20">
         <v>8102.9149295775096</v>
       </c>
       <c r="S190" s="90">
@@ -43511,7 +43550,7 @@
       </c>
       <c r="P191" s="89"/>
       <c r="Q191" s="86"/>
-      <c r="R191" s="90">
+      <c r="R191" s="20">
         <v>2063.5353521120301</v>
       </c>
       <c r="S191" s="90">
@@ -43614,7 +43653,7 @@
       </c>
       <c r="P192" s="89"/>
       <c r="Q192" s="86"/>
-      <c r="R192" s="90">
+      <c r="R192" s="20">
         <v>655.37999999978604</v>
       </c>
       <c r="S192" s="90">
@@ -43717,8 +43756,8 @@
       </c>
       <c r="P193" s="89"/>
       <c r="Q193" s="86"/>
-      <c r="R193" s="90">
-        <v>32528.018732394001</v>
+      <c r="R193" s="20">
+        <v>354.84000000002561</v>
       </c>
       <c r="S193" s="90">
         <v>0</v>
@@ -43728,7 +43767,7 @@
       </c>
       <c r="U193" s="90">
         <f t="shared" si="22"/>
-        <v>32528.018732394001</v>
+        <v>354.84000000002561</v>
       </c>
       <c r="V193" s="90">
         <f t="shared" si="23"/>
@@ -43820,8 +43859,8 @@
       </c>
       <c r="P194" s="89"/>
       <c r="Q194" s="86"/>
-      <c r="R194" s="90">
-        <v>44404.901830985997</v>
+      <c r="R194" s="20">
+        <v>0</v>
       </c>
       <c r="S194" s="90">
         <v>0</v>
@@ -43831,7 +43870,7 @@
       </c>
       <c r="U194" s="90">
         <f t="shared" si="22"/>
-        <v>44404.901830985997</v>
+        <v>0</v>
       </c>
       <c r="V194" s="90">
         <f t="shared" si="23"/>
@@ -43923,7 +43962,7 @@
       </c>
       <c r="P195" s="89"/>
       <c r="Q195" s="86"/>
-      <c r="R195" s="90">
+      <c r="R195" s="20">
         <v>227.30774647876399</v>
       </c>
       <c r="S195" s="90">
@@ -44026,7 +44065,7 @@
       </c>
       <c r="P196" s="89"/>
       <c r="Q196" s="86"/>
-      <c r="R196" s="90">
+      <c r="R196" s="20">
         <v>152.264929577999</v>
       </c>
       <c r="S196" s="90">
@@ -44129,8 +44168,8 @@
       </c>
       <c r="P197" s="89"/>
       <c r="Q197" s="86"/>
-      <c r="R197" s="90">
-        <v>870846.699999996</v>
+      <c r="R197" s="20">
+        <v>-30329.470000000056</v>
       </c>
       <c r="S197" s="90">
         <v>0</v>
@@ -44140,7 +44179,7 @@
       </c>
       <c r="U197" s="90">
         <f t="shared" si="22"/>
-        <v>870846.699999996</v>
+        <v>-30329.470000000056</v>
       </c>
       <c r="V197" s="90">
         <f t="shared" si="23"/>
@@ -44232,7 +44271,7 @@
       </c>
       <c r="P198" s="89"/>
       <c r="Q198" s="86"/>
-      <c r="R198" s="90">
+      <c r="R198" s="20">
         <v>425.555211267598</v>
       </c>
       <c r="S198" s="90">
@@ -44335,7 +44374,7 @@
       </c>
       <c r="P199" s="89"/>
       <c r="Q199" s="86"/>
-      <c r="R199" s="90">
+      <c r="R199" s="20">
         <v>1402.38690140774</v>
       </c>
       <c r="S199" s="90">
@@ -44438,7 +44477,7 @@
       </c>
       <c r="P200" s="89"/>
       <c r="Q200" s="86"/>
-      <c r="R200" s="90">
+      <c r="R200" s="20">
         <v>12961.68</v>
       </c>
       <c r="S200" s="90">
@@ -44541,7 +44580,7 @@
       </c>
       <c r="P201" s="89"/>
       <c r="Q201" s="86"/>
-      <c r="R201" s="90">
+      <c r="R201" s="20">
         <v>143.460985915328</v>
       </c>
       <c r="S201" s="90">
@@ -44644,7 +44683,7 @@
       </c>
       <c r="P202" s="89"/>
       <c r="Q202" s="86"/>
-      <c r="R202" s="90">
+      <c r="R202" s="20">
         <v>114142.344929578</v>
       </c>
       <c r="S202" s="90">
@@ -44747,7 +44786,7 @@
       </c>
       <c r="P203" s="89"/>
       <c r="Q203" s="86"/>
-      <c r="R203" s="90">
+      <c r="R203" s="20">
         <v>29897.39</v>
       </c>
       <c r="S203" s="90">
@@ -44850,7 +44889,7 @@
       </c>
       <c r="P204" s="89"/>
       <c r="Q204" s="86"/>
-      <c r="R204" s="90">
+      <c r="R204" s="20">
         <v>20014.111126760599</v>
       </c>
       <c r="S204" s="90">
@@ -44953,7 +44992,7 @@
       </c>
       <c r="P205" s="89"/>
       <c r="Q205" s="86"/>
-      <c r="R205" s="90">
+      <c r="R205" s="20">
         <v>322.47394365991897</v>
       </c>
       <c r="S205" s="90">
@@ -45056,7 +45095,7 @@
       </c>
       <c r="P206" s="89"/>
       <c r="Q206" s="86"/>
-      <c r="R206" s="90">
+      <c r="R206" s="20">
         <v>196.54507042269699</v>
       </c>
       <c r="S206" s="90">
@@ -45159,7 +45198,7 @@
       </c>
       <c r="P207" s="89"/>
       <c r="Q207" s="86"/>
-      <c r="R207" s="90">
+      <c r="R207" s="20">
         <v>1513.0032394366101</v>
       </c>
       <c r="S207" s="90">
@@ -45262,7 +45301,7 @@
       </c>
       <c r="P208" s="89"/>
       <c r="Q208" s="86"/>
-      <c r="R208" s="90">
+      <c r="R208" s="20">
         <v>6504.6216901406997</v>
       </c>
       <c r="S208" s="90">
@@ -45365,7 +45404,7 @@
       </c>
       <c r="P209" s="89"/>
       <c r="Q209" s="86"/>
-      <c r="R209" s="90">
+      <c r="R209" s="20">
         <v>44820.261970721403</v>
       </c>
       <c r="S209" s="90">
@@ -45468,7 +45507,7 @@
       </c>
       <c r="P210" s="89"/>
       <c r="Q210" s="86"/>
-      <c r="R210" s="90">
+      <c r="R210" s="20">
         <v>132154.611549297</v>
       </c>
       <c r="S210" s="90">
@@ -45571,8 +45610,8 @@
       </c>
       <c r="P211" s="89"/>
       <c r="Q211" s="86"/>
-      <c r="R211" s="90">
-        <v>14160.3070422536</v>
+      <c r="R211" s="20">
+        <v>14157.309295774696</v>
       </c>
       <c r="S211" s="90">
         <v>0</v>
@@ -45582,7 +45621,7 @@
       </c>
       <c r="U211" s="90">
         <f t="shared" si="22"/>
-        <v>14160.3070422536</v>
+        <v>14157.309295774696</v>
       </c>
       <c r="V211" s="90">
         <f t="shared" si="23"/>
@@ -45674,7 +45713,7 @@
       </c>
       <c r="P212" s="89"/>
       <c r="Q212" s="86"/>
-      <c r="R212" s="90">
+      <c r="R212" s="20">
         <v>480.55873239384499</v>
       </c>
       <c r="S212" s="90">
@@ -45777,8 +45816,8 @@
       </c>
       <c r="P213" s="89"/>
       <c r="Q213" s="86"/>
-      <c r="R213" s="90">
-        <v>151056.34</v>
+      <c r="R213" s="20">
+        <v>88.72</v>
       </c>
       <c r="S213" s="90">
         <v>0</v>
@@ -45788,7 +45827,7 @@
       </c>
       <c r="U213" s="90">
         <f t="shared" si="22"/>
-        <v>151056.34</v>
+        <v>88.72</v>
       </c>
       <c r="V213" s="90">
         <f t="shared" si="23"/>
@@ -45880,7 +45919,7 @@
       </c>
       <c r="P214" s="89"/>
       <c r="Q214" s="86"/>
-      <c r="R214" s="90">
+      <c r="R214" s="20">
         <v>147.29985915508601</v>
       </c>
       <c r="S214" s="90">
@@ -45983,7 +46022,7 @@
       </c>
       <c r="P215" s="89"/>
       <c r="Q215" s="86"/>
-      <c r="R215" s="90">
+      <c r="R215" s="20">
         <v>4215.2245070423196</v>
       </c>
       <c r="S215" s="90">
@@ -46086,7 +46125,7 @@
       </c>
       <c r="P216" s="89"/>
       <c r="Q216" s="86"/>
-      <c r="R216" s="90">
+      <c r="R216" s="20">
         <v>127.3395774647</v>
       </c>
       <c r="S216" s="90">
@@ -46143,7 +46182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:38" ht="14.25" hidden="1">
+    <row r="217" spans="1:38" ht="14.25">
       <c r="A217" s="84">
         <v>43922</v>
       </c>
@@ -46189,8 +46228,8 @@
       </c>
       <c r="P217" s="89"/>
       <c r="Q217" s="86"/>
-      <c r="R217" s="90">
-        <v>109330.970845071</v>
+      <c r="R217" s="20">
+        <v>172.66352112698951</v>
       </c>
       <c r="S217" s="90">
         <v>0</v>
@@ -46200,7 +46239,7 @@
       </c>
       <c r="U217" s="90">
         <f t="shared" si="22"/>
-        <v>109330.970845071</v>
+        <v>172.66352112698951</v>
       </c>
       <c r="V217" s="90">
         <f t="shared" si="23"/>
@@ -46292,7 +46331,7 @@
       </c>
       <c r="P218" s="89"/>
       <c r="Q218" s="86"/>
-      <c r="R218" s="90">
+      <c r="R218" s="20">
         <v>11055.15</v>
       </c>
       <c r="S218" s="90">
@@ -46395,7 +46434,7 @@
       </c>
       <c r="P219" s="89"/>
       <c r="Q219" s="86"/>
-      <c r="R219" s="90">
+      <c r="R219" s="20">
         <v>173646.82</v>
       </c>
       <c r="S219" s="90">
@@ -46504,7 +46543,7 @@
       </c>
       <c r="P220" s="89"/>
       <c r="Q220" s="86"/>
-      <c r="R220" s="90">
+      <c r="R220" s="20">
         <v>205.52</v>
       </c>
       <c r="S220" s="90">
@@ -46607,7 +46646,7 @@
       </c>
       <c r="P221" s="89"/>
       <c r="Q221" s="86"/>
-      <c r="R221" s="90">
+      <c r="R221" s="20">
         <v>15503.97</v>
       </c>
       <c r="S221" s="90">
@@ -46710,7 +46749,7 @@
       </c>
       <c r="P222" s="89"/>
       <c r="Q222" s="86"/>
-      <c r="R222" s="90"/>
+      <c r="R222" s="20"/>
       <c r="S222" s="90">
         <v>0</v>
       </c>
@@ -46808,7 +46847,7 @@
       <c r="Q223" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="R223" s="90">
+      <c r="R223" s="20">
         <v>0</v>
       </c>
       <c r="S223" s="90">
@@ -46867,7 +46906,7 @@
         <v>-187767.14516129033</v>
       </c>
     </row>
-    <row r="224" spans="1:38" ht="14.25">
+    <row r="224" spans="1:38" ht="14.25" hidden="1">
       <c r="A224" s="84">
         <v>43922</v>
       </c>
@@ -46915,7 +46954,7 @@
       <c r="Q224" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="R224" s="90">
+      <c r="R224" s="20">
         <v>0</v>
       </c>
       <c r="S224" s="90">
@@ -47021,7 +47060,7 @@
       <c r="Q225" s="86" t="s">
         <v>233</v>
       </c>
-      <c r="R225" s="90">
+      <c r="R225" s="20">
         <v>546995.58999999613</v>
       </c>
       <c r="S225" s="90">
@@ -47139,7 +47178,7 @@
       <c r="Q226" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="R226" s="90">
+      <c r="R226" s="20">
         <v>0</v>
       </c>
       <c r="S226" s="90">
@@ -47254,7 +47293,7 @@
       <c r="Q227" s="86" t="s">
         <v>233</v>
       </c>
-      <c r="R227" s="90">
+      <c r="R227" s="20">
         <v>1037878.79</v>
       </c>
       <c r="S227" s="90">
@@ -47363,7 +47402,7 @@
       </c>
       <c r="P228" s="89"/>
       <c r="Q228" s="86"/>
-      <c r="R228" s="90">
+      <c r="R228" s="20">
         <v>5696.55</v>
       </c>
       <c r="S228" s="90">
@@ -47466,7 +47505,7 @@
       </c>
       <c r="P229" s="89"/>
       <c r="Q229" s="86"/>
-      <c r="R229" s="90">
+      <c r="R229" s="20">
         <v>6379.42</v>
       </c>
       <c r="S229" s="90">
@@ -47569,7 +47608,7 @@
       </c>
       <c r="P230" s="89"/>
       <c r="Q230" s="86"/>
-      <c r="R230" s="90">
+      <c r="R230" s="20">
         <v>16597.23</v>
       </c>
       <c r="S230" s="90">
@@ -47676,7 +47715,7 @@
       </c>
       <c r="P231" s="89"/>
       <c r="Q231" s="86"/>
-      <c r="R231" s="90">
+      <c r="R231" s="20">
         <v>0</v>
       </c>
       <c r="S231" s="90">
@@ -47785,7 +47824,7 @@
       <c r="Q232" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="R232" s="90">
+      <c r="R232" s="20">
         <v>0</v>
       </c>
       <c r="S232" s="90">
@@ -47875,7 +47914,7 @@
       </c>
       <c r="P233" s="85"/>
       <c r="Q233" s="86"/>
-      <c r="R233" s="90">
+      <c r="R233" s="20">
         <v>0</v>
       </c>
       <c r="S233" s="90">
@@ -47972,7 +48011,7 @@
       <c r="Q234" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="R234" s="90">
+      <c r="R234" s="20">
         <v>113492.08000000002</v>
       </c>
       <c r="S234" s="90">
@@ -48061,7 +48100,7 @@
       </c>
       <c r="P235" s="12"/>
       <c r="Q235" s="41"/>
-      <c r="R235" s="23">
+      <c r="R235" s="20">
         <v>4076.1200000000003</v>
       </c>
       <c r="S235" s="90"/>
@@ -48149,7 +48188,7 @@
       </c>
       <c r="P236" s="100"/>
       <c r="Q236" s="99"/>
-      <c r="R236" s="101">
+      <c r="R236" s="20">
         <v>0</v>
       </c>
       <c r="S236" s="101">
@@ -48240,7 +48279,7 @@
       </c>
       <c r="P237" s="85"/>
       <c r="Q237" s="86"/>
-      <c r="R237" s="90"/>
+      <c r="R237" s="20"/>
       <c r="S237" s="90"/>
       <c r="T237" s="90">
         <v>24590.1</v>
@@ -48331,7 +48370,7 @@
       <c r="Q238" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="R238" s="120">
+      <c r="R238" s="20">
         <v>34831.26</v>
       </c>
       <c r="S238" s="121">
@@ -48395,7 +48434,7 @@
         <v>-1393439.1774193547</v>
       </c>
     </row>
-    <row r="239" spans="1:38" ht="14.25">
+    <row r="239" spans="1:38" ht="14.25" hidden="1">
       <c r="A239" s="116" t="s">
         <v>309</v>
       </c>
@@ -48443,7 +48482,7 @@
       <c r="Q239" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="R239" s="120">
+      <c r="R239" s="20">
         <v>144972.91</v>
       </c>
       <c r="S239" s="121">
@@ -48554,7 +48593,7 @@
       <c r="Q240" s="117" t="s">
         <v>314</v>
       </c>
-      <c r="R240" s="120">
+      <c r="R240" s="20">
         <v>2196321.2500000005</v>
       </c>
       <c r="S240" s="121">
@@ -48666,7 +48705,7 @@
       </c>
       <c r="P241" s="96"/>
       <c r="Q241" s="117"/>
-      <c r="R241" s="120">
+      <c r="R241" s="20">
         <v>2956.69</v>
       </c>
       <c r="S241" s="96"/>
@@ -48770,7 +48809,7 @@
       </c>
       <c r="P242" s="96"/>
       <c r="Q242" s="117"/>
-      <c r="R242" s="120">
+      <c r="R242" s="20">
         <v>70023.360000000001</v>
       </c>
       <c r="S242" s="96"/>
@@ -48874,7 +48913,7 @@
       </c>
       <c r="P243" s="96"/>
       <c r="Q243" s="117"/>
-      <c r="R243" s="120">
+      <c r="R243" s="20">
         <v>7741.65</v>
       </c>
       <c r="S243" s="96"/>
@@ -48978,7 +49017,7 @@
       </c>
       <c r="P244" s="96"/>
       <c r="Q244" s="117"/>
-      <c r="R244" s="120">
+      <c r="R244" s="20">
         <v>7.0399999999990497</v>
       </c>
       <c r="S244" s="96"/>
@@ -49082,7 +49121,7 @@
       </c>
       <c r="P245" s="96"/>
       <c r="Q245" s="117"/>
-      <c r="R245" s="120">
+      <c r="R245" s="20">
         <v>106099.63</v>
       </c>
       <c r="S245" s="96"/>
@@ -49186,7 +49225,7 @@
       </c>
       <c r="P246" s="96"/>
       <c r="Q246" s="117"/>
-      <c r="R246" s="120">
+      <c r="R246" s="20">
         <v>131941.95000000001</v>
       </c>
       <c r="S246" s="96"/>
@@ -49290,7 +49329,7 @@
       </c>
       <c r="P247" s="96"/>
       <c r="Q247" s="117"/>
-      <c r="R247" s="120">
+      <c r="R247" s="20">
         <v>15901.84</v>
       </c>
       <c r="S247" s="96"/>
@@ -49394,7 +49433,7 @@
       </c>
       <c r="P248" s="96"/>
       <c r="Q248" s="117"/>
-      <c r="R248" s="120">
+      <c r="R248" s="20">
         <v>2375.20999999992</v>
       </c>
       <c r="S248" s="96"/>
@@ -49498,7 +49537,7 @@
       </c>
       <c r="P249" s="96"/>
       <c r="Q249" s="117"/>
-      <c r="R249" s="120">
+      <c r="R249" s="20">
         <v>1766.24</v>
       </c>
       <c r="S249" s="96"/>
@@ -49602,7 +49641,7 @@
       </c>
       <c r="P250" s="96"/>
       <c r="Q250" s="117"/>
-      <c r="R250" s="120">
+      <c r="R250" s="20">
         <v>8102.9149295775096</v>
       </c>
       <c r="S250" s="96"/>
@@ -49706,7 +49745,7 @@
       </c>
       <c r="P251" s="96"/>
       <c r="Q251" s="117"/>
-      <c r="R251" s="120">
+      <c r="R251" s="20">
         <v>2063.5353521120301</v>
       </c>
       <c r="S251" s="96"/>
@@ -49810,7 +49849,7 @@
       </c>
       <c r="P252" s="96"/>
       <c r="Q252" s="117"/>
-      <c r="R252" s="120">
+      <c r="R252" s="20">
         <v>655.37999999978604</v>
       </c>
       <c r="S252" s="96"/>
@@ -49914,8 +49953,8 @@
       </c>
       <c r="P253" s="96"/>
       <c r="Q253" s="117"/>
-      <c r="R253" s="120">
-        <v>32528.018732394001</v>
+      <c r="R253" s="20">
+        <v>354.84000000002561</v>
       </c>
       <c r="S253" s="96"/>
       <c r="T253" s="121">
@@ -49923,7 +49962,7 @@
       </c>
       <c r="U253" s="121">
         <f t="shared" si="37"/>
-        <v>32528.018732394001</v>
+        <v>354.84000000002561</v>
       </c>
       <c r="V253" s="121">
         <f t="shared" si="43"/>
@@ -50019,7 +50058,7 @@
       <c r="P254" s="96"/>
       <c r="Q254" s="117"/>
       <c r="R254" s="120">
-        <v>44404.901830985997</v>
+        <v>0</v>
       </c>
       <c r="S254" s="96"/>
       <c r="T254" s="121">
@@ -50027,7 +50066,7 @@
       </c>
       <c r="U254" s="121">
         <f t="shared" si="37"/>
-        <v>44404.901830985997</v>
+        <v>0</v>
       </c>
       <c r="V254" s="121">
         <f t="shared" si="43"/>
@@ -50330,8 +50369,8 @@
       </c>
       <c r="P257" s="96"/>
       <c r="Q257" s="117"/>
-      <c r="R257" s="120">
-        <v>870846.699999996</v>
+      <c r="R257" s="20">
+        <v>-30329.470000000056</v>
       </c>
       <c r="S257" s="96"/>
       <c r="T257" s="121">
@@ -50339,7 +50378,7 @@
       </c>
       <c r="U257" s="121">
         <f t="shared" si="37"/>
-        <v>870846.699999996</v>
+        <v>-30329.470000000056</v>
       </c>
       <c r="V257" s="121">
         <f t="shared" si="43"/>
@@ -51790,8 +51829,8 @@
       </c>
       <c r="P271" s="96"/>
       <c r="Q271" s="117"/>
-      <c r="R271" s="120">
-        <v>14160.3070422536</v>
+      <c r="R271" s="20">
+        <v>14157.309295774696</v>
       </c>
       <c r="S271" s="96"/>
       <c r="T271" s="121">
@@ -51799,7 +51838,7 @@
       </c>
       <c r="U271" s="121">
         <f t="shared" si="37"/>
-        <v>14160.3070422536</v>
+        <v>14157.309295774696</v>
       </c>
       <c r="V271" s="121">
         <f t="shared" si="43"/>
@@ -51998,8 +52037,8 @@
       </c>
       <c r="P273" s="96"/>
       <c r="Q273" s="117"/>
-      <c r="R273" s="120">
-        <v>151056.34</v>
+      <c r="R273" s="20">
+        <v>88.72</v>
       </c>
       <c r="S273" s="96"/>
       <c r="T273" s="121">
@@ -52007,7 +52046,7 @@
       </c>
       <c r="U273" s="121">
         <f t="shared" si="37"/>
-        <v>151056.34</v>
+        <v>88.72</v>
       </c>
       <c r="V273" s="121">
         <f t="shared" si="43"/>
@@ -52368,7 +52407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:38" ht="14.25" hidden="1">
+    <row r="277" spans="1:38" ht="14.25">
       <c r="A277" s="116" t="s">
         <v>309</v>
       </c>
@@ -52414,8 +52453,8 @@
       </c>
       <c r="P277" s="96"/>
       <c r="Q277" s="117"/>
-      <c r="R277" s="120">
-        <v>109330.970845071</v>
+      <c r="R277" s="20">
+        <v>172.66352112698951</v>
       </c>
       <c r="S277" s="96"/>
       <c r="T277" s="121">
@@ -52423,7 +52462,7 @@
       </c>
       <c r="U277" s="121">
         <f t="shared" si="37"/>
-        <v>109330.970845071</v>
+        <v>172.66352112698951</v>
       </c>
       <c r="V277" s="121">
         <f t="shared" si="43"/>
@@ -54018,11 +54057,536 @@
       <c r="AJ292" s="147"/>
       <c r="AK292" s="147"/>
     </row>
+    <row r="293" spans="1:37" ht="14.25" hidden="1">
+      <c r="A293" s="116" t="s">
+        <v>309</v>
+      </c>
+      <c r="B293" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C293" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D293" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="E293" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="F293" s="125" t="s">
+        <v>322</v>
+      </c>
+      <c r="G293" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="H293" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="I293" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="J293" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="K293" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="L293" s="126"/>
+      <c r="M293" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="N293" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="O293" s="127">
+        <v>0.13</v>
+      </c>
+      <c r="P293" s="96"/>
+      <c r="Q293" s="117"/>
+      <c r="R293" s="120">
+        <v>20.72999999999638</v>
+      </c>
+      <c r="S293" s="96"/>
+      <c r="T293" s="121">
+        <v>0</v>
+      </c>
+      <c r="U293" s="121">
+        <f t="shared" ref="U293:U294" si="49">R293+S293-T293</f>
+        <v>20.72999999999638</v>
+      </c>
+      <c r="V293" s="121">
+        <f t="shared" ref="V293:V294" si="50">IF(N293="折扣",T293*O293,IF(N293="返现",T293,T293*(1+AE293)/(1+O293+AE293)))</f>
+        <v>0</v>
+      </c>
+      <c r="W293" s="94"/>
+      <c r="X293" s="22">
+        <f t="shared" ref="X293:X294" si="51">IF(V293-Z293&lt;0,0,IF(N293="返现",MAX(V293-Y293-Z293,0),MAX(V293-Z293,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y293" s="121">
+        <f t="shared" ref="Y293:Y294" si="52">IF(N293="返现",V293*O293,T293-V293)</f>
+        <v>0</v>
+      </c>
+      <c r="Z293" s="121">
+        <f t="shared" ref="Z293:Z294" si="53">T293</f>
+        <v>0</v>
+      </c>
+      <c r="AA293" s="122">
+        <v>0.05</v>
+      </c>
+      <c r="AB293" s="96"/>
+      <c r="AC293" s="96"/>
+      <c r="AD293" s="96"/>
+      <c r="AE293" s="122">
+        <v>0.42</v>
+      </c>
+      <c r="AF293" s="120">
+        <f t="shared" ref="AF293:AF294" si="54">AI293/(1+AE293)</f>
+        <v>0</v>
+      </c>
+      <c r="AG293" s="121"/>
+      <c r="AH293" s="121">
+        <f t="shared" ref="AH293:AH294" si="55">S293*AE293</f>
+        <v>0</v>
+      </c>
+      <c r="AI293" s="121">
+        <v>0</v>
+      </c>
+      <c r="AJ293" s="124">
+        <f t="shared" ref="AJ293:AJ294" si="56">AG293+AH293+AI293-T293</f>
+        <v>0</v>
+      </c>
+      <c r="AK293" s="124">
+        <f t="shared" ref="AK293:AK294" si="57">IF(N293="折扣",AI293*O293,IF(N293="返现",AI293/(1+AE293),AI293/(1+O293+AE293)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:37" ht="14.25" hidden="1">
+      <c r="A294" s="116" t="s">
+        <v>309</v>
+      </c>
+      <c r="B294" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C294" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D294" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E294" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="F294" s="125" t="s">
+        <v>324</v>
+      </c>
+      <c r="G294" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="H294" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="I294" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="J294" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="K294" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="L294" s="126"/>
+      <c r="M294" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="N294" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="O294" s="127">
+        <v>0.03</v>
+      </c>
+      <c r="P294" s="96"/>
+      <c r="Q294" s="117"/>
+      <c r="R294" s="120">
+        <v>22.61</v>
+      </c>
+      <c r="S294" s="96"/>
+      <c r="T294" s="121">
+        <v>0</v>
+      </c>
+      <c r="U294" s="121">
+        <f t="shared" si="49"/>
+        <v>22.61</v>
+      </c>
+      <c r="V294" s="121">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W294" s="94"/>
+      <c r="X294" s="22">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y294" s="121">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Z294" s="121">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA294" s="122">
+        <v>0.05</v>
+      </c>
+      <c r="AB294" s="96"/>
+      <c r="AC294" s="96"/>
+      <c r="AD294" s="96"/>
+      <c r="AE294" s="122">
+        <v>0.42</v>
+      </c>
+      <c r="AF294" s="120">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AG294" s="121"/>
+      <c r="AH294" s="121">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AI294" s="121">
+        <v>0</v>
+      </c>
+      <c r="AJ294" s="124">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AK294" s="124">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:37" ht="14.25" hidden="1">
+      <c r="A295" s="116" t="s">
+        <v>309</v>
+      </c>
+      <c r="B295" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C295" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D295" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E295" s="125" t="s">
+        <v>327</v>
+      </c>
+      <c r="F295" s="125" t="s">
+        <v>326</v>
+      </c>
+      <c r="G295" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="H295" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="I295" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="J295" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="K295" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="L295" s="126"/>
+      <c r="M295" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="N295" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="O295" s="127">
+        <v>0.13</v>
+      </c>
+      <c r="P295" s="96"/>
+      <c r="Q295" s="117"/>
+      <c r="R295" s="120">
+        <v>29.53</v>
+      </c>
+      <c r="S295" s="96"/>
+      <c r="T295" s="121">
+        <v>0</v>
+      </c>
+      <c r="U295" s="121">
+        <f t="shared" ref="U295:U296" si="58">R295+S295-T295</f>
+        <v>29.53</v>
+      </c>
+      <c r="V295" s="121">
+        <f t="shared" ref="V295:V296" si="59">IF(N295="折扣",T295*O295,IF(N295="返现",T295,T295*(1+AE295)/(1+O295+AE295)))</f>
+        <v>0</v>
+      </c>
+      <c r="W295" s="94"/>
+      <c r="X295" s="22">
+        <f t="shared" ref="X295:X296" si="60">IF(V295-Z295&lt;0,0,IF(N295="返现",MAX(V295-Y295-Z295,0),MAX(V295-Z295,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y295" s="121">
+        <f t="shared" ref="Y295:Y296" si="61">IF(N295="返现",V295*O295,T295-V295)</f>
+        <v>0</v>
+      </c>
+      <c r="Z295" s="121">
+        <f t="shared" ref="Z295:Z296" si="62">T295</f>
+        <v>0</v>
+      </c>
+      <c r="AA295" s="122">
+        <v>0.05</v>
+      </c>
+      <c r="AB295" s="96"/>
+      <c r="AC295" s="96"/>
+      <c r="AD295" s="96"/>
+      <c r="AE295" s="122">
+        <v>0.42</v>
+      </c>
+      <c r="AF295" s="120">
+        <f t="shared" ref="AF295:AF296" si="63">AI295/(1+AE295)</f>
+        <v>0</v>
+      </c>
+      <c r="AG295" s="121"/>
+      <c r="AH295" s="121">
+        <f t="shared" ref="AH295:AH296" si="64">S295*AE295</f>
+        <v>0</v>
+      </c>
+      <c r="AI295" s="121">
+        <v>0</v>
+      </c>
+      <c r="AJ295" s="124">
+        <f t="shared" ref="AJ295:AJ296" si="65">AG295+AH295+AI295-T295</f>
+        <v>0</v>
+      </c>
+      <c r="AK295" s="124">
+        <f t="shared" ref="AK295:AK296" si="66">IF(N295="折扣",AI295*O295,IF(N295="返现",AI295/(1+AE295),AI295/(1+O295+AE295)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:37" ht="14.25" hidden="1">
+      <c r="A296" s="116" t="s">
+        <v>309</v>
+      </c>
+      <c r="B296" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C296" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D296" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E296" s="125" t="s">
+        <v>329</v>
+      </c>
+      <c r="F296" s="125" t="s">
+        <v>328</v>
+      </c>
+      <c r="G296" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="H296" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="I296" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="J296" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="K296" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="L296" s="126"/>
+      <c r="M296" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="N296" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="O296" s="127">
+        <v>0.21</v>
+      </c>
+      <c r="P296" s="96"/>
+      <c r="Q296" s="117"/>
+      <c r="R296" s="20">
+        <v>1.9061971830988114</v>
+      </c>
+      <c r="S296" s="96"/>
+      <c r="T296" s="121">
+        <v>0</v>
+      </c>
+      <c r="U296" s="121">
+        <f t="shared" si="58"/>
+        <v>1.9061971830988114</v>
+      </c>
+      <c r="V296" s="121">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="W296" s="94"/>
+      <c r="X296" s="22">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Y296" s="121">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Z296" s="121">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AA296" s="122">
+        <v>0.05</v>
+      </c>
+      <c r="AB296" s="96"/>
+      <c r="AC296" s="96"/>
+      <c r="AD296" s="96"/>
+      <c r="AE296" s="122">
+        <v>0.42</v>
+      </c>
+      <c r="AF296" s="120">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AG296" s="121"/>
+      <c r="AH296" s="121">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AI296" s="121">
+        <v>0</v>
+      </c>
+      <c r="AJ296" s="124">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AK296" s="124">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:37" ht="14.25" hidden="1">
+      <c r="A297" s="116" t="s">
+        <v>309</v>
+      </c>
+      <c r="B297" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C297" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D297" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E297" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="F297" s="125" t="s">
+        <v>330</v>
+      </c>
+      <c r="G297" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="H297" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="I297" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="J297" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="K297" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="L297" s="126"/>
+      <c r="M297" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="N297" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="O297" s="127">
+        <v>0.03</v>
+      </c>
+      <c r="P297" s="96"/>
+      <c r="Q297" s="117"/>
+      <c r="R297" s="20">
+        <v>62.533943663001999</v>
+      </c>
+      <c r="S297" s="96"/>
+      <c r="T297" s="121">
+        <v>0</v>
+      </c>
+      <c r="U297" s="121">
+        <f t="shared" ref="U297" si="67">R297+S297-T297</f>
+        <v>62.533943663001999</v>
+      </c>
+      <c r="V297" s="121">
+        <f t="shared" ref="V297" si="68">IF(N297="折扣",T297*O297,IF(N297="返现",T297,T297*(1+AE297)/(1+O297+AE297)))</f>
+        <v>0</v>
+      </c>
+      <c r="W297" s="94"/>
+      <c r="X297" s="22">
+        <f t="shared" ref="X297" si="69">IF(V297-Z297&lt;0,0,IF(N297="返现",MAX(V297-Y297-Z297,0),MAX(V297-Z297,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y297" s="121">
+        <f t="shared" ref="Y297" si="70">IF(N297="返现",V297*O297,T297-V297)</f>
+        <v>0</v>
+      </c>
+      <c r="Z297" s="121">
+        <f t="shared" ref="Z297" si="71">T297</f>
+        <v>0</v>
+      </c>
+      <c r="AA297" s="122">
+        <v>0.05</v>
+      </c>
+      <c r="AB297" s="96"/>
+      <c r="AC297" s="96"/>
+      <c r="AD297" s="96"/>
+      <c r="AE297" s="122">
+        <v>0.42</v>
+      </c>
+      <c r="AF297" s="120">
+        <f t="shared" ref="AF297" si="72">AI297/(1+AE297)</f>
+        <v>0</v>
+      </c>
+      <c r="AG297" s="121"/>
+      <c r="AH297" s="121">
+        <f t="shared" ref="AH297" si="73">S297*AE297</f>
+        <v>0</v>
+      </c>
+      <c r="AI297" s="121">
+        <v>0</v>
+      </c>
+      <c r="AJ297" s="124">
+        <f t="shared" ref="AJ297" si="74">AG297+AH297+AI297-T297</f>
+        <v>0</v>
+      </c>
+      <c r="AK297" s="124">
+        <f t="shared" ref="AK297" si="75">IF(N297="折扣",AI297*O297,IF(N297="返现",AI297/(1+AE297),AI297/(1+O297+AE297)))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL292">
+  <autoFilter ref="A1:AL297">
     <filterColumn colId="5">
       <filters>
-        <filter val="上海百孚思文化传媒有限公司"/>
+        <filter val="北京多彩互动广告有限公司-武汉清风得意网络科技有限公司"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="广州米壳信息科技有限公司"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/2020年1-5月金源消耗表 （财务运营共享版）.xlsx
+++ b/2020年1-5月金源消耗表 （财务运营共享版）.xlsx
@@ -27247,15 +27247,16 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S304" sqref="S304"/>
+      <selection pane="bottomLeft" activeCell="Z309" sqref="Z309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
@@ -27484,7 +27485,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="14.25" hidden="1">
+    <row r="3" spans="1:38" ht="14.25">
       <c r="A3" s="56">
         <v>43831</v>
       </c>
@@ -28079,7 +28080,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="14.25" hidden="1">
+    <row r="10" spans="1:38" ht="14.25">
       <c r="A10" s="56">
         <v>43831</v>
       </c>
@@ -31436,7 +31437,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="14.25">
+    <row r="50" spans="1:31" ht="14.25" hidden="1">
       <c r="A50" s="56">
         <v>43831</v>
       </c>
@@ -33185,7 +33186,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="14.25" hidden="1">
+    <row r="71" spans="1:31" ht="14.25">
       <c r="A71" s="56">
         <v>43862</v>
       </c>
@@ -33271,7 +33272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="14.25" hidden="1">
+    <row r="72" spans="1:31" ht="14.25">
       <c r="A72" s="56">
         <v>43862</v>
       </c>
@@ -33336,10 +33337,10 @@
       <c r="W72" s="20"/>
       <c r="X72" s="22">
         <f t="shared" si="9"/>
-        <v>361761.24</v>
+        <v>362020.34</v>
       </c>
       <c r="Y72" s="20">
-        <v>8895.76</v>
+        <v>8636.66</v>
       </c>
       <c r="Z72" s="20">
         <v>74131</v>
@@ -36890,7 +36891,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="14.25">
+    <row r="115" spans="1:31" ht="14.25" hidden="1">
       <c r="A115" s="56">
         <v>43862</v>
       </c>
@@ -38081,7 +38082,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="14.25" hidden="1">
+    <row r="129" spans="1:31" ht="14.25">
       <c r="A129" s="65">
         <v>43891</v>
       </c>
@@ -38343,7 +38344,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="14.25" hidden="1">
+    <row r="132" spans="1:31" ht="14.25">
       <c r="A132" s="65">
         <v>43891</v>
       </c>
@@ -38408,10 +38409,10 @@
       <c r="W132" s="23"/>
       <c r="X132" s="22">
         <f t="shared" si="18"/>
-        <v>235144.76</v>
+        <v>235313.16999999998</v>
       </c>
       <c r="Y132" s="58">
-        <v>5782.24</v>
+        <v>5613.83</v>
       </c>
       <c r="Z132" s="23">
         <v>48185</v>
@@ -41702,7 +41703,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:31" ht="14.25">
+    <row r="172" spans="1:31" ht="14.25" hidden="1">
       <c r="A172" s="65">
         <v>43891</v>
       </c>
@@ -46182,7 +46183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:38" ht="14.25">
+    <row r="217" spans="1:38" ht="14.25" hidden="1">
       <c r="A217" s="84">
         <v>43922</v>
       </c>
@@ -46703,7 +46704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:38" ht="14.25" hidden="1">
+    <row r="222" spans="1:38" ht="14.25">
       <c r="A222" s="84">
         <v>43922</v>
       </c>
@@ -52407,7 +52408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:38" ht="14.25">
+    <row r="277" spans="1:38" ht="14.25" hidden="1">
       <c r="A277" s="116" t="s">
         <v>309</v>
       </c>
@@ -54581,12 +54582,13 @@
   <autoFilter ref="A1:AL297">
     <filterColumn colId="5">
       <filters>
-        <filter val="北京多彩互动广告有限公司-武汉清风得意网络科技有限公司"/>
+        <filter val="北京迪爱慈广告有限公司"/>
+        <filter val="北京迪爱慈广告有限公司-2002"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="10">
+    <filterColumn colId="7">
       <filters>
-        <filter val="广州米壳信息科技有限公司"/>
+        <filter val="北京百度网讯科技有限公司-2020"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/2020年1-5月金源消耗表 （财务运营共享版）.xlsx
+++ b/2020年1-5月金源消耗表 （财务运营共享版）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="792"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23250" windowHeight="12570" tabRatio="792"/>
   </bookViews>
   <sheets>
     <sheet name="客户表" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="332">
   <si>
     <t>周期</t>
   </si>
@@ -27240,50 +27240,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:AL297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z309" sqref="Z309"/>
+      <selection pane="bottomLeft" activeCell="J309" sqref="J309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.875" customWidth="1"/>
+    <col min="11" max="11" width="25.90625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="6.875" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="6.875" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.375" customWidth="1"/>
-    <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.90625" customWidth="1"/>
+    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="6.90625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="14.08984375" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="15" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.08984375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="13" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.6328125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="13.36328125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.08984375" customWidth="1"/>
+    <col min="33" max="34" width="11.453125" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28.5">
+    <row r="1" spans="1:38" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27399,7 +27400,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="14.25" hidden="1">
+    <row r="2" spans="1:38">
       <c r="A2" s="56">
         <v>43831</v>
       </c>
@@ -27476,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
@@ -27485,7 +27486,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="14.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="56">
         <v>43831</v>
       </c>
@@ -27559,7 +27560,7 @@
         <v>353168.49</v>
       </c>
       <c r="AA3" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
@@ -27568,7 +27569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="14.25" hidden="1">
+    <row r="4" spans="1:38">
       <c r="A4" s="56">
         <v>43831</v>
       </c>
@@ -27647,7 +27648,7 @@
         <v>50788.680000000903</v>
       </c>
       <c r="AA4" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
@@ -27656,7 +27657,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="14.25" hidden="1">
+    <row r="5" spans="1:38">
       <c r="A5" s="56">
         <v>43831</v>
       </c>
@@ -27731,7 +27732,7 @@
         <v>14273.92</v>
       </c>
       <c r="AA5" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
@@ -27740,7 +27741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="14.25" hidden="1">
+    <row r="6" spans="1:38">
       <c r="A6" s="56">
         <v>43831</v>
       </c>
@@ -27815,7 +27816,7 @@
         <v>90187.47</v>
       </c>
       <c r="AA6" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
@@ -27824,7 +27825,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="14.25" hidden="1">
+    <row r="7" spans="1:38">
       <c r="A7" s="56">
         <v>43831</v>
       </c>
@@ -27899,7 +27900,7 @@
         <v>7362.34</v>
       </c>
       <c r="AA7" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
@@ -27908,7 +27909,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14.25" hidden="1">
+    <row r="8" spans="1:38">
       <c r="A8" s="56">
         <v>43831</v>
       </c>
@@ -27983,7 +27984,7 @@
         <v>99246.07</v>
       </c>
       <c r="AA8" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
@@ -27992,7 +27993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="14.25" hidden="1">
+    <row r="9" spans="1:38">
       <c r="A9" s="56">
         <v>43831</v>
       </c>
@@ -28071,7 +28072,7 @@
         <v>797008.19</v>
       </c>
       <c r="AA9" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
@@ -28080,7 +28081,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="14.25">
+    <row r="10" spans="1:38">
       <c r="A10" s="56">
         <v>43831</v>
       </c>
@@ -28153,7 +28154,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
@@ -28162,7 +28163,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="14.25" hidden="1">
+    <row r="11" spans="1:38">
       <c r="A11" s="56">
         <v>43831</v>
       </c>
@@ -28237,7 +28238,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
@@ -28246,7 +28247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="14.25" hidden="1">
+    <row r="12" spans="1:38">
       <c r="A12" s="56">
         <v>43831</v>
       </c>
@@ -28320,7 +28321,7 @@
         <v>97629.9</v>
       </c>
       <c r="AA12" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
@@ -28329,7 +28330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.25" hidden="1">
+    <row r="13" spans="1:38">
       <c r="A13" s="56">
         <v>43831</v>
       </c>
@@ -28404,7 +28405,7 @@
         <v>13602.3</v>
       </c>
       <c r="AA13" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
@@ -28413,7 +28414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="14.25" hidden="1">
+    <row r="14" spans="1:38">
       <c r="A14" s="56">
         <v>43831</v>
       </c>
@@ -28488,7 +28489,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
@@ -28497,7 +28498,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14.25" hidden="1">
+    <row r="15" spans="1:38">
       <c r="A15" s="56">
         <v>43831</v>
       </c>
@@ -28572,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
@@ -28581,7 +28582,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="14.25" hidden="1">
+    <row r="16" spans="1:38">
       <c r="A16" s="56">
         <v>43831</v>
       </c>
@@ -28656,7 +28657,7 @@
         <v>25.3</v>
       </c>
       <c r="AA16" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
@@ -28665,7 +28666,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="14.25" hidden="1">
+    <row r="17" spans="1:31">
       <c r="A17" s="56">
         <v>43831</v>
       </c>
@@ -28740,7 +28741,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
@@ -28749,7 +28750,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="14.25" hidden="1">
+    <row r="18" spans="1:31">
       <c r="A18" s="56">
         <v>43831</v>
       </c>
@@ -28824,7 +28825,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
@@ -28833,7 +28834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="14.25" hidden="1">
+    <row r="19" spans="1:31">
       <c r="A19" s="56">
         <v>43831</v>
       </c>
@@ -28908,7 +28909,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
@@ -28917,7 +28918,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.25" hidden="1">
+    <row r="20" spans="1:31">
       <c r="A20" s="56">
         <v>43831</v>
       </c>
@@ -28992,7 +28993,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
@@ -29001,7 +29002,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="14.25" hidden="1">
+    <row r="21" spans="1:31">
       <c r="A21" s="56">
         <v>43831</v>
       </c>
@@ -29076,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
@@ -29085,7 +29086,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.25" hidden="1">
+    <row r="22" spans="1:31">
       <c r="A22" s="56">
         <v>43831</v>
       </c>
@@ -29160,7 +29161,7 @@
         <v>3591.69</v>
       </c>
       <c r="AA22" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
@@ -29169,7 +29170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="14.25" hidden="1">
+    <row r="23" spans="1:31">
       <c r="A23" s="56">
         <v>43831</v>
       </c>
@@ -29244,7 +29245,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
@@ -29253,7 +29254,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.25" hidden="1">
+    <row r="24" spans="1:31">
       <c r="A24" s="56">
         <v>43831</v>
       </c>
@@ -29328,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
@@ -29337,7 +29338,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="14.25" hidden="1">
+    <row r="25" spans="1:31">
       <c r="A25" s="56">
         <v>43831</v>
       </c>
@@ -29412,7 +29413,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
@@ -29421,7 +29422,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.25" hidden="1">
+    <row r="26" spans="1:31">
       <c r="A26" s="56">
         <v>43831</v>
       </c>
@@ -29496,7 +29497,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
@@ -29505,7 +29506,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="14.25" hidden="1">
+    <row r="27" spans="1:31">
       <c r="A27" s="56">
         <v>43831</v>
       </c>
@@ -29580,7 +29581,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
@@ -29589,7 +29590,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.25" hidden="1">
+    <row r="28" spans="1:31">
       <c r="A28" s="56">
         <v>43831</v>
       </c>
@@ -29664,7 +29665,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
@@ -29673,7 +29674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="14.25" hidden="1">
+    <row r="29" spans="1:31">
       <c r="A29" s="56">
         <v>43831</v>
       </c>
@@ -29748,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
@@ -29757,7 +29758,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.25" hidden="1">
+    <row r="30" spans="1:31">
       <c r="A30" s="56">
         <v>43831</v>
       </c>
@@ -29832,7 +29833,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
@@ -29841,7 +29842,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="14.25" hidden="1">
+    <row r="31" spans="1:31">
       <c r="A31" s="56">
         <v>43831</v>
       </c>
@@ -29916,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
@@ -29925,7 +29926,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.25" hidden="1">
+    <row r="32" spans="1:31">
       <c r="A32" s="56">
         <v>43831</v>
       </c>
@@ -30000,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
@@ -30009,7 +30010,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="14.25" hidden="1">
+    <row r="33" spans="1:31">
       <c r="A33" s="56">
         <v>43831</v>
       </c>
@@ -30084,7 +30085,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
@@ -30093,7 +30094,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="14.25" hidden="1">
+    <row r="34" spans="1:31">
       <c r="A34" s="56">
         <v>43831</v>
       </c>
@@ -30168,7 +30169,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
@@ -30177,7 +30178,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="14.25" hidden="1">
+    <row r="35" spans="1:31">
       <c r="A35" s="56">
         <v>43831</v>
       </c>
@@ -30252,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
@@ -30261,7 +30262,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="14.25" hidden="1">
+    <row r="36" spans="1:31">
       <c r="A36" s="56">
         <v>43831</v>
       </c>
@@ -30336,7 +30337,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
@@ -30345,7 +30346,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="14.25" hidden="1">
+    <row r="37" spans="1:31">
       <c r="A37" s="56">
         <v>43831</v>
       </c>
@@ -30420,7 +30421,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
@@ -30429,7 +30430,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="14.25" hidden="1">
+    <row r="38" spans="1:31">
       <c r="A38" s="56">
         <v>43831</v>
       </c>
@@ -30504,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
@@ -30513,7 +30514,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="14.25" hidden="1">
+    <row r="39" spans="1:31">
       <c r="A39" s="56">
         <v>43831</v>
       </c>
@@ -30588,7 +30589,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10"/>
@@ -30597,7 +30598,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="14.25" hidden="1">
+    <row r="40" spans="1:31">
       <c r="A40" s="56">
         <v>43831</v>
       </c>
@@ -30672,7 +30673,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
@@ -30681,7 +30682,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="14.25" hidden="1">
+    <row r="41" spans="1:31">
       <c r="A41" s="56">
         <v>43831</v>
       </c>
@@ -30756,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB41" s="10"/>
       <c r="AC41" s="10"/>
@@ -30765,7 +30766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="14.25" hidden="1">
+    <row r="42" spans="1:31">
       <c r="A42" s="56">
         <v>43831</v>
       </c>
@@ -30840,7 +30841,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB42" s="10"/>
       <c r="AC42" s="10"/>
@@ -30849,7 +30850,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="14.25" hidden="1">
+    <row r="43" spans="1:31">
       <c r="A43" s="56">
         <v>43831</v>
       </c>
@@ -30924,7 +30925,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB43" s="10"/>
       <c r="AC43" s="10"/>
@@ -30933,7 +30934,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="14.25" hidden="1">
+    <row r="44" spans="1:31">
       <c r="A44" s="56">
         <v>43831</v>
       </c>
@@ -31008,7 +31009,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
@@ -31017,7 +31018,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="14.25" hidden="1">
+    <row r="45" spans="1:31">
       <c r="A45" s="56">
         <v>43831</v>
       </c>
@@ -31092,7 +31093,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB45" s="10"/>
       <c r="AC45" s="10"/>
@@ -31101,7 +31102,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="14.25" hidden="1">
+    <row r="46" spans="1:31">
       <c r="A46" s="56">
         <v>43831</v>
       </c>
@@ -31176,7 +31177,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB46" s="10"/>
       <c r="AC46" s="10"/>
@@ -31185,7 +31186,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="14.25" hidden="1">
+    <row r="47" spans="1:31">
       <c r="A47" s="56">
         <v>43831</v>
       </c>
@@ -31260,7 +31261,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB47" s="10"/>
       <c r="AC47" s="10"/>
@@ -31269,7 +31270,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="14.25" hidden="1">
+    <row r="48" spans="1:31">
       <c r="A48" s="56">
         <v>43831</v>
       </c>
@@ -31344,7 +31345,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
@@ -31353,7 +31354,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="14.25" hidden="1">
+    <row r="49" spans="1:31">
       <c r="A49" s="56">
         <v>43831</v>
       </c>
@@ -31428,7 +31429,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB49" s="10"/>
       <c r="AC49" s="10"/>
@@ -31437,7 +31438,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="14.25" hidden="1">
+    <row r="50" spans="1:31">
       <c r="A50" s="56">
         <v>43831</v>
       </c>
@@ -31512,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
@@ -31521,7 +31522,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="14.25" hidden="1">
+    <row r="51" spans="1:31">
       <c r="A51" s="56">
         <v>43831</v>
       </c>
@@ -31596,7 +31597,7 @@
         <v>0</v>
       </c>
       <c r="AA51" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
@@ -31605,7 +31606,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="14.25" hidden="1">
+    <row r="52" spans="1:31">
       <c r="A52" s="56">
         <v>43831</v>
       </c>
@@ -31680,7 +31681,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
@@ -31689,7 +31690,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="14.25" hidden="1">
+    <row r="53" spans="1:31">
       <c r="A53" s="56">
         <v>43831</v>
       </c>
@@ -31764,7 +31765,7 @@
         <v>12518.57</v>
       </c>
       <c r="AA53" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
@@ -31773,7 +31774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="14.25" hidden="1">
+    <row r="54" spans="1:31">
       <c r="A54" s="56">
         <v>43831</v>
       </c>
@@ -31848,7 +31849,7 @@
         <v>722.19</v>
       </c>
       <c r="AA54" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
@@ -31857,7 +31858,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="14.25" hidden="1">
+    <row r="55" spans="1:31">
       <c r="A55" s="56">
         <v>43831</v>
       </c>
@@ -31932,7 +31933,7 @@
         <v>0</v>
       </c>
       <c r="AA55" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB55" s="10"/>
       <c r="AC55" s="10"/>
@@ -31941,7 +31942,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="14.25" hidden="1">
+    <row r="56" spans="1:31">
       <c r="A56" s="56">
         <v>43831</v>
       </c>
@@ -32015,8 +32016,8 @@
       <c r="Z56" s="20">
         <v>256760</v>
       </c>
-      <c r="AA56" s="14">
-        <v>0.05</v>
+      <c r="AA56" s="10">
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
@@ -32025,7 +32026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="14.25" hidden="1">
+    <row r="57" spans="1:31">
       <c r="A57" s="56">
         <v>43831</v>
       </c>
@@ -32102,8 +32103,8 @@
       <c r="Z57" s="20">
         <v>4881660</v>
       </c>
-      <c r="AA57" s="14">
-        <v>0.05</v>
+      <c r="AA57" s="10">
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -32112,7 +32113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="14.25" hidden="1">
+    <row r="58" spans="1:31">
       <c r="A58" s="56">
         <v>43831</v>
       </c>
@@ -32197,7 +32198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="14.25" hidden="1">
+    <row r="59" spans="1:31">
       <c r="A59" s="56">
         <v>43831</v>
       </c>
@@ -32281,7 +32282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="14.25" hidden="1">
+    <row r="60" spans="1:31">
       <c r="A60" s="56">
         <v>43831</v>
       </c>
@@ -32368,7 +32369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="14.25" hidden="1">
+    <row r="61" spans="1:31">
       <c r="A61" s="56">
         <v>43831</v>
       </c>
@@ -32452,7 +32453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="14.25" hidden="1">
+    <row r="62" spans="1:31">
       <c r="A62" s="56">
         <v>43831</v>
       </c>
@@ -32536,7 +32537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="14.25" hidden="1">
+    <row r="63" spans="1:31">
       <c r="A63" s="56">
         <v>43831</v>
       </c>
@@ -32620,7 +32621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="14.25" hidden="1">
+    <row r="64" spans="1:31">
       <c r="A64" s="56">
         <v>43831</v>
       </c>
@@ -32698,7 +32699,7 @@
       </c>
       <c r="AE64" s="6"/>
     </row>
-    <row r="65" spans="1:31" ht="14.25" hidden="1">
+    <row r="65" spans="1:31">
       <c r="A65" s="56">
         <v>43831</v>
       </c>
@@ -32778,7 +32779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="14.25" hidden="1">
+    <row r="66" spans="1:31">
       <c r="A66" s="56">
         <v>43831</v>
       </c>
@@ -32858,7 +32859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="14.25" hidden="1">
+    <row r="67" spans="1:31">
       <c r="A67" s="56">
         <v>43831</v>
       </c>
@@ -32940,7 +32941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="14.25" hidden="1">
+    <row r="68" spans="1:31">
       <c r="A68" s="56">
         <v>43831</v>
       </c>
@@ -33022,7 +33023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="14.25" hidden="1">
+    <row r="69" spans="1:31">
       <c r="A69" s="56">
         <v>43831</v>
       </c>
@@ -33104,7 +33105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="14.25" hidden="1">
+    <row r="70" spans="1:31">
       <c r="A70" s="56">
         <v>43831</v>
       </c>
@@ -33186,7 +33187,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="14.25">
+    <row r="71" spans="1:31">
       <c r="A71" s="56">
         <v>43862</v>
       </c>
@@ -33263,7 +33264,7 @@
         <v>0</v>
       </c>
       <c r="AA71" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB71" s="39"/>
       <c r="AC71" s="39"/>
@@ -33272,7 +33273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="14.25">
+    <row r="72" spans="1:31">
       <c r="A72" s="56">
         <v>43862</v>
       </c>
@@ -33346,7 +33347,7 @@
         <v>74131</v>
       </c>
       <c r="AA72" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB72" s="39"/>
       <c r="AC72" s="39"/>
@@ -33355,7 +33356,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="14.25" hidden="1">
+    <row r="73" spans="1:31">
       <c r="A73" s="56">
         <v>43862</v>
       </c>
@@ -33432,7 +33433,7 @@
         <v>74575.860000001005</v>
       </c>
       <c r="AA73" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB73" s="39"/>
       <c r="AC73" s="39"/>
@@ -33441,7 +33442,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="14.25" hidden="1">
+    <row r="74" spans="1:31">
       <c r="A74" s="56">
         <v>43862</v>
       </c>
@@ -33520,7 +33521,7 @@
         <v>771393.13999999897</v>
       </c>
       <c r="AA74" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB74" s="39"/>
       <c r="AC74" s="39"/>
@@ -33529,7 +33530,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="14.25" hidden="1">
+    <row r="75" spans="1:31">
       <c r="A75" s="56">
         <v>43862</v>
       </c>
@@ -33604,7 +33605,7 @@
         <v>0</v>
       </c>
       <c r="AA75" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB75" s="39"/>
       <c r="AC75" s="39"/>
@@ -33613,7 +33614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="14.25" hidden="1">
+    <row r="76" spans="1:31">
       <c r="A76" s="56">
         <v>43862</v>
       </c>
@@ -33688,7 +33689,7 @@
         <v>0</v>
       </c>
       <c r="AA76" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB76" s="39"/>
       <c r="AC76" s="39"/>
@@ -33697,7 +33698,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="14.25" hidden="1">
+    <row r="77" spans="1:31">
       <c r="A77" s="56">
         <v>43862</v>
       </c>
@@ -33772,7 +33773,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB77" s="39"/>
       <c r="AC77" s="39"/>
@@ -33781,7 +33782,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="14.25" hidden="1">
+    <row r="78" spans="1:31">
       <c r="A78" s="56">
         <v>43862</v>
       </c>
@@ -33856,7 +33857,7 @@
         <v>0</v>
       </c>
       <c r="AA78" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB78" s="39"/>
       <c r="AC78" s="39"/>
@@ -33865,7 +33866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="14.25" hidden="1">
+    <row r="79" spans="1:31">
       <c r="A79" s="56">
         <v>43862</v>
       </c>
@@ -33940,7 +33941,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB79" s="39"/>
       <c r="AC79" s="39"/>
@@ -33949,7 +33950,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="14.25" hidden="1">
+    <row r="80" spans="1:31">
       <c r="A80" s="56">
         <v>43862</v>
       </c>
@@ -34024,7 +34025,7 @@
         <v>0</v>
       </c>
       <c r="AA80" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB80" s="39"/>
       <c r="AC80" s="39"/>
@@ -34033,7 +34034,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="14.25" hidden="1">
+    <row r="81" spans="1:31">
       <c r="A81" s="56">
         <v>43862</v>
       </c>
@@ -34108,7 +34109,7 @@
         <v>73.150000000000006</v>
       </c>
       <c r="AA81" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB81" s="39"/>
       <c r="AC81" s="39"/>
@@ -34117,7 +34118,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="14.25" hidden="1">
+    <row r="82" spans="1:31">
       <c r="A82" s="56">
         <v>43862</v>
       </c>
@@ -34194,7 +34195,7 @@
         <v>0</v>
       </c>
       <c r="AA82" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB82" s="39"/>
       <c r="AC82" s="39"/>
@@ -34203,7 +34204,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="14.25" hidden="1">
+    <row r="83" spans="1:31">
       <c r="A83" s="56">
         <v>43862</v>
       </c>
@@ -34278,7 +34279,7 @@
         <v>0</v>
       </c>
       <c r="AA83" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB83" s="39"/>
       <c r="AC83" s="39"/>
@@ -34287,7 +34288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="14.25" hidden="1">
+    <row r="84" spans="1:31">
       <c r="A84" s="56">
         <v>43862</v>
       </c>
@@ -34362,7 +34363,7 @@
         <v>0</v>
       </c>
       <c r="AA84" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB84" s="39"/>
       <c r="AC84" s="39"/>
@@ -34371,7 +34372,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="14.25" hidden="1">
+    <row r="85" spans="1:31">
       <c r="A85" s="56">
         <v>43862</v>
       </c>
@@ -34446,7 +34447,7 @@
         <v>0</v>
       </c>
       <c r="AA85" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB85" s="39"/>
       <c r="AC85" s="39"/>
@@ -34455,7 +34456,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="14.25" hidden="1">
+    <row r="86" spans="1:31">
       <c r="A86" s="56">
         <v>43862</v>
       </c>
@@ -34530,7 +34531,7 @@
         <v>29355.1</v>
       </c>
       <c r="AA86" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB86" s="39"/>
       <c r="AC86" s="39"/>
@@ -34539,7 +34540,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="14.25" hidden="1">
+    <row r="87" spans="1:31">
       <c r="A87" s="56">
         <v>43862</v>
       </c>
@@ -34614,7 +34615,7 @@
         <v>0</v>
       </c>
       <c r="AA87" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB87" s="39"/>
       <c r="AC87" s="39"/>
@@ -34623,7 +34624,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="14.25" hidden="1">
+    <row r="88" spans="1:31">
       <c r="A88" s="56">
         <v>43862</v>
       </c>
@@ -34698,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="AA88" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB88" s="39"/>
       <c r="AC88" s="39"/>
@@ -34707,7 +34708,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="14.25" hidden="1">
+    <row r="89" spans="1:31">
       <c r="A89" s="56">
         <v>43862</v>
       </c>
@@ -34782,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="AA89" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB89" s="39"/>
       <c r="AC89" s="39"/>
@@ -34791,7 +34792,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="14.25" hidden="1">
+    <row r="90" spans="1:31">
       <c r="A90" s="56">
         <v>43862</v>
       </c>
@@ -34866,7 +34867,7 @@
         <v>0</v>
       </c>
       <c r="AA90" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB90" s="39"/>
       <c r="AC90" s="39"/>
@@ -34875,7 +34876,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="14.25" hidden="1">
+    <row r="91" spans="1:31">
       <c r="A91" s="56">
         <v>43862</v>
       </c>
@@ -34950,7 +34951,7 @@
         <v>0</v>
       </c>
       <c r="AA91" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB91" s="39"/>
       <c r="AC91" s="39"/>
@@ -34959,7 +34960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="14.25" hidden="1">
+    <row r="92" spans="1:31">
       <c r="A92" s="56">
         <v>43862</v>
       </c>
@@ -35034,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="AA92" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB92" s="39"/>
       <c r="AC92" s="39"/>
@@ -35043,7 +35044,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="14.25" hidden="1">
+    <row r="93" spans="1:31">
       <c r="A93" s="56">
         <v>43862</v>
       </c>
@@ -35118,7 +35119,7 @@
         <v>0</v>
       </c>
       <c r="AA93" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB93" s="39"/>
       <c r="AC93" s="39"/>
@@ -35127,7 +35128,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="14.25" hidden="1">
+    <row r="94" spans="1:31">
       <c r="A94" s="56">
         <v>43862</v>
       </c>
@@ -35202,7 +35203,7 @@
         <v>0</v>
       </c>
       <c r="AA94" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB94" s="39"/>
       <c r="AC94" s="39"/>
@@ -35211,7 +35212,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="14.25" hidden="1">
+    <row r="95" spans="1:31">
       <c r="A95" s="56">
         <v>43862</v>
       </c>
@@ -35286,7 +35287,7 @@
         <v>0</v>
       </c>
       <c r="AA95" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB95" s="39"/>
       <c r="AC95" s="39"/>
@@ -35295,7 +35296,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="14.25" hidden="1">
+    <row r="96" spans="1:31">
       <c r="A96" s="56">
         <v>43862</v>
       </c>
@@ -35370,7 +35371,7 @@
         <v>0</v>
       </c>
       <c r="AA96" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB96" s="39"/>
       <c r="AC96" s="39"/>
@@ -35379,7 +35380,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="14.25" hidden="1">
+    <row r="97" spans="1:31">
       <c r="A97" s="56">
         <v>43862</v>
       </c>
@@ -35454,7 +35455,7 @@
         <v>0</v>
       </c>
       <c r="AA97" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB97" s="39"/>
       <c r="AC97" s="39"/>
@@ -35463,7 +35464,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="14.25" hidden="1">
+    <row r="98" spans="1:31">
       <c r="A98" s="56">
         <v>43862</v>
       </c>
@@ -35538,7 +35539,7 @@
         <v>0</v>
       </c>
       <c r="AA98" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB98" s="39"/>
       <c r="AC98" s="39"/>
@@ -35547,7 +35548,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="14.25" hidden="1">
+    <row r="99" spans="1:31">
       <c r="A99" s="56">
         <v>43862</v>
       </c>
@@ -35622,7 +35623,7 @@
         <v>0</v>
       </c>
       <c r="AA99" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB99" s="39"/>
       <c r="AC99" s="39"/>
@@ -35631,7 +35632,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="14.25" hidden="1">
+    <row r="100" spans="1:31">
       <c r="A100" s="56">
         <v>43862</v>
       </c>
@@ -35706,7 +35707,7 @@
         <v>0</v>
       </c>
       <c r="AA100" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB100" s="39"/>
       <c r="AC100" s="39"/>
@@ -35715,7 +35716,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="14.25" hidden="1">
+    <row r="101" spans="1:31">
       <c r="A101" s="56">
         <v>43862</v>
       </c>
@@ -35790,7 +35791,7 @@
         <v>0</v>
       </c>
       <c r="AA101" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB101" s="39"/>
       <c r="AC101" s="39"/>
@@ -35799,7 +35800,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="14.25" hidden="1">
+    <row r="102" spans="1:31">
       <c r="A102" s="56">
         <v>43862</v>
       </c>
@@ -35874,7 +35875,7 @@
         <v>0</v>
       </c>
       <c r="AA102" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB102" s="39"/>
       <c r="AC102" s="39"/>
@@ -35883,7 +35884,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="14.25" hidden="1">
+    <row r="103" spans="1:31">
       <c r="A103" s="56">
         <v>43862</v>
       </c>
@@ -35958,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="AA103" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB103" s="39"/>
       <c r="AC103" s="39"/>
@@ -35967,7 +35968,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="14.25" hidden="1">
+    <row r="104" spans="1:31">
       <c r="A104" s="56">
         <v>43862</v>
       </c>
@@ -36042,7 +36043,7 @@
         <v>0</v>
       </c>
       <c r="AA104" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB104" s="39"/>
       <c r="AC104" s="39"/>
@@ -36051,7 +36052,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="14.25" hidden="1">
+    <row r="105" spans="1:31">
       <c r="A105" s="56">
         <v>43862</v>
       </c>
@@ -36126,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="AA105" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB105" s="39"/>
       <c r="AC105" s="39"/>
@@ -36135,7 +36136,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="14.25" hidden="1">
+    <row r="106" spans="1:31">
       <c r="A106" s="56">
         <v>43862</v>
       </c>
@@ -36210,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="AA106" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB106" s="39"/>
       <c r="AC106" s="39"/>
@@ -36219,7 +36220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="14.25" hidden="1">
+    <row r="107" spans="1:31">
       <c r="A107" s="56">
         <v>43862</v>
       </c>
@@ -36294,7 +36295,7 @@
         <v>0</v>
       </c>
       <c r="AA107" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB107" s="39"/>
       <c r="AC107" s="39"/>
@@ -36303,7 +36304,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="14.25" hidden="1">
+    <row r="108" spans="1:31">
       <c r="A108" s="56">
         <v>43862</v>
       </c>
@@ -36378,7 +36379,7 @@
         <v>0</v>
       </c>
       <c r="AA108" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB108" s="39"/>
       <c r="AC108" s="39"/>
@@ -36387,7 +36388,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="14.25" hidden="1">
+    <row r="109" spans="1:31">
       <c r="A109" s="56">
         <v>43862</v>
       </c>
@@ -36462,7 +36463,7 @@
         <v>0</v>
       </c>
       <c r="AA109" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB109" s="39"/>
       <c r="AC109" s="39"/>
@@ -36471,7 +36472,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="14.25" hidden="1">
+    <row r="110" spans="1:31">
       <c r="A110" s="56">
         <v>43862</v>
       </c>
@@ -36546,7 +36547,7 @@
         <v>0</v>
       </c>
       <c r="AA110" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB110" s="39"/>
       <c r="AC110" s="39"/>
@@ -36555,7 +36556,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="14.25" hidden="1">
+    <row r="111" spans="1:31">
       <c r="A111" s="56">
         <v>43862</v>
       </c>
@@ -36630,7 +36631,7 @@
         <v>0</v>
       </c>
       <c r="AA111" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB111" s="39"/>
       <c r="AC111" s="39"/>
@@ -36639,7 +36640,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="14.25" hidden="1">
+    <row r="112" spans="1:31">
       <c r="A112" s="56">
         <v>43862</v>
       </c>
@@ -36714,7 +36715,7 @@
         <v>0</v>
       </c>
       <c r="AA112" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB112" s="39"/>
       <c r="AC112" s="39"/>
@@ -36723,7 +36724,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="14.25" hidden="1">
+    <row r="113" spans="1:31">
       <c r="A113" s="56">
         <v>43862</v>
       </c>
@@ -36798,7 +36799,7 @@
         <v>0</v>
       </c>
       <c r="AA113" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB113" s="39"/>
       <c r="AC113" s="39"/>
@@ -36807,7 +36808,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="14.25" hidden="1">
+    <row r="114" spans="1:31">
       <c r="A114" s="56">
         <v>43862</v>
       </c>
@@ -36882,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="AA114" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB114" s="39"/>
       <c r="AC114" s="39"/>
@@ -36891,7 +36892,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="14.25" hidden="1">
+    <row r="115" spans="1:31">
       <c r="A115" s="56">
         <v>43862</v>
       </c>
@@ -36966,7 +36967,7 @@
         <v>0</v>
       </c>
       <c r="AA115" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB115" s="39"/>
       <c r="AC115" s="39"/>
@@ -36975,7 +36976,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="14.25" hidden="1">
+    <row r="116" spans="1:31">
       <c r="A116" s="56">
         <v>43862</v>
       </c>
@@ -37050,7 +37051,7 @@
         <v>0</v>
       </c>
       <c r="AA116" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB116" s="39"/>
       <c r="AC116" s="39"/>
@@ -37059,7 +37060,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="14.25" hidden="1">
+    <row r="117" spans="1:31">
       <c r="A117" s="56">
         <v>43862</v>
       </c>
@@ -37134,7 +37135,7 @@
         <v>0</v>
       </c>
       <c r="AA117" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB117" s="39"/>
       <c r="AC117" s="39"/>
@@ -37143,7 +37144,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="14.25" hidden="1">
+    <row r="118" spans="1:31">
       <c r="A118" s="56">
         <v>43862</v>
       </c>
@@ -37218,7 +37219,7 @@
         <v>7458.79</v>
       </c>
       <c r="AA118" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB118" s="39"/>
       <c r="AC118" s="39"/>
@@ -37227,7 +37228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="14.25" hidden="1">
+    <row r="119" spans="1:31">
       <c r="A119" s="56">
         <v>43862</v>
       </c>
@@ -37302,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="AA119" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB119" s="39"/>
       <c r="AC119" s="39"/>
@@ -37311,7 +37312,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="14.25" hidden="1">
+    <row r="120" spans="1:31">
       <c r="A120" s="56">
         <v>43862</v>
       </c>
@@ -37386,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="AA120" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB120" s="39"/>
       <c r="AC120" s="39"/>
@@ -37395,7 +37396,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="14.25" hidden="1">
+    <row r="121" spans="1:31">
       <c r="A121" s="56">
         <v>43862</v>
       </c>
@@ -37470,7 +37471,7 @@
         <v>20.87</v>
       </c>
       <c r="AA121" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB121" s="39"/>
       <c r="AC121" s="39"/>
@@ -37479,7 +37480,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="14.25" hidden="1">
+    <row r="122" spans="1:31">
       <c r="A122" s="56">
         <v>43862</v>
       </c>
@@ -37556,8 +37557,8 @@
       <c r="Z122" s="20">
         <v>4881660</v>
       </c>
-      <c r="AA122" s="42">
-        <v>0.05</v>
+      <c r="AA122" s="10">
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB122" s="41"/>
       <c r="AC122" s="43" t="s">
@@ -37568,7 +37569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="14.25" hidden="1">
+    <row r="123" spans="1:31">
       <c r="A123" s="56">
         <v>43862</v>
       </c>
@@ -37654,7 +37655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="14.25" hidden="1">
+    <row r="124" spans="1:31">
       <c r="A124" s="56">
         <v>43862</v>
       </c>
@@ -37740,7 +37741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="14.25" hidden="1">
+    <row r="125" spans="1:31">
       <c r="A125" s="56">
         <v>43862</v>
       </c>
@@ -37824,7 +37825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="14.25" hidden="1">
+    <row r="126" spans="1:31">
       <c r="A126" s="56">
         <v>43862</v>
       </c>
@@ -37910,7 +37911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="14.25" hidden="1">
+    <row r="127" spans="1:31">
       <c r="A127" s="56">
         <v>43862</v>
       </c>
@@ -37996,7 +37997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="14.25" hidden="1">
+    <row r="128" spans="1:31">
       <c r="A128" s="56">
         <v>43862</v>
       </c>
@@ -38082,7 +38083,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="14.25">
+    <row r="129" spans="1:31">
       <c r="A129" s="65">
         <v>43891</v>
       </c>
@@ -38159,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="AA129" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB129" s="23"/>
       <c r="AC129" s="41"/>
@@ -38168,7 +38169,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="14.25" hidden="1">
+    <row r="130" spans="1:31">
       <c r="A130" s="65">
         <v>43891</v>
       </c>
@@ -38249,7 +38250,7 @@
         <v>841702.19000000006</v>
       </c>
       <c r="AA130" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB130" s="23"/>
       <c r="AC130" s="41"/>
@@ -38258,7 +38259,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="14.25" hidden="1">
+    <row r="131" spans="1:31">
       <c r="A131" s="65">
         <v>43891</v>
       </c>
@@ -38335,7 +38336,7 @@
         <v>0</v>
       </c>
       <c r="AA131" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB131" s="23"/>
       <c r="AC131" s="41"/>
@@ -38344,7 +38345,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="14.25">
+    <row r="132" spans="1:31">
       <c r="A132" s="65">
         <v>43891</v>
       </c>
@@ -38418,7 +38419,7 @@
         <v>48185</v>
       </c>
       <c r="AA132" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB132" s="23"/>
       <c r="AC132" s="41"/>
@@ -38427,7 +38428,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="14.25" hidden="1">
+    <row r="133" spans="1:31">
       <c r="A133" s="65">
         <v>43891</v>
       </c>
@@ -38502,7 +38503,7 @@
         <v>0</v>
       </c>
       <c r="AA133" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB133" s="23"/>
       <c r="AC133" s="41"/>
@@ -38511,7 +38512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="14.25" hidden="1">
+    <row r="134" spans="1:31">
       <c r="A134" s="65">
         <v>43891</v>
       </c>
@@ -38586,7 +38587,7 @@
         <v>0</v>
       </c>
       <c r="AA134" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB134" s="23"/>
       <c r="AC134" s="41"/>
@@ -38595,7 +38596,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="14.25" hidden="1">
+    <row r="135" spans="1:31">
       <c r="A135" s="65">
         <v>43891</v>
       </c>
@@ -38670,7 +38671,7 @@
         <v>0</v>
       </c>
       <c r="AA135" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB135" s="23"/>
       <c r="AC135" s="41"/>
@@ -38679,7 +38680,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="14.25" hidden="1">
+    <row r="136" spans="1:31">
       <c r="A136" s="65">
         <v>43891</v>
       </c>
@@ -38754,7 +38755,7 @@
         <v>0</v>
       </c>
       <c r="AA136" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB136" s="23"/>
       <c r="AC136" s="41"/>
@@ -38763,7 +38764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="14.25" hidden="1">
+    <row r="137" spans="1:31">
       <c r="A137" s="65">
         <v>43891</v>
       </c>
@@ -38838,7 +38839,7 @@
         <v>0</v>
       </c>
       <c r="AA137" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB137" s="23"/>
       <c r="AC137" s="41"/>
@@ -38847,7 +38848,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="14.25" hidden="1">
+    <row r="138" spans="1:31">
       <c r="A138" s="65">
         <v>43891</v>
       </c>
@@ -38922,7 +38923,7 @@
         <v>0</v>
       </c>
       <c r="AA138" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB138" s="23"/>
       <c r="AC138" s="41"/>
@@ -38931,7 +38932,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="14.25" hidden="1">
+    <row r="139" spans="1:31">
       <c r="A139" s="65">
         <v>43891</v>
       </c>
@@ -39006,7 +39007,7 @@
         <v>84.239999999999981</v>
       </c>
       <c r="AA139" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB139" s="23"/>
       <c r="AC139" s="41"/>
@@ -39015,7 +39016,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="14.25" hidden="1">
+    <row r="140" spans="1:31">
       <c r="A140" s="65">
         <v>43891</v>
       </c>
@@ -39090,7 +39091,7 @@
         <v>0</v>
       </c>
       <c r="AA140" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB140" s="23"/>
       <c r="AC140" s="41"/>
@@ -39099,7 +39100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="14.25" hidden="1">
+    <row r="141" spans="1:31">
       <c r="A141" s="65">
         <v>43891</v>
       </c>
@@ -39174,7 +39175,7 @@
         <v>0</v>
       </c>
       <c r="AA141" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB141" s="23"/>
       <c r="AC141" s="41"/>
@@ -39183,7 +39184,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="14.25" hidden="1">
+    <row r="142" spans="1:31">
       <c r="A142" s="65">
         <v>43891</v>
       </c>
@@ -39258,7 +39259,7 @@
         <v>0</v>
       </c>
       <c r="AA142" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB142" s="23"/>
       <c r="AC142" s="41"/>
@@ -39267,7 +39268,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="14.25" hidden="1">
+    <row r="143" spans="1:31">
       <c r="A143" s="65">
         <v>43891</v>
       </c>
@@ -39342,7 +39343,7 @@
         <v>15586.380000000001</v>
       </c>
       <c r="AA143" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB143" s="23"/>
       <c r="AC143" s="41"/>
@@ -39351,7 +39352,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="14.25" hidden="1">
+    <row r="144" spans="1:31">
       <c r="A144" s="65">
         <v>43891</v>
       </c>
@@ -39426,7 +39427,7 @@
         <v>0</v>
       </c>
       <c r="AA144" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB144" s="23"/>
       <c r="AC144" s="41"/>
@@ -39435,7 +39436,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="14.25" hidden="1">
+    <row r="145" spans="1:31">
       <c r="A145" s="65">
         <v>43891</v>
       </c>
@@ -39510,7 +39511,7 @@
         <v>0</v>
       </c>
       <c r="AA145" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB145" s="23"/>
       <c r="AC145" s="41"/>
@@ -39519,7 +39520,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="14.25" hidden="1">
+    <row r="146" spans="1:31">
       <c r="A146" s="65">
         <v>43891</v>
       </c>
@@ -39594,7 +39595,7 @@
         <v>0</v>
       </c>
       <c r="AA146" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB146" s="23"/>
       <c r="AC146" s="41"/>
@@ -39603,7 +39604,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="14.25" hidden="1">
+    <row r="147" spans="1:31">
       <c r="A147" s="65">
         <v>43891</v>
       </c>
@@ -39678,7 +39679,7 @@
         <v>0</v>
       </c>
       <c r="AA147" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB147" s="23"/>
       <c r="AC147" s="41"/>
@@ -39687,7 +39688,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="14.25" hidden="1">
+    <row r="148" spans="1:31">
       <c r="A148" s="65">
         <v>43891</v>
       </c>
@@ -39762,7 +39763,7 @@
         <v>0</v>
       </c>
       <c r="AA148" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB148" s="23"/>
       <c r="AC148" s="41"/>
@@ -39771,7 +39772,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="14.25" hidden="1">
+    <row r="149" spans="1:31">
       <c r="A149" s="65">
         <v>43891</v>
       </c>
@@ -39846,7 +39847,7 @@
         <v>0</v>
       </c>
       <c r="AA149" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB149" s="23"/>
       <c r="AC149" s="41"/>
@@ -39855,7 +39856,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="14.25" hidden="1">
+    <row r="150" spans="1:31">
       <c r="A150" s="65">
         <v>43891</v>
       </c>
@@ -39930,7 +39931,7 @@
         <v>0</v>
       </c>
       <c r="AA150" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB150" s="23"/>
       <c r="AC150" s="41"/>
@@ -39939,7 +39940,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="14.25" hidden="1">
+    <row r="151" spans="1:31">
       <c r="A151" s="65">
         <v>43891</v>
       </c>
@@ -40014,7 +40015,7 @@
         <v>0</v>
       </c>
       <c r="AA151" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB151" s="23"/>
       <c r="AC151" s="41"/>
@@ -40023,7 +40024,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="14.25" hidden="1">
+    <row r="152" spans="1:31">
       <c r="A152" s="65">
         <v>43891</v>
       </c>
@@ -40098,7 +40099,7 @@
         <v>0</v>
       </c>
       <c r="AA152" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB152" s="23"/>
       <c r="AC152" s="41"/>
@@ -40107,7 +40108,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="14.25" hidden="1">
+    <row r="153" spans="1:31">
       <c r="A153" s="65">
         <v>43891</v>
       </c>
@@ -40182,7 +40183,7 @@
         <v>0</v>
       </c>
       <c r="AA153" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB153" s="23"/>
       <c r="AC153" s="41"/>
@@ -40191,7 +40192,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="14.25" hidden="1">
+    <row r="154" spans="1:31">
       <c r="A154" s="65">
         <v>43891</v>
       </c>
@@ -40266,7 +40267,7 @@
         <v>0</v>
       </c>
       <c r="AA154" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB154" s="23"/>
       <c r="AC154" s="41"/>
@@ -40275,7 +40276,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="14.25" hidden="1">
+    <row r="155" spans="1:31">
       <c r="A155" s="65">
         <v>43891</v>
       </c>
@@ -40350,7 +40351,7 @@
         <v>0</v>
       </c>
       <c r="AA155" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB155" s="23"/>
       <c r="AC155" s="41"/>
@@ -40359,7 +40360,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="14.25" hidden="1">
+    <row r="156" spans="1:31">
       <c r="A156" s="65">
         <v>43891</v>
       </c>
@@ -40434,7 +40435,7 @@
         <v>0</v>
       </c>
       <c r="AA156" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB156" s="23"/>
       <c r="AC156" s="41"/>
@@ -40443,7 +40444,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="14.25" hidden="1">
+    <row r="157" spans="1:31">
       <c r="A157" s="65">
         <v>43891</v>
       </c>
@@ -40518,7 +40519,7 @@
         <v>0</v>
       </c>
       <c r="AA157" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB157" s="23"/>
       <c r="AC157" s="41"/>
@@ -40527,7 +40528,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="14.25" hidden="1">
+    <row r="158" spans="1:31">
       <c r="A158" s="65">
         <v>43891</v>
       </c>
@@ -40602,7 +40603,7 @@
         <v>0</v>
       </c>
       <c r="AA158" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB158" s="23"/>
       <c r="AC158" s="41"/>
@@ -40611,7 +40612,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="159" spans="1:31" ht="14.25" hidden="1">
+    <row r="159" spans="1:31">
       <c r="A159" s="65">
         <v>43891</v>
       </c>
@@ -40686,7 +40687,7 @@
         <v>0</v>
       </c>
       <c r="AA159" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB159" s="23"/>
       <c r="AC159" s="41"/>
@@ -40695,7 +40696,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="14.25" hidden="1">
+    <row r="160" spans="1:31">
       <c r="A160" s="65">
         <v>43891</v>
       </c>
@@ -40770,7 +40771,7 @@
         <v>0</v>
       </c>
       <c r="AA160" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB160" s="23"/>
       <c r="AC160" s="41"/>
@@ -40779,7 +40780,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="14.25" hidden="1">
+    <row r="161" spans="1:31">
       <c r="A161" s="65">
         <v>43891</v>
       </c>
@@ -40854,7 +40855,7 @@
         <v>0</v>
       </c>
       <c r="AA161" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB161" s="23"/>
       <c r="AC161" s="41"/>
@@ -40863,7 +40864,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="14.25" hidden="1">
+    <row r="162" spans="1:31">
       <c r="A162" s="65">
         <v>43891</v>
       </c>
@@ -40938,7 +40939,7 @@
         <v>0</v>
       </c>
       <c r="AA162" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB162" s="23"/>
       <c r="AC162" s="41"/>
@@ -40947,7 +40948,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="14.25" hidden="1">
+    <row r="163" spans="1:31">
       <c r="A163" s="65">
         <v>43891</v>
       </c>
@@ -41022,7 +41023,7 @@
         <v>0</v>
       </c>
       <c r="AA163" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB163" s="23"/>
       <c r="AC163" s="41"/>
@@ -41031,7 +41032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:31" ht="14.25" hidden="1">
+    <row r="164" spans="1:31">
       <c r="A164" s="65">
         <v>43891</v>
       </c>
@@ -41106,7 +41107,7 @@
         <v>0</v>
       </c>
       <c r="AA164" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB164" s="23"/>
       <c r="AC164" s="41"/>
@@ -41115,7 +41116,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="165" spans="1:31" ht="14.25" hidden="1">
+    <row r="165" spans="1:31">
       <c r="A165" s="65">
         <v>43891</v>
       </c>
@@ -41190,7 +41191,7 @@
         <v>0</v>
       </c>
       <c r="AA165" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB165" s="23"/>
       <c r="AC165" s="41"/>
@@ -41199,7 +41200,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="166" spans="1:31" ht="14.25" hidden="1">
+    <row r="166" spans="1:31">
       <c r="A166" s="65">
         <v>43891</v>
       </c>
@@ -41274,7 +41275,7 @@
         <v>0</v>
       </c>
       <c r="AA166" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB166" s="23"/>
       <c r="AC166" s="41"/>
@@ -41283,7 +41284,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="14.25" hidden="1">
+    <row r="167" spans="1:31">
       <c r="A167" s="65">
         <v>43891</v>
       </c>
@@ -41358,7 +41359,7 @@
         <v>0</v>
       </c>
       <c r="AA167" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB167" s="23"/>
       <c r="AC167" s="41"/>
@@ -41367,7 +41368,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="14.25" hidden="1">
+    <row r="168" spans="1:31">
       <c r="A168" s="65">
         <v>43891</v>
       </c>
@@ -41442,7 +41443,7 @@
         <v>0</v>
       </c>
       <c r="AA168" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB168" s="23"/>
       <c r="AC168" s="41"/>
@@ -41451,7 +41452,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="14.25" hidden="1">
+    <row r="169" spans="1:31">
       <c r="A169" s="65">
         <v>43891</v>
       </c>
@@ -41526,7 +41527,7 @@
         <v>0</v>
       </c>
       <c r="AA169" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB169" s="23"/>
       <c r="AC169" s="41"/>
@@ -41535,7 +41536,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="14.25" hidden="1">
+    <row r="170" spans="1:31">
       <c r="A170" s="65">
         <v>43891</v>
       </c>
@@ -41610,7 +41611,7 @@
         <v>0</v>
       </c>
       <c r="AA170" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB170" s="23"/>
       <c r="AC170" s="41"/>
@@ -41619,7 +41620,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="14.25" hidden="1">
+    <row r="171" spans="1:31">
       <c r="A171" s="65">
         <v>43891</v>
       </c>
@@ -41694,7 +41695,7 @@
         <v>0</v>
       </c>
       <c r="AA171" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB171" s="23"/>
       <c r="AC171" s="41"/>
@@ -41703,7 +41704,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:31" ht="14.25" hidden="1">
+    <row r="172" spans="1:31">
       <c r="A172" s="65">
         <v>43891</v>
       </c>
@@ -41778,7 +41779,7 @@
         <v>0</v>
       </c>
       <c r="AA172" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB172" s="23"/>
       <c r="AC172" s="41"/>
@@ -41787,7 +41788,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="173" spans="1:31" ht="14.25" hidden="1">
+    <row r="173" spans="1:31">
       <c r="A173" s="65">
         <v>43891</v>
       </c>
@@ -41862,7 +41863,7 @@
         <v>0</v>
       </c>
       <c r="AA173" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB173" s="23"/>
       <c r="AC173" s="41"/>
@@ -41871,7 +41872,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="174" spans="1:31" ht="14.25" hidden="1">
+    <row r="174" spans="1:31">
       <c r="A174" s="65">
         <v>43891</v>
       </c>
@@ -41946,7 +41947,7 @@
         <v>0</v>
       </c>
       <c r="AA174" s="10">
-        <v>0.05</v>
+        <v>0.1038</v>
       </c>
       <c r="AB174" s="23"/>
       <c r="AC174" s="41"/>
@@ -41955,7 +41956,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="175" spans="1:31" ht="14.25" hidden="1">
+    <row r="175" spans="1:31">
       <c r="A175" s="65">
         <v>43891</v>
       </c>
@@ -42030,7 +42031,7 @@
         <v>0</v>
       </c>
       <c r="AA175" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB175" s="23"/>
       <c r="AC175" s="41"/>
@@ -42039,7 +42040,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="176" spans="1:31" ht="14.25" hidden="1">
+    <row r="176" spans="1:31">
       <c r="A176" s="65">
         <v>43891</v>
       </c>
@@ -42114,7 +42115,7 @@
         <v>0</v>
       </c>
       <c r="AA176" s="10">
-        <v>0.05</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB176" s="23"/>
       <c r="AC176" s="41"/>
@@ -42123,7 +42124,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="177" spans="1:38" ht="14.25" hidden="1">
+    <row r="177" spans="1:38">
       <c r="A177" s="65">
         <v>43891</v>
       </c>
@@ -42198,8 +42199,8 @@
       <c r="Z177" s="59">
         <v>4881660</v>
       </c>
-      <c r="AA177" s="14">
-        <v>0.05</v>
+      <c r="AA177" s="10">
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB177" s="23"/>
       <c r="AC177" s="41"/>
@@ -42208,7 +42209,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="178" spans="1:38" ht="14.25" hidden="1">
+    <row r="178" spans="1:38">
       <c r="A178" s="65">
         <v>43891</v>
       </c>
@@ -42294,7 +42295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:38" ht="14.25" hidden="1">
+    <row r="179" spans="1:38">
       <c r="A179" s="65">
         <v>43891</v>
       </c>
@@ -42380,7 +42381,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:38" ht="14.25" hidden="1">
+    <row r="180" spans="1:38">
       <c r="A180" s="66">
         <v>43891</v>
       </c>
@@ -42471,7 +42472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:38" ht="14.25" hidden="1">
+    <row r="181" spans="1:38">
       <c r="A181" s="84">
         <v>43922</v>
       </c>
@@ -42574,7 +42575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:38" ht="14.25" hidden="1">
+    <row r="182" spans="1:38">
       <c r="A182" s="84">
         <v>43922</v>
       </c>
@@ -42681,7 +42682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:38" ht="14.25" hidden="1">
+    <row r="183" spans="1:38">
       <c r="A183" s="84">
         <v>43922</v>
       </c>
@@ -42784,7 +42785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:38" ht="14.25" hidden="1">
+    <row r="184" spans="1:38">
       <c r="A184" s="84">
         <v>43922</v>
       </c>
@@ -42887,7 +42888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:38" ht="14.25" hidden="1">
+    <row r="185" spans="1:38">
       <c r="A185" s="84">
         <v>43922</v>
       </c>
@@ -42990,7 +42991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:38" ht="14.25" hidden="1">
+    <row r="186" spans="1:38">
       <c r="A186" s="84">
         <v>43922</v>
       </c>
@@ -43093,7 +43094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:38" ht="14.25" hidden="1">
+    <row r="187" spans="1:38">
       <c r="A187" s="84">
         <v>43922</v>
       </c>
@@ -43196,7 +43197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:38" ht="14.25" hidden="1">
+    <row r="188" spans="1:38">
       <c r="A188" s="84">
         <v>43922</v>
       </c>
@@ -43299,7 +43300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:38" ht="14.25" hidden="1">
+    <row r="189" spans="1:38">
       <c r="A189" s="84">
         <v>43922</v>
       </c>
@@ -43402,7 +43403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:38" ht="14.25" hidden="1">
+    <row r="190" spans="1:38">
       <c r="A190" s="84">
         <v>43922</v>
       </c>
@@ -43505,7 +43506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:38" ht="14.25" hidden="1">
+    <row r="191" spans="1:38">
       <c r="A191" s="84">
         <v>43922</v>
       </c>
@@ -43608,7 +43609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:38" ht="14.25" hidden="1">
+    <row r="192" spans="1:38">
       <c r="A192" s="84">
         <v>43922</v>
       </c>
@@ -43711,7 +43712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:37" ht="14.25" hidden="1">
+    <row r="193" spans="1:37">
       <c r="A193" s="84">
         <v>43922</v>
       </c>
@@ -43814,7 +43815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:37" ht="14.25" hidden="1">
+    <row r="194" spans="1:37">
       <c r="A194" s="84">
         <v>43922</v>
       </c>
@@ -43917,7 +43918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:37" ht="14.25" hidden="1">
+    <row r="195" spans="1:37">
       <c r="A195" s="84">
         <v>43922</v>
       </c>
@@ -44020,7 +44021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:37" ht="14.25" hidden="1">
+    <row r="196" spans="1:37">
       <c r="A196" s="84">
         <v>43922</v>
       </c>
@@ -44123,7 +44124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:37" ht="14.25" hidden="1">
+    <row r="197" spans="1:37">
       <c r="A197" s="84">
         <v>43922</v>
       </c>
@@ -44226,7 +44227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:37" ht="14.25" hidden="1">
+    <row r="198" spans="1:37">
       <c r="A198" s="84">
         <v>43922</v>
       </c>
@@ -44329,7 +44330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:37" ht="14.25" hidden="1">
+    <row r="199" spans="1:37">
       <c r="A199" s="84">
         <v>43922</v>
       </c>
@@ -44432,7 +44433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:37" ht="14.25" hidden="1">
+    <row r="200" spans="1:37">
       <c r="A200" s="84">
         <v>43922</v>
       </c>
@@ -44535,7 +44536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:37" ht="14.25" hidden="1">
+    <row r="201" spans="1:37">
       <c r="A201" s="84">
         <v>43922</v>
       </c>
@@ -44638,7 +44639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:37" ht="14.25" hidden="1">
+    <row r="202" spans="1:37">
       <c r="A202" s="84">
         <v>43922</v>
       </c>
@@ -44741,7 +44742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:37" ht="14.25" hidden="1">
+    <row r="203" spans="1:37">
       <c r="A203" s="84">
         <v>43922</v>
       </c>
@@ -44844,7 +44845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:37" ht="14.25" hidden="1">
+    <row r="204" spans="1:37">
       <c r="A204" s="84">
         <v>43922</v>
       </c>
@@ -44947,7 +44948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:37" ht="14.25" hidden="1">
+    <row r="205" spans="1:37">
       <c r="A205" s="84">
         <v>43922</v>
       </c>
@@ -45050,7 +45051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:37" ht="14.25" hidden="1">
+    <row r="206" spans="1:37">
       <c r="A206" s="84">
         <v>43922</v>
       </c>
@@ -45153,7 +45154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:37" ht="14.25" hidden="1">
+    <row r="207" spans="1:37">
       <c r="A207" s="84">
         <v>43922</v>
       </c>
@@ -45256,7 +45257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:37" ht="14.25" hidden="1">
+    <row r="208" spans="1:37">
       <c r="A208" s="84">
         <v>43922</v>
       </c>
@@ -45359,7 +45360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:38" ht="14.25" hidden="1">
+    <row r="209" spans="1:38">
       <c r="A209" s="84">
         <v>43922</v>
       </c>
@@ -45462,7 +45463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:38" ht="14.25" hidden="1">
+    <row r="210" spans="1:38">
       <c r="A210" s="84">
         <v>43922</v>
       </c>
@@ -45565,7 +45566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:38" ht="14.25" hidden="1">
+    <row r="211" spans="1:38">
       <c r="A211" s="84">
         <v>43922</v>
       </c>
@@ -45668,7 +45669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:38" ht="14.25" hidden="1">
+    <row r="212" spans="1:38">
       <c r="A212" s="84">
         <v>43922</v>
       </c>
@@ -45771,7 +45772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:38" ht="14.25" hidden="1">
+    <row r="213" spans="1:38">
       <c r="A213" s="84">
         <v>43922</v>
       </c>
@@ -45874,7 +45875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:38" ht="14.25" hidden="1">
+    <row r="214" spans="1:38">
       <c r="A214" s="84">
         <v>43922</v>
       </c>
@@ -45977,7 +45978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:38" ht="14.25" hidden="1">
+    <row r="215" spans="1:38">
       <c r="A215" s="84">
         <v>43922</v>
       </c>
@@ -46080,7 +46081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:38" ht="14.25" hidden="1">
+    <row r="216" spans="1:38">
       <c r="A216" s="84">
         <v>43922</v>
       </c>
@@ -46183,7 +46184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:38" ht="14.25" hidden="1">
+    <row r="217" spans="1:38">
       <c r="A217" s="84">
         <v>43922</v>
       </c>
@@ -46286,7 +46287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:38" ht="14.25" hidden="1">
+    <row r="218" spans="1:38">
       <c r="A218" s="84">
         <v>43922</v>
       </c>
@@ -46389,7 +46390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:38" ht="14.25" hidden="1">
+    <row r="219" spans="1:38">
       <c r="A219" s="84">
         <v>43922</v>
       </c>
@@ -46498,7 +46499,7 @@
         <v>6.9121338909098995E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:38" ht="14.25" hidden="1">
+    <row r="220" spans="1:38">
       <c r="A220" s="84">
         <v>43922</v>
       </c>
@@ -46601,7 +46602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:38" ht="14.25" hidden="1">
+    <row r="221" spans="1:38">
       <c r="A221" s="84">
         <v>43922</v>
       </c>
@@ -46704,7 +46705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:38" ht="14.25">
+    <row r="222" spans="1:38">
       <c r="A222" s="84">
         <v>43922</v>
       </c>
@@ -46800,7 +46801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:38" ht="14.25" hidden="1">
+    <row r="223" spans="1:38">
       <c r="A223" s="84">
         <v>43922</v>
       </c>
@@ -46907,7 +46908,7 @@
         <v>-187767.14516129033</v>
       </c>
     </row>
-    <row r="224" spans="1:38" ht="14.25" hidden="1">
+    <row r="224" spans="1:38">
       <c r="A224" s="84">
         <v>43922</v>
       </c>
@@ -47013,7 +47014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:38" ht="14.25" hidden="1">
+    <row r="225" spans="1:38">
       <c r="A225" s="84">
         <v>43922</v>
       </c>
@@ -47131,7 +47132,7 @@
         <v>7.4469172931276262</v>
       </c>
     </row>
-    <row r="226" spans="1:38" ht="14.25" hidden="1">
+    <row r="226" spans="1:38">
       <c r="A226" s="84">
         <v>43922</v>
       </c>
@@ -47238,15 +47239,14 @@
         <v>659764.41599999974</v>
       </c>
       <c r="AK226" s="90">
-        <f t="shared" si="32"/>
-        <v>2225.7461538461926</v>
+        <v>823000</v>
       </c>
       <c r="AL226" s="57">
         <f t="shared" si="33"/>
-        <v>-820774.25384615385</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:38" ht="14.25" hidden="1">
+    <row r="227" spans="1:38">
       <c r="A227" s="84">
         <v>43922</v>
       </c>
@@ -47357,7 +47357,7 @@
         <v>68.772846715641208</v>
       </c>
     </row>
-    <row r="228" spans="1:38" ht="14.25" hidden="1">
+    <row r="228" spans="1:38">
       <c r="A228" s="84">
         <v>43922</v>
       </c>
@@ -47460,7 +47460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:38" ht="14.25" hidden="1">
+    <row r="229" spans="1:38">
       <c r="A229" s="84">
         <v>43922</v>
       </c>
@@ -47563,7 +47563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:38" ht="14.25" hidden="1">
+    <row r="230" spans="1:38">
       <c r="A230" s="84">
         <v>43922</v>
       </c>
@@ -47670,7 +47670,7 @@
         <v>-15.862394366197179</v>
       </c>
     </row>
-    <row r="231" spans="1:38" ht="14.25" hidden="1">
+    <row r="231" spans="1:38">
       <c r="A231" s="84">
         <v>43922</v>
       </c>
@@ -47777,7 +47777,7 @@
         <v>-0.1397183098591549</v>
       </c>
     </row>
-    <row r="232" spans="1:38" ht="14.25" hidden="1">
+    <row r="232" spans="1:38">
       <c r="A232" s="84">
         <v>43922</v>
       </c>
@@ -47869,7 +47869,7 @@
       <c r="AJ232" s="94"/>
       <c r="AK232" s="94"/>
     </row>
-    <row r="233" spans="1:38" ht="14.25" hidden="1">
+    <row r="233" spans="1:38">
       <c r="A233" s="84">
         <v>43922</v>
       </c>
@@ -47964,7 +47964,7 @@
       <c r="AJ233" s="94"/>
       <c r="AK233" s="94"/>
     </row>
-    <row r="234" spans="1:38" ht="14.25" hidden="1">
+    <row r="234" spans="1:38">
       <c r="A234" s="84">
         <v>43922</v>
       </c>
@@ -48055,7 +48055,7 @@
       <c r="AJ234" s="94"/>
       <c r="AK234" s="94"/>
     </row>
-    <row r="235" spans="1:38" ht="14.25" hidden="1">
+    <row r="235" spans="1:38">
       <c r="A235" s="84">
         <v>43922</v>
       </c>
@@ -48143,7 +48143,7 @@
       <c r="AJ235" s="94"/>
       <c r="AK235" s="94"/>
     </row>
-    <row r="236" spans="1:38" ht="14.25" hidden="1">
+    <row r="236" spans="1:38">
       <c r="A236" s="84">
         <v>43922</v>
       </c>
@@ -48234,7 +48234,7 @@
       <c r="AJ236" s="104"/>
       <c r="AK236" s="104"/>
     </row>
-    <row r="237" spans="1:38" ht="14.25" hidden="1">
+    <row r="237" spans="1:38">
       <c r="A237" s="84">
         <v>43922</v>
       </c>
@@ -48272,26 +48272,29 @@
       <c r="M237" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="N237" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="O237" s="93">
-        <v>0</v>
+      <c r="N237" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="O237" s="146">
+        <v>0.01</v>
       </c>
       <c r="P237" s="85"/>
-      <c r="Q237" s="86"/>
+      <c r="Q237" s="135" t="s">
+        <v>307</v>
+      </c>
       <c r="R237" s="20"/>
       <c r="S237" s="90"/>
       <c r="T237" s="90">
         <v>24590.1</v>
       </c>
       <c r="U237" s="90"/>
-      <c r="V237" s="90">
-        <v>24405.21</v>
+      <c r="V237" s="130">
+        <f>T237*(1+AE237)/(1+O237+AE237)</f>
+        <v>24405.212030075189</v>
       </c>
       <c r="W237" s="90">
         <f>V237*6%</f>
-        <v>1464.3126</v>
+        <v>1464.3127218045113</v>
       </c>
       <c r="X237" s="22">
         <f t="shared" ref="X237:X292" si="35">IF(V237-Z237&lt;0,0,IF(N237="返现",MAX(V237-Y237-Z237,0),MAX(V237-Z237,0)))</f>
@@ -48299,7 +48302,7 @@
       </c>
       <c r="Y237" s="91">
         <f t="shared" ref="Y237" si="36">T237-V237</f>
-        <v>184.88999999999942</v>
+        <v>184.88796992481002</v>
       </c>
       <c r="Z237" s="90">
         <f>T237</f>
@@ -48313,8 +48316,8 @@
         <v>307</v>
       </c>
       <c r="AD237" s="86"/>
-      <c r="AE237" s="93">
-        <v>0</v>
+      <c r="AE237" s="132">
+        <v>0.32</v>
       </c>
       <c r="AF237" s="94"/>
       <c r="AG237" s="94"/>
@@ -48323,7 +48326,7 @@
       <c r="AJ237" s="94"/>
       <c r="AK237" s="94"/>
     </row>
-    <row r="238" spans="1:38" ht="14.25" hidden="1">
+    <row r="238" spans="1:38">
       <c r="A238" s="116" t="s">
         <v>309</v>
       </c>
@@ -48435,7 +48438,7 @@
         <v>-1393439.1774193547</v>
       </c>
     </row>
-    <row r="239" spans="1:38" ht="14.25" hidden="1">
+    <row r="239" spans="1:38">
       <c r="A239" s="116" t="s">
         <v>309</v>
       </c>
@@ -48537,16 +48540,15 @@
         <f t="shared" si="39"/>
         <v>112979.09</v>
       </c>
-      <c r="AK239" s="124">
-        <f t="shared" si="40"/>
-        <v>164597.0662</v>
+      <c r="AK239" s="121">
+        <v>949457.32</v>
       </c>
       <c r="AL239" s="57">
         <f t="shared" ref="AL239:AL240" si="42">AK239-V239</f>
-        <v>-784860.25379999995</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:38" ht="14.25" hidden="1">
+    <row r="240" spans="1:38">
       <c r="A240" s="116" t="s">
         <v>309</v>
       </c>
@@ -48651,16 +48653,15 @@
         <f t="shared" si="39"/>
         <v>1361206.5079999994</v>
       </c>
-      <c r="AK240" s="124">
-        <f t="shared" si="40"/>
-        <v>1930591.4153846153</v>
+      <c r="AK240" s="121">
+        <v>2917214.7168000001</v>
       </c>
       <c r="AL240" s="57">
         <f t="shared" si="42"/>
-        <v>-986623.30141538475</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:37" ht="14.25" hidden="1">
+    <row r="241" spans="1:37">
       <c r="A241" s="116" t="s">
         <v>309</v>
       </c>
@@ -48764,7 +48765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:37" ht="14.25" hidden="1">
+    <row r="242" spans="1:37">
       <c r="A242" s="116" t="s">
         <v>309</v>
       </c>
@@ -48868,7 +48869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:37" ht="14.25" hidden="1">
+    <row r="243" spans="1:37">
       <c r="A243" s="116" t="s">
         <v>309</v>
       </c>
@@ -48972,7 +48973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:37" ht="14.25" hidden="1">
+    <row r="244" spans="1:37">
       <c r="A244" s="116" t="s">
         <v>309</v>
       </c>
@@ -49076,7 +49077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:37" ht="14.25" hidden="1">
+    <row r="245" spans="1:37">
       <c r="A245" s="116" t="s">
         <v>309</v>
       </c>
@@ -49180,7 +49181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:37" ht="14.25" hidden="1">
+    <row r="246" spans="1:37">
       <c r="A246" s="116" t="s">
         <v>309</v>
       </c>
@@ -49284,7 +49285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:37" ht="14.25" hidden="1">
+    <row r="247" spans="1:37">
       <c r="A247" s="116" t="s">
         <v>309</v>
       </c>
@@ -49388,7 +49389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:37" ht="14.25" hidden="1">
+    <row r="248" spans="1:37">
       <c r="A248" s="116" t="s">
         <v>309</v>
       </c>
@@ -49492,7 +49493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:37" ht="14.25" hidden="1">
+    <row r="249" spans="1:37">
       <c r="A249" s="116" t="s">
         <v>309</v>
       </c>
@@ -49596,7 +49597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:37" ht="14.25" hidden="1">
+    <row r="250" spans="1:37">
       <c r="A250" s="116" t="s">
         <v>309</v>
       </c>
@@ -49700,7 +49701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:37" ht="14.25" hidden="1">
+    <row r="251" spans="1:37">
       <c r="A251" s="116" t="s">
         <v>309</v>
       </c>
@@ -49804,7 +49805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:37" ht="14.25" hidden="1">
+    <row r="252" spans="1:37">
       <c r="A252" s="116" t="s">
         <v>309</v>
       </c>
@@ -49908,7 +49909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:37" ht="14.25" hidden="1">
+    <row r="253" spans="1:37">
       <c r="A253" s="116" t="s">
         <v>309</v>
       </c>
@@ -50012,7 +50013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:37" ht="14.25" hidden="1">
+    <row r="254" spans="1:37">
       <c r="A254" s="116" t="s">
         <v>309</v>
       </c>
@@ -50116,7 +50117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:37" ht="14.25" hidden="1">
+    <row r="255" spans="1:37">
       <c r="A255" s="116" t="s">
         <v>309</v>
       </c>
@@ -50220,7 +50221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:37" ht="14.25" hidden="1">
+    <row r="256" spans="1:37">
       <c r="A256" s="116" t="s">
         <v>309</v>
       </c>
@@ -50324,7 +50325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:38" ht="14.25" hidden="1">
+    <row r="257" spans="1:38">
       <c r="A257" s="116" t="s">
         <v>309</v>
       </c>
@@ -50428,7 +50429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:38" ht="14.25" hidden="1">
+    <row r="258" spans="1:38">
       <c r="A258" s="116" t="s">
         <v>309</v>
       </c>
@@ -50532,7 +50533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:38" ht="14.25" hidden="1">
+    <row r="259" spans="1:38">
       <c r="A259" s="116" t="s">
         <v>309</v>
       </c>
@@ -50636,7 +50637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:38" ht="14.25" hidden="1">
+    <row r="260" spans="1:38">
       <c r="A260" s="116" t="s">
         <v>309</v>
       </c>
@@ -50740,7 +50741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:38" ht="14.25" hidden="1">
+    <row r="261" spans="1:38">
       <c r="A261" s="116" t="s">
         <v>309</v>
       </c>
@@ -50844,7 +50845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:38" ht="14.25" hidden="1">
+    <row r="262" spans="1:38">
       <c r="A262" s="116" t="s">
         <v>309</v>
       </c>
@@ -50952,7 +50953,7 @@
         <v>0.15837499999906868</v>
       </c>
     </row>
-    <row r="263" spans="1:38" ht="14.25" hidden="1">
+    <row r="263" spans="1:38">
       <c r="A263" s="116" t="s">
         <v>309</v>
       </c>
@@ -51056,7 +51057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:38" ht="14.25" hidden="1">
+    <row r="264" spans="1:38">
       <c r="A264" s="116" t="s">
         <v>309</v>
       </c>
@@ -51160,7 +51161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:38" ht="14.25" hidden="1">
+    <row r="265" spans="1:38">
       <c r="A265" s="116" t="s">
         <v>309</v>
       </c>
@@ -51264,7 +51265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:38" ht="14.25" hidden="1">
+    <row r="266" spans="1:38">
       <c r="A266" s="116" t="s">
         <v>309</v>
       </c>
@@ -51368,7 +51369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:38" ht="14.25" hidden="1">
+    <row r="267" spans="1:38">
       <c r="A267" s="116" t="s">
         <v>309</v>
       </c>
@@ -51472,7 +51473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:38" ht="14.25" hidden="1">
+    <row r="268" spans="1:38">
       <c r="A268" s="116" t="s">
         <v>309</v>
       </c>
@@ -51576,7 +51577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:38" ht="14.25" hidden="1">
+    <row r="269" spans="1:38">
       <c r="A269" s="116" t="s">
         <v>309</v>
       </c>
@@ -51680,7 +51681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:38" ht="14.25" hidden="1">
+    <row r="270" spans="1:38">
       <c r="A270" s="116" t="s">
         <v>309</v>
       </c>
@@ -51784,7 +51785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:38" ht="14.25" hidden="1">
+    <row r="271" spans="1:38">
       <c r="A271" s="116" t="s">
         <v>309</v>
       </c>
@@ -51888,7 +51889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:38" ht="14.25" hidden="1">
+    <row r="272" spans="1:38">
       <c r="A272" s="116" t="s">
         <v>309</v>
       </c>
@@ -51992,7 +51993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:38" ht="14.25" hidden="1">
+    <row r="273" spans="1:38">
       <c r="A273" s="116" t="s">
         <v>309</v>
       </c>
@@ -52096,7 +52097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:38" ht="14.25" hidden="1">
+    <row r="274" spans="1:38">
       <c r="A274" s="116" t="s">
         <v>309</v>
       </c>
@@ -52200,7 +52201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:38" ht="14.25" hidden="1">
+    <row r="275" spans="1:38">
       <c r="A275" s="116" t="s">
         <v>309</v>
       </c>
@@ -52304,7 +52305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:38" ht="14.25" hidden="1">
+    <row r="276" spans="1:38">
       <c r="A276" s="116" t="s">
         <v>309</v>
       </c>
@@ -52408,7 +52409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:38" ht="14.25" hidden="1">
+    <row r="277" spans="1:38">
       <c r="A277" s="116" t="s">
         <v>309</v>
       </c>
@@ -52512,7 +52513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:38" ht="14.25" hidden="1">
+    <row r="278" spans="1:38">
       <c r="A278" s="116" t="s">
         <v>309</v>
       </c>
@@ -52616,7 +52617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:38" ht="14.25" hidden="1">
+    <row r="279" spans="1:38">
       <c r="A279" s="116" t="s">
         <v>309</v>
       </c>
@@ -52724,7 +52725,7 @@
         <v>-1.4058577407013217E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:38" ht="14.25" hidden="1">
+    <row r="280" spans="1:38">
       <c r="A280" s="116" t="s">
         <v>309</v>
       </c>
@@ -52828,7 +52829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:38" ht="14.25" hidden="1">
+    <row r="281" spans="1:38">
       <c r="A281" s="116" t="s">
         <v>309</v>
       </c>
@@ -52932,7 +52933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:38" ht="14.25" hidden="1">
+    <row r="282" spans="1:38">
       <c r="A282" s="116" t="s">
         <v>309</v>
       </c>
@@ -53042,7 +53043,7 @@
         <v>0.27879699248296674</v>
       </c>
     </row>
-    <row r="283" spans="1:38" ht="14.25" hidden="1">
+    <row r="283" spans="1:38">
       <c r="A283" s="116" t="s">
         <v>309</v>
       </c>
@@ -53146,7 +53147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:38" ht="14.25" hidden="1">
+    <row r="284" spans="1:38">
       <c r="A284" s="116" t="s">
         <v>309</v>
       </c>
@@ -53250,7 +53251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:38" ht="14.25" hidden="1">
+    <row r="285" spans="1:38">
       <c r="A285" s="116" t="s">
         <v>309</v>
       </c>
@@ -53358,7 +53359,7 @@
         <v>-8.8584507042253513</v>
       </c>
     </row>
-    <row r="286" spans="1:38" ht="14.25" hidden="1">
+    <row r="286" spans="1:38">
       <c r="A286" s="116" t="s">
         <v>309</v>
       </c>
@@ -53462,7 +53463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:38" ht="14.25" hidden="1">
+    <row r="287" spans="1:38">
       <c r="A287" s="116" t="s">
         <v>309</v>
       </c>
@@ -53572,7 +53573,7 @@
         <v>45.029999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:38" ht="14.25" hidden="1">
+    <row r="288" spans="1:38">
       <c r="A288" s="116" t="s">
         <v>309</v>
       </c>
@@ -53671,7 +53672,7 @@
       <c r="AJ288" s="136"/>
       <c r="AK288" s="136"/>
     </row>
-    <row r="289" spans="1:37" ht="14.25" hidden="1">
+    <row r="289" spans="1:37">
       <c r="A289" s="116" t="s">
         <v>309</v>
       </c>
@@ -53768,7 +53769,7 @@
       <c r="AJ289" s="136"/>
       <c r="AK289" s="136"/>
     </row>
-    <row r="290" spans="1:37" ht="14.25" hidden="1">
+    <row r="290" spans="1:37">
       <c r="A290" s="116" t="s">
         <v>309</v>
       </c>
@@ -53864,7 +53865,7 @@
       <c r="AJ290" s="136"/>
       <c r="AK290" s="136"/>
     </row>
-    <row r="291" spans="1:37" ht="15.75" hidden="1">
+    <row r="291" spans="1:37" ht="15">
       <c r="A291" s="116" t="s">
         <v>309</v>
       </c>
@@ -53965,7 +53966,7 @@
       <c r="AJ291" s="145"/>
       <c r="AK291" s="145"/>
     </row>
-    <row r="292" spans="1:37" ht="15.75" hidden="1">
+    <row r="292" spans="1:37" ht="15">
       <c r="A292" s="116" t="s">
         <v>309</v>
       </c>
@@ -54058,7 +54059,7 @@
       <c r="AJ292" s="147"/>
       <c r="AK292" s="147"/>
     </row>
-    <row r="293" spans="1:37" ht="14.25" hidden="1">
+    <row r="293" spans="1:37">
       <c r="A293" s="116" t="s">
         <v>309</v>
       </c>
@@ -54162,7 +54163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:37" ht="14.25" hidden="1">
+    <row r="294" spans="1:37">
       <c r="A294" s="116" t="s">
         <v>309</v>
       </c>
@@ -54266,7 +54267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:37" ht="14.25" hidden="1">
+    <row r="295" spans="1:37">
       <c r="A295" s="116" t="s">
         <v>309</v>
       </c>
@@ -54370,7 +54371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:37" ht="14.25" hidden="1">
+    <row r="296" spans="1:37">
       <c r="A296" s="116" t="s">
         <v>309</v>
       </c>
@@ -54474,7 +54475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:37" ht="14.25" hidden="1">
+    <row r="297" spans="1:37">
       <c r="A297" s="116" t="s">
         <v>309</v>
       </c>
@@ -54579,19 +54580,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL297">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="北京迪爱慈广告有限公司"/>
-        <filter val="北京迪爱慈广告有限公司-2002"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="北京百度网讯科技有限公司-2020"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AL297"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="Q126">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
@@ -54623,31 +54612,31 @@
       <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="78" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5" style="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" style="78" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="83" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="78" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="78" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="78" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="107" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.375" style="78" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.36328125" style="78" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="78" customWidth="1"/>
     <col min="14" max="14" width="8" style="78" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.25" style="107" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.75" style="78" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" style="78" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.375" style="78" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.26953125" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.7265625" style="78" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.453125" style="78" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.36328125" style="78" customWidth="1"/>
     <col min="21" max="21" width="8" style="78" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1">
+    <row r="1" spans="1:21" ht="15" thickBot="1">
       <c r="A1" s="149" t="s">
         <v>8</v>
       </c>
@@ -56279,20 +56268,20 @@
       </c>
       <c r="O26" s="71">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A26,客户表!A:A,E26,客户表!M:M,F26)+SUMIFS(客户表!W:W,客户表!I:I,A26,客户表!A:A,E26,客户表!M:M,F26)+SUMIFS(客户表!AL:AL,客户表!I:I,A26,客户表!A:A,E26,客户表!M:M,F26)</f>
-        <v>1245107.1054502367</v>
+        <v>2065881.3592963906</v>
       </c>
       <c r="P26" s="79"/>
       <c r="Q26" s="70">
         <f t="shared" si="4"/>
-        <v>207114.26363229885</v>
+        <v>981429.59744942503</v>
       </c>
       <c r="R26" s="70">
         <f t="shared" si="1"/>
-        <v>207114.26363229885</v>
+        <v>981429.59744942503</v>
       </c>
       <c r="S26" s="115">
         <f t="shared" si="2"/>
-        <v>0.1663425280650096</v>
+        <v>0.47506580812737759</v>
       </c>
       <c r="T26" s="81"/>
       <c r="U26" s="67" t="s">
@@ -56410,20 +56399,20 @@
       </c>
       <c r="O28" s="71">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A28,客户表!A:A,E28,客户表!M:M,F28)+SUMIFS(客户表!W:W,客户表!I:I,A28,客户表!A:A,E28,客户表!M:M,F28)</f>
-        <v>6820741.3172000004</v>
+        <v>6820741.3193518799</v>
       </c>
       <c r="P28" s="79"/>
       <c r="Q28" s="70">
         <f t="shared" si="4"/>
-        <v>3092328.5115094339</v>
+        <v>3092328.5135395089</v>
       </c>
       <c r="R28" s="70">
         <f t="shared" si="1"/>
-        <v>3092328.5115094339</v>
+        <v>3092328.5135395089</v>
       </c>
       <c r="S28" s="115">
         <f t="shared" si="2"/>
-        <v>0.45337132251467255</v>
+        <v>0.45337132266927077</v>
       </c>
       <c r="T28" s="73"/>
       <c r="U28" s="67" t="s">
@@ -56597,20 +56586,20 @@
       </c>
       <c r="O31" s="110">
         <f>SUMIFS(客户表!V:V,客户表!I:I,媒体表!A31,客户表!A:A,媒体表!E31,客户表!M:M,媒体表!F31)+SUMIFS(客户表!W:W,客户表!I:I,媒体表!A31,客户表!A:A,媒体表!E31,客户表!M:M,媒体表!F31)+SUMIFS(客户表!AL:AL,客户表!I:I,媒体表!A31,客户表!A:A,媒体表!E31,客户表!M:M,媒体表!F31)</f>
-        <v>2269676.4631791622</v>
+        <v>4041160.018394547</v>
       </c>
       <c r="P31" s="110"/>
       <c r="Q31" s="70">
         <f t="shared" si="4"/>
-        <v>13337.649886002135</v>
+        <v>1684548.5510325916</v>
       </c>
       <c r="R31" s="70">
         <f t="shared" si="1"/>
-        <v>13337.649886002135</v>
+        <v>1684548.5510325916</v>
       </c>
       <c r="S31" s="115">
         <f t="shared" si="2"/>
-        <v>5.8764542446371115E-3</v>
+        <v>0.41684777226461356</v>
       </c>
       <c r="T31" s="154"/>
       <c r="U31" s="67" t="s">
